--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Stanup status_ team\New folder\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E671BCFE-0BD0-4133-9272-A5D6BF349509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4285A1F7-9129-426B-A461-9EEC70396233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="129">
   <si>
     <t>Task</t>
   </si>
@@ -292,28 +292,10 @@
     <t>Need to start</t>
   </si>
   <si>
-    <t>how to check logs podas and container(vedio )</t>
-  </si>
-  <si>
-    <t>how to check logs podas and container(Practice )</t>
-  </si>
-  <si>
-    <t>kubernaties commands</t>
-  </si>
-  <si>
     <t>java polymorphisim</t>
   </si>
   <si>
-    <t>data id remaining topics</t>
-  </si>
-  <si>
-    <t>python practice</t>
-  </si>
-  <si>
     <t>tableau (Skill set ) preparation</t>
-  </si>
-  <si>
-    <t>tableau vedio</t>
   </si>
   <si>
     <t>python practice to shamshad garu</t>
@@ -366,9 +348,6 @@
     <t>logo creation</t>
   </si>
   <si>
-    <t xml:space="preserve">live analysis,adani power </t>
-  </si>
-  <si>
     <t xml:space="preserve">live analysis,adani power  </t>
   </si>
   <si>
@@ -408,13 +387,64 @@
     <t>dataiku recipes document (prepare , group)</t>
   </si>
   <si>
-    <t>neeed to start</t>
-  </si>
-  <si>
     <t>jfrog to vs code connection (vedio)</t>
   </si>
   <si>
     <t>comple</t>
+  </si>
+  <si>
+    <t>data iq documentation( joins)</t>
+  </si>
+  <si>
+    <t>Data iq j documentation</t>
+  </si>
+  <si>
+    <t>need to  start</t>
+  </si>
+  <si>
+    <t>how to check logs pods and container(vedio )</t>
+  </si>
+  <si>
+    <t>kubernetes commands</t>
+  </si>
+  <si>
+    <t>Prepared Excel sheet with Docker commands</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kubernetes Commands in CLI</t>
+  </si>
+  <si>
+    <t>html sheets preperation</t>
+  </si>
+  <si>
+    <t>ppt documents</t>
+  </si>
+  <si>
+    <t>java variables</t>
+  </si>
+  <si>
+    <t>leave tracker,login late tracker schedule in tableau</t>
+  </si>
+  <si>
+    <t>daily status report generation in tableau</t>
+  </si>
+  <si>
+    <t>tableau vedio(tableau product suit)</t>
+  </si>
+  <si>
+    <t>need to start</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>job creation</t>
+  </si>
+  <si>
+    <t>Basic checks,append,group by, aggregation,merges</t>
+  </si>
+  <si>
+    <t>Sql and aws quicksight explanation to team</t>
   </si>
 </sst>
 </file>
@@ -462,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -482,6 +512,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,6 +525,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,23 +848,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
     <col min="2" max="2" width="52.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -829,325 +873,350 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
-        <v>80</v>
+      <c r="C32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>45644</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="13">
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1155,6 +1224,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1162,11 +1236,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1271,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1208,19 +1282,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1231,24 +1305,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1259,7 +1333,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1268,7 +1342,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1277,7 +1351,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="10">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1288,7 +1362,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1297,10 +1371,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="10">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1311,7 +1385,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -1320,13 +1394,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="10">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1337,7 +1411,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1346,7 +1420,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1355,7 +1429,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="10">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1366,7 +1440,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -1375,7 +1449,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -1384,18 +1458,18 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="10">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -1404,7 +1478,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -1413,7 +1487,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="12">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1424,7 +1498,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -1433,7 +1507,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -1442,7 +1516,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -1451,7 +1525,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="10">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1462,7 +1536,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -1471,66 +1545,93 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="10">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>116</v>
+        <v>81</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>116</v>
+      <c r="E38" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>116</v>
+      <c r="A39" s="11"/>
+      <c r="E39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>45644</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1571,7 +1672,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1582,7 +1683,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1591,15 +1692,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1608,21 +1709,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1633,7 +1734,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -1642,80 +1743,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="10">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="10">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="10">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="10">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="10">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="10">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="10">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="10">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1738,208 +1839,282 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="12">
         <v>45628</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <v>45629</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="12">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>45631</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="12">
         <v>45632</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>45635</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" t="s">
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" t="s">
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>45636</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
         <v>45637</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>45638</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3" t="s">
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>45639</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>45642</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
         <v>45643</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>45644</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -1959,11 +2134,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,7 +2169,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2005,16 +2180,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2025,29 +2200,29 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -2056,10 +2231,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2070,7 +2245,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -2079,10 +2254,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="12">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2093,7 +2268,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -2102,7 +2277,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -2111,18 +2286,18 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="12">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -2131,38 +2306,38 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="12">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="12">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="12">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2173,7 +2348,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -2182,10 +2357,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="12">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2196,7 +2371,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -2205,48 +2380,59 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="12">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>80</v>
+        <v>116</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>80</v>
+        <v>115</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>45644</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2254,11 +2440,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2288,7 +2474,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="13">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -2299,7 +2485,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -2308,10 +2494,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="13">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -2322,35 +2508,35 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="13">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="13">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -2359,21 +2545,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="13">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -2382,21 +2568,21 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="13">
         <v>45637</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -2405,103 +2591,111 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="13">
         <v>45638</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="13"/>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="13">
         <v>45639</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
         <v>103</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="13">
         <v>45642</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="13"/>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28" s="13">
         <v>45643</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="13"/>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>45644</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2509,11 +2703,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2544,18 +2738,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
@@ -2564,10 +2758,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2578,7 +2772,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2587,21 +2781,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2612,7 +2806,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2621,10 +2815,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="12">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2635,7 +2829,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2644,7 +2838,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
@@ -2653,7 +2847,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="12">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2664,7 +2858,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
@@ -2673,7 +2867,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
@@ -2682,7 +2876,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="12">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2693,7 +2887,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
@@ -2702,7 +2896,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2713,7 +2907,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -2722,7 +2916,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="12">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2733,7 +2927,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -2742,24 +2936,24 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="12">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -2768,7 +2962,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -2777,7 +2971,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="12">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2785,42 +2979,81 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="12">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
       <c r="B33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
       <c r="B34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>45644</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Stanup status_ team\New folder\Daily_standup_all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4285A1F7-9129-426B-A461-9EEC70396233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACB0EE-5C3E-4E35-8A39-75D6D00BC1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
-    <sheet name="Rahamathunissa" sheetId="3" r:id="rId2"/>
-    <sheet name="Swathi" sheetId="10" r:id="rId3"/>
-    <sheet name="Bujji garu" sheetId="4" r:id="rId4"/>
-    <sheet name="Santhosh" sheetId="5" r:id="rId5"/>
-    <sheet name="Mallika" sheetId="6" r:id="rId6"/>
-    <sheet name="Jayasri" sheetId="7" r:id="rId7"/>
+    <sheet name="prasanna_copy" sheetId="11" r:id="rId2"/>
+    <sheet name="Rahamathunissa" sheetId="3" r:id="rId3"/>
+    <sheet name="Swathi" sheetId="10" r:id="rId4"/>
+    <sheet name="Bujji garu" sheetId="4" r:id="rId5"/>
+    <sheet name="Santhosh" sheetId="5" r:id="rId6"/>
+    <sheet name="Mallika" sheetId="6" r:id="rId7"/>
+    <sheet name="Jayasri" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="142">
   <si>
     <t>Task</t>
   </si>
@@ -399,9 +400,6 @@
     <t>Data iq j documentation</t>
   </si>
   <si>
-    <t>need to  start</t>
-  </si>
-  <si>
     <t>how to check logs pods and container(vedio )</t>
   </si>
   <si>
@@ -445,6 +443,48 @@
   </si>
   <si>
     <t>Sql and aws quicksight explanation to team</t>
+  </si>
+  <si>
+    <t>data iq ducumentation</t>
+  </si>
+  <si>
+    <t>operators in java</t>
+  </si>
+  <si>
+    <t>docker virtcual envirnovement creation</t>
+  </si>
+  <si>
+    <t>live analysis</t>
+  </si>
+  <si>
+    <t>html and live analysis</t>
+  </si>
+  <si>
+    <t>catalog</t>
+  </si>
+  <si>
+    <t>Sql  explanation to team</t>
+  </si>
+  <si>
+    <t>data retrieve,where( and ,or, multiple and ,or),aggregation functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aws quicksight explain to team </t>
+  </si>
+  <si>
+    <t>supply chain industry</t>
+  </si>
+  <si>
+    <t>project work</t>
+  </si>
+  <si>
+    <t>aws_quicksight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql and aws quicksight </t>
+  </si>
+  <si>
+    <t>html</t>
   </si>
 </sst>
 </file>
@@ -492,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -515,6 +555,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,16 +579,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,11 +897,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>45628</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>45629</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>45630</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>45631</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>45632</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>45635</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>45636</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>45637</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>45638</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>45639</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>45642</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>45643</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>45644</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>45645</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1119D2-2A02-4855-8488-C99F1423766D}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -886,361 +1379,584 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9">
+        <v>45628</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9">
+        <v>45628</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9">
+        <v>45629</v>
+      </c>
       <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9">
+        <v>45629</v>
+      </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9">
+        <v>45630</v>
+      </c>
       <c r="B9" t="s">
         <v>91</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9">
+        <v>45630</v>
+      </c>
       <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9">
+        <v>45631</v>
+      </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9">
+        <v>45631</v>
+      </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
-        <v>9</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9">
+        <v>45632</v>
+      </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
-        <v>9</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9">
+        <v>45632</v>
+      </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
-        <v>9</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9">
+        <v>45635</v>
+      </c>
       <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="F18" t="s">
-        <v>9</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9">
+        <v>45635</v>
+      </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
       </c>
-      <c r="F20" t="s">
-        <v>9</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9">
+        <v>45636</v>
+      </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" t="s">
-        <v>9</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" t="s">
-        <v>16</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9">
+        <v>45637</v>
+      </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" t="s">
-        <v>9</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
-        <v>9</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9">
+        <v>45638</v>
+      </c>
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="F25" t="s">
-        <v>9</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9">
+        <v>45638</v>
+      </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
-        <v>9</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="F27" t="s">
-        <v>9</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9">
+        <v>45639</v>
+      </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="F28" t="s">
-        <v>9</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="F29" t="s">
-        <v>9</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9">
+        <v>45642</v>
+      </c>
       <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="F30" t="s">
-        <v>9</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
+        <v>125</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="9">
+        <v>45643</v>
+      </c>
       <c r="B32" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+        <v>126</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>45644</v>
+      </c>
       <c r="B34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1987,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="15">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1282,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
         <v>106</v>
       </c>
@@ -1291,10 +2007,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="15">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1305,24 +2021,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="15">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="15">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1333,7 +2049,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1342,7 +2058,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1351,7 +2067,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="15">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1362,7 +2078,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1371,10 +2087,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="15">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1385,7 +2101,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -1394,13 +2110,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="15">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1411,7 +2127,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1420,7 +2136,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1429,7 +2145,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="15">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1440,7 +2156,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -1449,7 +2165,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -1458,7 +2174,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="15">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1469,7 +2185,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -1478,7 +2194,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -1487,7 +2203,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="17">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1498,7 +2214,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -1507,7 +2223,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -1516,7 +2232,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -1525,7 +2241,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="15">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1536,7 +2252,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -1545,7 +2261,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="5" t="s">
         <v>108</v>
       </c>
@@ -1554,7 +2270,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+      <c r="A36" s="15">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1565,7 +2281,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="5" t="s">
         <v>111</v>
       </c>
@@ -1574,7 +2290,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -1583,42 +2299,74 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
+      <c r="A39" s="16"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="A40" s="17">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>113</v>
+      <c r="E40" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>113</v>
+      <c r="E42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
+        <v>45645</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A20:A22"/>
@@ -1626,18 +2374,12 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B374E9-D3C4-48FA-8670-36406B6AB735}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -1672,7 +2414,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="15">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1683,7 +2425,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="15"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1692,15 +2434,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="15">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1709,21 +2451,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="15">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="15">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1734,7 +2476,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -1743,80 +2485,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="15">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="15">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="15">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="15">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="15">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="15">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="15">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="15">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1837,13 +2579,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,7 +2616,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="17">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1885,7 +2627,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1894,10 +2636,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="17">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1908,24 +2650,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="17">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="17">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1936,8 +2678,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1945,10 +2687,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="17">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1959,7 +2701,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1968,10 +2710,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="17">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1982,7 +2724,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -1991,7 +2733,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -2000,7 +2742,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="17">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2011,8 +2753,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -2020,7 +2762,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="17">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2031,8 +2773,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2040,7 +2782,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="17">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2051,8 +2793,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2060,8 +2802,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2069,47 +2811,74 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="17">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="17"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="17">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="17"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="17">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A32" s="18"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>124</v>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>45645</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -2169,7 +2938,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="17">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2180,7 +2949,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>109</v>
       </c>
@@ -2189,7 +2958,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="17">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2200,18 +2969,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="17">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="17">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2222,7 +2991,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -2231,10 +3000,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="17">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2245,7 +3014,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -2254,10 +3023,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="17">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2268,7 +3037,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -2277,7 +3046,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -2286,7 +3055,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="17">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2297,7 +3066,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -2306,7 +3075,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="17">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2317,10 +3086,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="17">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2331,13 +3100,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="17">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2348,7 +3117,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -2357,10 +3126,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="17">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2371,7 +3140,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -2380,29 +3149,29 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="17">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>2</v>
@@ -2413,7 +3182,7 @@
         <v>45644</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>2</v>
@@ -2421,30 +3190,30 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2474,7 +3243,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="19">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -2485,7 +3254,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -2494,10 +3263,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="19">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -2508,24 +3277,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="19">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="19">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -2536,7 +3305,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -2545,7 +3314,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>95</v>
       </c>
@@ -2554,12 +3323,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="19">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -2568,10 +3337,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="19">
         <v>45637</v>
       </c>
       <c r="B17" t="s">
@@ -2582,7 +3351,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -2591,7 +3360,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="19">
         <v>45638</v>
       </c>
       <c r="B19" t="s">
@@ -2602,7 +3371,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>102</v>
       </c>
@@ -2611,15 +3380,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="19">
         <v>45639</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>96</v>
       </c>
@@ -2628,7 +3397,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -2637,12 +3406,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+      <c r="A25" s="19">
         <v>45642</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="19"/>
       <c r="B26" t="s">
         <v>96</v>
       </c>
@@ -2651,7 +3420,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="19"/>
       <c r="B27" t="s">
         <v>105</v>
       </c>
@@ -2660,7 +3429,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="19">
         <v>45643</v>
       </c>
       <c r="B28" t="s">
@@ -2668,12 +3437,12 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="19"/>
       <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2681,33 +3450,44 @@
         <v>45644</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>45645</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2738,7 +3518,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2749,7 +3529,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
@@ -2758,10 +3538,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2772,7 +3552,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2781,21 +3561,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2806,7 +3586,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2815,10 +3595,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2829,7 +3609,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2838,7 +3618,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
@@ -2847,7 +3627,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2858,7 +3638,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
@@ -2867,7 +3647,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
@@ -2876,7 +3656,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2887,7 +3667,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
@@ -2896,7 +3676,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="17">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2907,7 +3687,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -2916,7 +3696,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="17">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2927,7 +3707,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -2936,13 +3716,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="17"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="17">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2953,7 +3733,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -2962,7 +3742,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -2971,7 +3751,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="17">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2979,13 +3759,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="17"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="17">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2996,16 +3776,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
@@ -3014,54 +3794,91 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="A35" s="17">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>124</v>
+      <c r="D37" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>124</v>
+      <c r="D38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>45645</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="7">
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A30:A31"/>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Stanup status_ team\Daily_standup_all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACB0EE-5C3E-4E35-8A39-75D6D00BC1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA2B57C-05A2-44D1-97BB-99E6C12A0A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="162">
   <si>
     <t>Task</t>
   </si>
@@ -485,6 +485,66 @@
   </si>
   <si>
     <t>html</t>
+  </si>
+  <si>
+    <t>sql explain to team</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>dockerfile create</t>
+  </si>
+  <si>
+    <t>virtual environment create</t>
+  </si>
+  <si>
+    <t>sql expalin to team</t>
+  </si>
+  <si>
+    <t>supply chain explain to team</t>
+  </si>
+  <si>
+    <t>html code (backround)</t>
+  </si>
+  <si>
+    <t>java practice</t>
+  </si>
+  <si>
+    <t>project work (code understanding)</t>
+  </si>
+  <si>
+    <t>aws step function,aws sqs, aws scheduler,api config, aws lamda,dataiku pipeline creation, documentate preparation</t>
+  </si>
+  <si>
+    <t>docer file create and execution</t>
+  </si>
+  <si>
+    <t>virtual env create in vs code</t>
+  </si>
+  <si>
+    <t>car parts presentation to team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker topics excel file creation </t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html code abd backround setup </t>
+  </si>
+  <si>
+    <t>Tableau reports generation(before login,after login,leave tracker)</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trading </t>
   </si>
 </sst>
 </file>
@@ -500,7 +560,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +579,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -532,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -568,10 +634,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,6 +652,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,11 +983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,8 +1317,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1244,7 +1330,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+      <c r="A33" s="16">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1258,7 +1344,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" t="s">
         <v>134</v>
       </c>
@@ -1320,13 +1406,149 @@
         <v>123</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>45646</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>45647</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
+        <v>45648</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>45649</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
+        <v>45650</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>45659</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="15">
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
@@ -1335,6 +1557,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1952,11 +2179,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,7 +2430,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="18">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2214,7 +2441,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2223,7 +2450,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2232,7 +2459,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2281,7 +2508,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="5" t="s">
         <v>111</v>
       </c>
@@ -2290,7 +2517,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2299,13 +2526,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="17"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
+      <c r="A40" s="18">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2316,7 +2543,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="5" t="s">
         <v>119</v>
       </c>
@@ -2325,7 +2552,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2334,7 +2561,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
+      <c r="A43" s="18">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2342,13 +2569,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2358,14 +2585,103 @@
         <v>130</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>45646</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
+        <v>45647</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
+        <v>45648</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
+        <v>45649</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
+        <v>45650</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
+        <v>45659</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="16">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A36:A39"/>
@@ -2374,6 +2690,12 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2558,7 +2880,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2581,11 +2903,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2616,7 +2938,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2627,7 +2949,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2636,10 +2958,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2650,24 +2972,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="18">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2678,7 +3000,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -2687,10 +3009,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2701,7 +3023,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -2710,10 +3032,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="18">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2724,7 +3046,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -2733,7 +3055,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -2742,7 +3064,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="18">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2753,7 +3075,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="10" t="s">
         <v>93</v>
       </c>
@@ -2762,7 +3084,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="18">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2773,7 +3095,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="10" t="s">
         <v>94</v>
       </c>
@@ -2782,7 +3104,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="18">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2793,7 +3115,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="10" t="s">
         <v>94</v>
       </c>
@@ -2802,7 +3124,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -2811,31 +3133,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="18">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="18">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+      <c r="A31" s="18">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+      <c r="A34" s="18">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2846,7 +3168,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -2881,8 +3203,87 @@
         <v>123</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>45646</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="26">
+        <v>45647</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="26">
+        <v>45648</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>45649</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>45659</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A2:A4"/>
@@ -2903,11 +3304,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2938,7 +3339,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2949,7 +3350,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>109</v>
       </c>
@@ -2958,7 +3359,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2969,18 +3370,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2991,7 +3392,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -3000,10 +3401,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="18">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3014,7 +3415,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -3023,10 +3424,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3037,7 +3438,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -3046,7 +3447,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -3055,7 +3456,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="18">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3066,7 +3467,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -3075,7 +3476,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="18">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3086,10 +3487,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="18">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3100,13 +3501,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="18">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3117,7 +3518,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -3126,10 +3527,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="18">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3140,7 +3541,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -3149,7 +3550,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="4" t="s">
         <v>113</v>
       </c>
@@ -3158,7 +3559,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="18">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3169,7 +3570,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="4" t="s">
         <v>114</v>
       </c>
@@ -3177,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>45644</v>
       </c>
@@ -3188,20 +3589,115 @@
         <v>2</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>45645</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>45646</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
+        <v>45647</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
+        <v>45648</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>45659</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3209,11 +3705,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3243,7 +3739,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="A2" s="20">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3254,7 +3750,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -3263,10 +3759,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="20">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -3277,24 +3773,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="20">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3305,7 +3801,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -3314,7 +3810,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>95</v>
       </c>
@@ -3323,12 +3819,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="20">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -3337,10 +3833,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="20">
         <v>45637</v>
       </c>
       <c r="B17" t="s">
@@ -3351,7 +3847,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -3360,7 +3856,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="20">
         <v>45638</v>
       </c>
       <c r="B19" t="s">
@@ -3371,7 +3867,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" t="s">
         <v>102</v>
       </c>
@@ -3380,15 +3876,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="20">
         <v>45639</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" t="s">
         <v>96</v>
       </c>
@@ -3397,7 +3893,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -3406,12 +3902,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="20">
         <v>45642</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" t="s">
         <v>96</v>
       </c>
@@ -3420,7 +3916,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" t="s">
         <v>105</v>
       </c>
@@ -3429,7 +3925,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="20">
         <v>45643</v>
       </c>
       <c r="B28" t="s">
@@ -3437,7 +3933,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" t="s">
         <v>117</v>
       </c>
@@ -3464,18 +3960,91 @@
         <v>80</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>45646</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>45647</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>45648</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>45649</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>45659</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3483,11 +4052,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3676,7 +4245,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="18">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3687,7 +4256,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -3696,7 +4265,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="18">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3707,7 +4276,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -3716,13 +4285,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="18">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3733,7 +4302,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -3742,7 +4311,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -3751,7 +4320,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="18">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3759,13 +4328,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="A32" s="18">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -3776,7 +4345,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="4" t="s">
         <v>122</v>
       </c>
@@ -3785,7 +4354,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
@@ -3794,7 +4363,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+      <c r="A35" s="18">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3805,7 +4374,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="4" t="s">
         <v>120</v>
       </c>
@@ -3814,7 +4383,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="4" t="s">
         <v>121</v>
       </c>
@@ -3823,7 +4392,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
@@ -3832,7 +4401,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
+      <c r="A39" s="18">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3843,7 +4412,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="4" t="s">
         <v>120</v>
       </c>
@@ -3852,7 +4421,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="4" t="s">
         <v>121</v>
       </c>
@@ -3861,7 +4430,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="4" t="s">
         <v>83</v>
       </c>
@@ -3872,6 +4441,42 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
+        <v>45647</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="26">
+        <v>45648</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>45293</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA2B57C-05A2-44D1-97BB-99E6C12A0A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFF046D-5AAF-4F63-A614-6B1E8DB7122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Santhosh" sheetId="5" r:id="rId6"/>
     <sheet name="Mallika" sheetId="6" r:id="rId7"/>
     <sheet name="Jayasri" sheetId="7" r:id="rId8"/>
+    <sheet name="Shamshad_garu" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="162">
   <si>
     <t>Task</t>
   </si>
@@ -636,22 +637,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -669,6 +654,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,7 +1022,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1032,7 +1033,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1041,7 +1042,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1051,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1061,7 +1062,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -1070,7 +1071,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1080,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1090,7 +1091,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>91</v>
       </c>
@@ -1099,7 +1100,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>92</v>
       </c>
@@ -1108,7 +1109,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1119,7 +1120,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1128,7 +1129,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -1137,7 +1138,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1148,7 +1149,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1158,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1166,7 +1167,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1177,7 +1178,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1186,7 +1187,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1195,7 +1196,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1206,7 +1207,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1215,7 +1216,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1226,7 +1227,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1235,7 +1236,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1246,7 +1247,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1255,7 +1256,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1264,7 +1265,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1275,7 +1276,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="22"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1284,7 +1285,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1295,7 +1296,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="22"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1304,7 +1305,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1318,7 +1319,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1330,7 +1331,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33" s="23">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1344,7 +1345,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="23"/>
       <c r="B34" t="s">
         <v>134</v>
       </c>
@@ -1407,7 +1408,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
+      <c r="A40" s="22">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1418,7 +1419,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="A41" s="22"/>
       <c r="B41" t="s">
         <v>138</v>
       </c>
@@ -1427,7 +1428,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="22"/>
       <c r="B42" t="s">
         <v>141</v>
       </c>
@@ -1436,31 +1437,31 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+      <c r="A43" s="15">
         <v>45647</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+      <c r="A44" s="15">
         <v>45648</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="15">
+      <c r="A45" s="22">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1471,7 +1472,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="22"/>
       <c r="B46" t="s">
         <v>146</v>
       </c>
@@ -1480,7 +1481,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+      <c r="A47" s="22"/>
       <c r="B47" t="s">
         <v>141</v>
       </c>
@@ -1547,6 +1548,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A33:A34"/>
@@ -1557,11 +1563,6 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2214,7 +2215,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2225,7 +2226,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>106</v>
       </c>
@@ -2234,10 +2235,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2248,24 +2249,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2276,7 +2277,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2285,7 +2286,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2294,7 +2295,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2305,7 +2306,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2314,10 +2315,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2328,7 +2329,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2337,13 +2338,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2354,7 +2355,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2363,7 +2364,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2372,7 +2373,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="22">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2383,7 +2384,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2392,7 +2393,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2401,7 +2402,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="A26" s="22">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2412,7 +2413,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2421,7 +2422,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2430,7 +2431,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="25">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2441,7 +2442,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2450,7 +2451,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2459,7 +2460,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2468,7 +2469,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
+      <c r="A33" s="22">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2479,7 +2480,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2488,7 +2489,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="5" t="s">
         <v>108</v>
       </c>
@@ -2497,7 +2498,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
+      <c r="A36" s="22">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2508,7 +2509,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
         <v>111</v>
       </c>
@@ -2517,7 +2518,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2526,13 +2527,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="24"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="25">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2543,7 +2544,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="5" t="s">
         <v>119</v>
       </c>
@@ -2552,7 +2553,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2561,7 +2562,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="25">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2569,13 +2570,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2586,7 +2587,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
+      <c r="A47" s="22">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2597,7 +2598,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
         <v>149</v>
       </c>
@@ -2606,7 +2607,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
         <v>150</v>
       </c>
@@ -2615,29 +2616,29 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="23">
+      <c r="A50" s="17">
         <v>45647</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="17">
         <v>45648</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15">
+      <c r="A52" s="22">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2648,7 +2649,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="5" t="s">
         <v>150</v>
       </c>
@@ -2671,7 +2672,7 @@
       <c r="A55" s="14">
         <v>45659</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="19" t="s">
         <v>152</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -2680,22 +2681,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2736,7 +2737,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -2747,7 +2748,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2756,15 +2757,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -2773,21 +2774,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -2798,7 +2799,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -2807,80 +2808,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="22"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="22"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="22"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="22"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2938,7 +2939,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+      <c r="A2" s="25">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2949,7 +2950,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2958,10 +2959,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="25">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2972,24 +2973,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="25">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="25">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3000,7 +3001,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3009,10 +3010,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="25">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3023,7 +3024,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3032,10 +3033,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="25">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3046,7 +3047,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3055,7 +3056,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3064,7 +3065,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="25">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3075,7 +3076,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="10" t="s">
         <v>93</v>
       </c>
@@ -3084,7 +3085,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="25">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3095,7 +3096,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="10" t="s">
         <v>94</v>
       </c>
@@ -3104,7 +3105,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="25">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3115,7 +3116,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="10" t="s">
         <v>94</v>
       </c>
@@ -3124,7 +3125,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3133,31 +3134,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="25">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="25">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="A31" s="25">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="25">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3168,7 +3169,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3223,29 +3224,29 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="26">
+      <c r="A41" s="20">
         <v>45647</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="26">
+      <c r="A42" s="20">
         <v>45648</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="25">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3253,7 +3254,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="4" t="s">
         <v>153</v>
       </c>
@@ -3262,7 +3263,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
         <v>154</v>
       </c>
@@ -3339,7 +3340,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+      <c r="A2" s="25">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3350,7 +3351,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>109</v>
       </c>
@@ -3359,7 +3360,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="25">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3370,18 +3371,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="25">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="25">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3392,7 +3393,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -3401,10 +3402,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="25">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3415,7 +3416,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -3424,10 +3425,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="25">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3438,7 +3439,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -3447,7 +3448,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -3456,7 +3457,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="25">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3467,7 +3468,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -3476,7 +3477,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="25">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3487,10 +3488,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="25">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3501,13 +3502,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="25">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3518,7 +3519,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -3527,10 +3528,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="25">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3541,7 +3542,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -3550,7 +3551,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>113</v>
       </c>
@@ -3559,7 +3560,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="25">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3570,7 +3571,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="4" t="s">
         <v>114</v>
       </c>
@@ -3628,34 +3629,34 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
+      <c r="A38" s="20">
         <v>45647</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
+      <c r="A39" s="20">
         <v>45648</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="25">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
         <v>153</v>
       </c>
@@ -3664,7 +3665,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
         <v>154</v>
       </c>
@@ -3685,6 +3686,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A17:A18"/>
@@ -3692,12 +3699,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3707,9 +3708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3739,7 +3740,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="27">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3750,7 +3751,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="27"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -3759,10 +3760,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="27">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -3773,24 +3774,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="27">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="27">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3801,7 +3802,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="27"/>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -3810,7 +3811,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="27"/>
       <c r="B13" t="s">
         <v>95</v>
       </c>
@@ -3819,12 +3820,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+      <c r="A14" s="27">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="27"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -3833,10 +3834,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="27">
         <v>45637</v>
       </c>
       <c r="B17" t="s">
@@ -3847,7 +3848,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="27"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -3856,7 +3857,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="27">
         <v>45638</v>
       </c>
       <c r="B19" t="s">
@@ -3867,7 +3868,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="27"/>
       <c r="B20" t="s">
         <v>102</v>
       </c>
@@ -3876,15 +3877,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="A22" s="27">
         <v>45639</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="27"/>
       <c r="B23" t="s">
         <v>96</v>
       </c>
@@ -3893,7 +3894,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="27"/>
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -3902,12 +3903,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="A25" s="27">
         <v>45642</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="27"/>
       <c r="B26" t="s">
         <v>96</v>
       </c>
@@ -3916,7 +3917,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="27"/>
       <c r="B27" t="s">
         <v>105</v>
       </c>
@@ -3925,7 +3926,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+      <c r="A28" s="27">
         <v>45643</v>
       </c>
       <c r="B28" t="s">
@@ -3933,7 +3934,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="27"/>
       <c r="B29" t="s">
         <v>117</v>
       </c>
@@ -3980,26 +3981,26 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+      <c r="A34" s="15">
         <v>45647</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+      <c r="A35" s="15">
         <v>45648</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
@@ -4035,16 +4036,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4055,8 +4056,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4245,7 +4246,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="25">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4256,7 +4257,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -4265,7 +4266,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="25">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4276,7 +4277,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -4285,13 +4286,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="25"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="25">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4302,7 +4303,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -4311,7 +4312,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -4320,7 +4321,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="25">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -4328,13 +4329,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="25"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="A32" s="25">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -4345,7 +4346,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="4" t="s">
         <v>122</v>
       </c>
@@ -4354,7 +4355,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
@@ -4363,7 +4364,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
+      <c r="A35" s="25">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4374,7 +4375,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="4" t="s">
         <v>120</v>
       </c>
@@ -4383,7 +4384,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="4" t="s">
         <v>121</v>
       </c>
@@ -4392,7 +4393,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
@@ -4401,7 +4402,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="25">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -4412,7 +4413,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="4" t="s">
         <v>120</v>
       </c>
@@ -4421,7 +4422,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
         <v>121</v>
       </c>
@@ -4430,7 +4431,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
         <v>83</v>
       </c>
@@ -4444,26 +4445,26 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="26">
+      <c r="A44" s="20">
         <v>45647</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="26">
+      <c r="A45" s="20">
         <v>45648</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
@@ -4491,4 +4492,54 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>45293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFF046D-5AAF-4F63-A614-6B1E8DB7122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BD0F85-8546-4296-BFD0-A2127B3AAB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="166">
   <si>
     <t>Task</t>
   </si>
@@ -542,10 +542,22 @@
     <t>Tableau reports generation(before login,after login,leave tracker)</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">trading </t>
+  </si>
+  <si>
+    <t>sql practice(table creation,insert values, add column,retrive tablea,column renmae,filters, delete,drop)</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtual envirnovement creation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nifty 50  </t>
+  </si>
+  <si>
+    <t>tableau data correction and Tableau vedio</t>
   </si>
 </sst>
 </file>
@@ -1548,11 +1560,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A33:A34"/>
@@ -1563,6 +1570,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2180,11 +2192,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2679,24 +2691,29 @@
         <v>123</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
+        <v>45660</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2904,17 +2921,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:E46"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="94.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="16" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.21875" style="4" customWidth="1"/>
@@ -3276,10 +3293,29 @@
         <v>45659</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>45660</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>45660</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3305,11 +3341,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:F44"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3684,14 +3720,27 @@
         <v>157</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>45660</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>45660</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A17:A18"/>
@@ -3699,6 +3748,12 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3706,11 +3761,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3949,6 +4004,9 @@
       <c r="B30" t="s">
         <v>131</v>
       </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
@@ -3957,8 +4015,8 @@
       <c r="B31" t="s">
         <v>132</v>
       </c>
-      <c r="C31" t="s">
-        <v>80</v>
+      <c r="E31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3976,8 +4034,8 @@
       <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
-        <v>123</v>
+      <c r="E33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4009,13 +4067,13 @@
       <c r="B36" t="s">
         <v>158</v>
       </c>
-      <c r="C36" t="s">
-        <v>123</v>
+      <c r="E36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>123</v>
+      <c r="E37" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4023,29 +4081,51 @@
         <v>45659</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>160</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>141</v>
       </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>45660</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4053,11 +4133,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4370,8 +4450,8 @@
       <c r="B35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>16</v>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4379,8 +4459,8 @@
       <c r="B36" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>16</v>
+      <c r="E36" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4388,8 +4468,8 @@
       <c r="B37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>16</v>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4397,8 +4477,8 @@
       <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>16</v>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4408,8 +4488,8 @@
       <c r="B39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>123</v>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4417,8 +4497,8 @@
       <c r="B40" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>123</v>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4426,8 +4506,8 @@
       <c r="B41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>123</v>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -4435,14 +4515,17 @@
       <c r="B42" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>123</v>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>130</v>
       </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
@@ -4476,8 +4559,30 @@
       <c r="B48" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>160</v>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>45660</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>45661</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4498,8 +4603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BD0F85-8546-4296-BFD0-A2127B3AAB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0A5FCD-3F5A-4A65-AB29-B631BCD6555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="169">
   <si>
     <t>Task</t>
   </si>
@@ -503,12 +503,6 @@
     <t>virtual environment create</t>
   </si>
   <si>
-    <t>sql expalin to team</t>
-  </si>
-  <si>
-    <t>supply chain explain to team</t>
-  </si>
-  <si>
     <t>html code (backround)</t>
   </si>
   <si>
@@ -558,6 +552,21 @@
   </si>
   <si>
     <t>tableau data correction and Tableau vedio</t>
+  </si>
+  <si>
+    <t>sql practice(in,not in, between)</t>
+  </si>
+  <si>
+    <t>python(filters)</t>
+  </si>
+  <si>
+    <t>Sql practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel sheet formula date related </t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -996,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,54 +1521,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="22">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
       <c r="B50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="22">
+        <v>45660</v>
+      </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A33:A34"/>
@@ -2194,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
@@ -2612,7 +2631,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>9</v>
@@ -2621,7 +2640,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>9</v>
@@ -2663,7 +2682,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>9</v>
@@ -2674,7 +2693,7 @@
         <v>45650</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>9</v>
@@ -2685,7 +2704,7 @@
         <v>45659</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>123</v>
@@ -2923,9 +2942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3273,7 +3292,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>9</v>
@@ -3282,7 +3301,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>9</v>
@@ -3293,7 +3312,7 @@
         <v>45659</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>9</v>
@@ -3315,7 +3334,7 @@
         <v>45660</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3344,8 +3363,8 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,7 +3658,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
@@ -3694,7 +3713,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>9</v>
@@ -3703,7 +3722,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>9</v>
@@ -3714,10 +3733,10 @@
         <v>45659</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3725,7 +3744,7 @@
         <v>45660</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3733,7 +3752,7 @@
         <v>45660</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>123</v>
@@ -3764,8 +3783,8 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4065,7 +4084,7 @@
         <v>45649</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -4081,7 +4100,7 @@
         <v>45659</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -4108,7 +4127,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
@@ -4136,8 +4155,8 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4557,7 +4576,7 @@
         <v>45293</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>9</v>
@@ -4568,7 +4587,7 @@
         <v>45660</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>123</v>
@@ -4576,7 +4595,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
-        <v>45661</v>
+        <v>45660</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>130</v>
@@ -4601,16 +4620,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.109375" customWidth="1"/>
@@ -4638,10 +4657,18 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>45660</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0A5FCD-3F5A-4A65-AB29-B631BCD6555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605454B5-05E3-4C83-BDFB-8AA54049C59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="171">
   <si>
     <t>Task</t>
   </si>
@@ -512,9 +512,6 @@
     <t>project work (code understanding)</t>
   </si>
   <si>
-    <t>aws step function,aws sqs, aws scheduler,api config, aws lamda,dataiku pipeline creation, documentate preparation</t>
-  </si>
-  <si>
     <t>docer file create and execution</t>
   </si>
   <si>
@@ -567,6 +564,15 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>aws step function,aws sqs, aws scheduler,api config, aws lamda, documentate preparation</t>
+  </si>
+  <si>
+    <t>1.project work</t>
+  </si>
+  <si>
+    <t>2.dataiku pipeline creation understanding</t>
   </si>
 </sst>
 </file>
@@ -1007,9 +1013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,7 +1532,7 @@
         <v>45659</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1546,7 +1552,7 @@
         <v>45660</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
         <v>123</v>
@@ -1572,16 +1578,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1589,11 +1595,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2211,11 +2217,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2704,35 +2710,51 @@
         <v>45659</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="22">
+        <v>45660</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
-        <v>45660</v>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+  <mergeCells count="17">
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3292,7 +3314,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="B44" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>9</v>
@@ -3301,7 +3323,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>9</v>
@@ -3312,7 +3334,7 @@
         <v>45659</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>9</v>
@@ -3334,7 +3356,7 @@
         <v>45660</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3680,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
@@ -3713,7 +3735,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>9</v>
@@ -3722,7 +3744,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>9</v>
@@ -3733,10 +3755,10 @@
         <v>45659</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3744,7 +3766,7 @@
         <v>45660</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3752,7 +3774,7 @@
         <v>45660</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>123</v>
@@ -3760,6 +3782,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A17:A18"/>
@@ -3767,12 +3795,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4084,7 +4106,7 @@
         <v>45649</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -4100,7 +4122,7 @@
         <v>45659</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -4127,7 +4149,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
@@ -4135,16 +4157,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4576,7 +4598,7 @@
         <v>45293</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>9</v>
@@ -4587,7 +4609,7 @@
         <v>45660</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>123</v>
@@ -4657,7 +4679,7 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
@@ -4668,7 +4690,7 @@
         <v>45660</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605454B5-05E3-4C83-BDFB-8AA54049C59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D9476-DD57-40B6-A6AF-5AE71A480091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="183">
   <si>
     <t>Task</t>
   </si>
@@ -542,9 +542,6 @@
     <t>python</t>
   </si>
   <si>
-    <t xml:space="preserve">virtual envirnovement creation </t>
-  </si>
-  <si>
     <t xml:space="preserve">nifty 50  </t>
   </si>
   <si>
@@ -573,6 +570,45 @@
   </si>
   <si>
     <t>2.dataiku pipeline creation understanding</t>
+  </si>
+  <si>
+    <t>1.python class to bujji</t>
+  </si>
+  <si>
+    <t>2.html class to stock team</t>
+  </si>
+  <si>
+    <t>3. dataiku disscussion  with team member</t>
+  </si>
+  <si>
+    <t>inprogrss</t>
+  </si>
+  <si>
+    <t>inprogess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtual envirnovement creation explaining </t>
+  </si>
+  <si>
+    <t>Virtual environment creation explanation for team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tableau explination to team </t>
+  </si>
+  <si>
+    <t>python explination to shamshad garu</t>
+  </si>
+  <si>
+    <t>tableau vedio watching</t>
+  </si>
+  <si>
+    <t>tableau introduction</t>
+  </si>
+  <si>
+    <t>python(append)</t>
+  </si>
+  <si>
+    <t>html  practice</t>
   </si>
 </sst>
 </file>
@@ -684,11 +720,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1346,7 +1382,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1358,7 +1394,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="24">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1372,7 +1408,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>134</v>
       </c>
@@ -1532,7 +1568,7 @@
         <v>45659</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1552,7 +1588,7 @@
         <v>45660</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
         <v>123</v>
@@ -1578,16 +1614,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1595,11 +1631,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2217,11 +2253,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2546,7 +2582,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>111</v>
       </c>
@@ -2555,7 +2591,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2564,7 +2600,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2710,7 +2746,7 @@
         <v>45659</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>9</v>
@@ -2721,23 +2757,54 @@
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>123</v>
+        <v>168</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="22">
+        <v>45663</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
@@ -2754,7 +2821,6 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2939,7 +3005,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2962,11 +3028,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:B48"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3348,7 +3414,7 @@
         <v>63</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3357,6 +3423,31 @@
       </c>
       <c r="B48" s="4" t="s">
         <v>159</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>45663</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>45663</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3382,17 +3473,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:B46"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="51" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
@@ -3762,32 +3853,42 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>45660</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="A45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>45660</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>123</v>
+        <v>175</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="25">
+        <v>45661</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
+  <mergeCells count="14">
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A17:A18"/>
@@ -3795,6 +3896,12 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3802,11 +3909,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:B41"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4143,30 +4250,52 @@
       <c r="B40" t="s">
         <v>131</v>
       </c>
-      <c r="C40" t="s">
-        <v>80</v>
+      <c r="E40" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
+        <v>160</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>45663</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>45663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4174,11 +4303,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:B50"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4604,30 +4733,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>45660</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>45660</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
+        <v>45663</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="B53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A51:A53"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A32:A34"/>
@@ -4642,10 +4801,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4679,10 +4838,10 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4690,7 +4849,32 @@
         <v>45660</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>45663</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>45663</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D9476-DD57-40B6-A6AF-5AE71A480091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3AF632-F282-440A-A42F-2E771574E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="188">
   <si>
     <t>Task</t>
   </si>
@@ -581,18 +581,9 @@
     <t>3. dataiku disscussion  with team member</t>
   </si>
   <si>
-    <t>inprogrss</t>
-  </si>
-  <si>
-    <t>inprogess</t>
-  </si>
-  <si>
     <t xml:space="preserve">virtual envirnovement creation explaining </t>
   </si>
   <si>
-    <t>Virtual environment creation explanation for team</t>
-  </si>
-  <si>
     <t xml:space="preserve">tableau explination to team </t>
   </si>
   <si>
@@ -605,10 +596,34 @@
     <t>tableau introduction</t>
   </si>
   <si>
-    <t>python(append)</t>
-  </si>
-  <si>
     <t>html  practice</t>
+  </si>
+  <si>
+    <t>AWS quick sight project task</t>
+  </si>
+  <si>
+    <t>data analytics course</t>
+  </si>
+  <si>
+    <t>Python loops and lists videos</t>
+  </si>
+  <si>
+    <t>Python basics upto operators Videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tableau explination to team  and tableau explination to fathima </t>
+  </si>
+  <si>
+    <t>python (append) explination to shamshad garu</t>
+  </si>
+  <si>
+    <t>python(filters tasks )</t>
+  </si>
+  <si>
+    <t>tableau sample graphs generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python append </t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1065,8 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,6 +1625,14 @@
       </c>
       <c r="D53" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>45663</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2256,8 +2279,8 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:A60"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2803,24 +2826,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3028,11 +3051,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3413,8 +3436,8 @@
       <c r="B47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>173</v>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3424,8 +3447,8 @@
       <c r="B48" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>174</v>
+      <c r="D48" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -3444,9 +3467,20 @@
         <v>45663</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>45664</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3473,11 +3507,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3860,7 +3894,7 @@
         <v>45660</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>3</v>
@@ -3868,21 +3902,32 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
-        <v>45661</v>
+        <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>45664</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3909,11 +3954,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4267,10 +4312,10 @@
         <v>45663</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" t="s">
-        <v>123</v>
+        <v>177</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -4278,9 +4323,31 @@
         <v>45663</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4303,11 +4370,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4760,7 +4827,7 @@
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>123</v>
@@ -4769,7 +4836,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>123</v>
@@ -4778,10 +4845,34 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>45664</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>45664</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>45664</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4801,10 +4892,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4860,10 +4951,10 @@
         <v>45663</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4871,9 +4962,31 @@
         <v>45663</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
         <v>123</v>
       </c>
     </row>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3AF632-F282-440A-A42F-2E771574E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135E281-501A-4B25-B317-641E08182072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="191">
   <si>
     <t>Task</t>
   </si>
@@ -560,9 +560,6 @@
     <t xml:space="preserve">excel sheet formula date related </t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>aws step function,aws sqs, aws scheduler,api config, aws lamda, documentate preparation</t>
   </si>
   <si>
@@ -624,6 +621,18 @@
   </si>
   <si>
     <t xml:space="preserve">python append </t>
+  </si>
+  <si>
+    <t>1. project work</t>
+  </si>
+  <si>
+    <t>2. java class conditional statements</t>
+  </si>
+  <si>
+    <t>3.python class on conditional statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pandas practice and SQL practice</t>
   </si>
 </sst>
 </file>
@@ -735,11 +744,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1062,11 +1071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,7 +1406,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1409,7 +1418,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1423,7 +1432,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" t="s">
         <v>134</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="22">
         <v>45659</v>
       </c>
@@ -1589,7 +1598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" t="s">
         <v>138</v>
@@ -1598,55 +1607,61 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="22">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
         <v>165</v>
       </c>
-      <c r="D51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" t="s">
         <v>141</v>
       </c>
-      <c r="D52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" t="s">
         <v>138</v>
       </c>
-      <c r="D53" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>45663</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G57" t="s">
-        <v>166</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1654,11 +1669,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2276,11 +2291,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2605,7 +2620,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
         <v>111</v>
       </c>
@@ -2614,7 +2629,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2623,7 +2638,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2769,7 +2784,7 @@
         <v>45659</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>9</v>
@@ -2780,7 +2795,7 @@
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>9</v>
@@ -2789,7 +2804,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>9</v>
@@ -2800,43 +2815,62 @@
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>123</v>
+        <v>169</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>123</v>
+        <v>170</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="22">
+        <v>45664</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="19">
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A36:A39"/>
@@ -2844,6 +2878,17 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3028,7 +3073,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3053,9 +3098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3467,7 +3512,7 @@
         <v>45663</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>123</v>
@@ -3894,7 +3939,7 @@
         <v>45660</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>3</v>
@@ -3905,7 +3950,7 @@
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>154</v>
@@ -3914,7 +3959,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>3</v>
@@ -3925,7 +3970,7 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>80</v>
@@ -3933,6 +3978,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A30:A31"/>
@@ -3941,12 +3992,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4312,7 +4357,7 @@
         <v>45663</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -4323,7 +4368,7 @@
         <v>45663</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -4334,7 +4379,7 @@
         <v>45664</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
         <v>123</v>
@@ -4345,7 +4390,7 @@
         <v>45664</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
         <v>123</v>
@@ -4353,16 +4398,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4827,7 +4872,7 @@
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>123</v>
@@ -4836,7 +4881,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>123</v>
@@ -4845,7 +4890,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>123</v>
@@ -4856,7 +4901,7 @@
         <v>45664</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4864,7 +4909,7 @@
         <v>45664</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4872,7 +4917,7 @@
         <v>45664</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4951,7 +4996,7 @@
         <v>45663</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -4962,7 +5007,7 @@
         <v>45663</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -4973,7 +5018,7 @@
         <v>45664</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
         <v>123</v>
@@ -4984,7 +5029,7 @@
         <v>45664</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
         <v>123</v>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135E281-501A-4B25-B317-641E08182072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771D215A-F103-4F8A-93A8-4D72AB297377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="191">
   <si>
     <t>Task</t>
   </si>
@@ -611,9 +611,6 @@
     <t xml:space="preserve">tableau explination to team  and tableau explination to fathima </t>
   </si>
   <si>
-    <t>python (append) explination to shamshad garu</t>
-  </si>
-  <si>
     <t>python(filters tasks )</t>
   </si>
   <si>
@@ -633,6 +630,9 @@
   </si>
   <si>
     <t xml:space="preserve"> pandas practice and SQL practice</t>
+  </si>
+  <si>
+    <t>power bi introduction vedio and pi chart,donut chat,ribbon chat,funnel chat</t>
   </si>
 </sst>
 </file>
@@ -744,11 +744,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1075,7 +1075,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="24">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>134</v>
       </c>
@@ -1643,25 +1643,28 @@
       <c r="B54" t="s">
         <v>178</v>
       </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>45664</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" t="s">
-        <v>123</v>
+        <v>189</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1669,11 +1672,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2620,7 +2623,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>111</v>
       </c>
@@ -2629,7 +2632,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2638,7 +2641,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>123</v>
@@ -2853,7 +2856,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>123</v>
@@ -2862,7 +2865,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>123</v>
@@ -2870,6 +2873,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
@@ -2878,17 +2892,6 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3073,7 +3076,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3978,12 +3981,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A30:A31"/>
@@ -3992,6 +3989,12 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4398,16 +4401,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4419,7 +4422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4874,8 +4877,8 @@
       <c r="B51" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>123</v>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -4883,8 +4886,8 @@
       <c r="B52" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>123</v>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4892,8 +4895,8 @@
       <c r="B53" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>123</v>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4903,22 +4906,23 @@
       <c r="B54" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>45664</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
-        <v>45664</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="A56" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5007,7 +5011,7 @@
         <v>45663</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5018,7 +5022,7 @@
         <v>45664</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
         <v>123</v>
@@ -5029,7 +5033,7 @@
         <v>45664</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
         <v>123</v>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771D215A-F103-4F8A-93A8-4D72AB297377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810B999C-6AF4-4112-A7E3-7546E83A27FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="208">
   <si>
     <t>Task</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>pandas practice</t>
-  </si>
-  <si>
-    <t>Need to start</t>
   </si>
   <si>
     <t>java polymorphisim</t>
@@ -602,9 +599,6 @@
     <t>data analytics course</t>
   </si>
   <si>
-    <t>Python loops and lists videos</t>
-  </si>
-  <si>
     <t>Python basics upto operators Videos</t>
   </si>
   <si>
@@ -633,6 +627,63 @@
   </si>
   <si>
     <t>power bi introduction vedio and pi chart,donut chat,ribbon chat,funnel chat</t>
+  </si>
+  <si>
+    <t>1.html class to stock team</t>
+  </si>
+  <si>
+    <t>2. python class to my team member</t>
+  </si>
+  <si>
+    <t>3. java class to swathi</t>
+  </si>
+  <si>
+    <t>4. generated AI</t>
+  </si>
+  <si>
+    <t>python practice</t>
+  </si>
+  <si>
+    <t>python(list,tuple, if else conditions)</t>
+  </si>
+  <si>
+    <t>tableau dashboard creation</t>
+  </si>
+  <si>
+    <t>python(introduction)</t>
+  </si>
+  <si>
+    <t>dataiku vedios</t>
+  </si>
+  <si>
+    <t>Python loops and conditional statements</t>
+  </si>
+  <si>
+    <t>list,tuple,dictonary and sets in python</t>
+  </si>
+  <si>
+    <t>tableau sample graph creation and colour,shape options</t>
+  </si>
+  <si>
+    <t>html  vedios</t>
+  </si>
+  <si>
+    <t>html vedios and html class</t>
+  </si>
+  <si>
+    <t>tableau 3 vedios</t>
+  </si>
+  <si>
+    <t>tableau vedios</t>
+  </si>
+  <si>
+    <t>tableau dashboard creation explination to team</t>
+  </si>
+  <si>
+    <t>python append to shamshad garu</t>
+  </si>
+  <si>
+    <t>powerbi vedios and tableau vedios</t>
   </si>
 </sst>
 </file>
@@ -744,11 +795,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
@@ -1096,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1113,7 +1164,7 @@
         <v>45628</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1151,7 +1202,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1171,7 +1222,7 @@
         <v>45630</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1180,7 +1231,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1189,7 +1240,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1218,7 +1269,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1287,7 +1338,7 @@
         <v>45636</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1307,7 +1358,7 @@
         <v>45637</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -1356,7 +1407,7 @@
         <v>45639</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1399,45 +1450,45 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" t="s">
         <v>133</v>
       </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" t="s">
+      <c r="C34" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1446,10 +1497,10 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
         <v>136</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1458,10 +1509,10 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1472,26 +1523,26 @@
         <v>45645</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1499,7 +1550,7 @@
         <v>45646</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1508,7 +1559,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1517,7 +1568,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1528,7 +1579,7 @@
         <v>45647</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -1540,7 +1591,7 @@
         <v>45648</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1552,7 +1603,7 @@
         <v>45649</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1561,7 +1612,7 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1570,7 +1621,7 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1581,7 +1632,7 @@
         <v>45650</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1592,7 +1643,7 @@
         <v>45659</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1601,7 +1652,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1612,7 +1663,7 @@
         <v>45660</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1621,7 +1672,7 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1630,7 +1681,7 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1641,7 +1692,7 @@
         <v>45663</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1652,7 +1703,7 @@
         <v>45664</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1660,11 +1711,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1672,11 +1723,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1708,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1725,7 +1776,7 @@
         <v>45628</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1793,7 +1844,7 @@
         <v>45629</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1827,7 +1878,7 @@
         <v>45630</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1844,7 +1895,7 @@
         <v>45630</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1861,7 +1912,7 @@
         <v>45630</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1912,7 +1963,7 @@
         <v>45631</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2031,7 +2082,7 @@
         <v>45636</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2065,7 +2116,7 @@
         <v>45637</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2150,7 +2201,7 @@
         <v>45639</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2221,7 +2272,7 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2241,7 +2292,7 @@
         <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2275,7 +2326,7 @@
         <v>45644</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2294,11 +2345,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2342,7 +2393,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
@@ -2520,7 +2571,7 @@
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>9</v>
@@ -2605,7 +2656,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>9</v>
@@ -2616,23 +2667,23 @@
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2641,7 +2692,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2702,7 @@
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>9</v>
@@ -2660,7 +2711,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>
@@ -2680,13 +2731,13 @@
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="B44" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2697,7 +2748,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2705,7 +2756,7 @@
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>9</v>
@@ -2714,7 +2765,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>9</v>
@@ -2723,7 +2774,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>9</v>
@@ -2734,7 +2785,7 @@
         <v>45647</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -2745,7 +2796,7 @@
         <v>45648</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -2756,7 +2807,7 @@
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>9</v>
@@ -2765,7 +2816,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>9</v>
@@ -2776,7 +2827,7 @@
         <v>45650</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>9</v>
@@ -2787,7 +2838,7 @@
         <v>45659</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>9</v>
@@ -2798,7 +2849,7 @@
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>9</v>
@@ -2807,7 +2858,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>9</v>
@@ -2818,7 +2869,7 @@
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>9</v>
@@ -2827,7 +2878,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>9</v>
@@ -2836,7 +2887,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>9</v>
@@ -2847,43 +2898,71 @@
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>123</v>
+        <v>184</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>123</v>
+        <v>185</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>123</v>
+        <v>186</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="22">
+        <v>45665</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="22"/>
+      <c r="B65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="B66" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="20">
+    <mergeCell ref="A64:A67"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
@@ -2892,6 +2971,17 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3076,7 +3166,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3099,11 +3189,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3273,7 +3363,7 @@
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
@@ -3293,7 +3383,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -3313,7 +3403,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
@@ -3380,7 +3470,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3388,15 +3478,15 @@
         <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3423,7 +3513,7 @@
         <v>45647</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -3434,7 +3524,7 @@
         <v>45648</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -3451,7 +3541,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="B44" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>9</v>
@@ -3460,7 +3550,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>9</v>
@@ -3471,7 +3561,7 @@
         <v>45659</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>9</v>
@@ -3493,43 +3583,76 @@
         <v>45660</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>45663</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>45663</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>123</v>
+        <v>194</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3555,11 +3678,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3603,7 +3726,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -3639,7 +3762,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3714,7 +3837,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3734,7 +3857,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3748,7 +3871,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3803,7 +3926,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>3</v>
@@ -3814,7 +3937,7 @@
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>3</v>
@@ -3823,7 +3946,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>2</v>
@@ -3834,7 +3957,7 @@
         <v>45644</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>2</v>
@@ -3853,7 +3976,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
@@ -3883,7 +4006,7 @@
         <v>45647</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -3894,7 +4017,7 @@
         <v>45648</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -3908,7 +4031,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>9</v>
@@ -3917,7 +4040,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>9</v>
@@ -3928,10 +4051,10 @@
         <v>45659</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3942,7 +4065,7 @@
         <v>45660</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>3</v>
@@ -3953,16 +4076,16 @@
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>3</v>
@@ -3973,14 +4096,38 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="25">
+        <v>45665</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A30:A31"/>
@@ -3989,12 +4136,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4002,11 +4143,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4091,7 +4232,7 @@
         <v>45631</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -4109,7 +4250,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -4137,7 +4278,7 @@
         <v>45637</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -4157,7 +4298,7 @@
         <v>45638</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -4166,7 +4307,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -4183,7 +4324,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -4192,7 +4333,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -4206,7 +4347,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -4215,7 +4356,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="27"/>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -4226,13 +4367,13 @@
         <v>45643</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -4243,7 +4384,7 @@
         <v>45644</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -4254,7 +4395,7 @@
         <v>45645</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -4265,7 +4406,7 @@
         <v>45646</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -4284,7 +4425,7 @@
         <v>45647</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -4295,7 +4436,7 @@
         <v>45648</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -4306,7 +4447,7 @@
         <v>45649</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -4322,7 +4463,7 @@
         <v>45659</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -4330,7 +4471,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -4341,7 +4482,7 @@
         <v>45660</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -4349,7 +4490,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -4360,7 +4501,7 @@
         <v>45663</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -4371,7 +4512,7 @@
         <v>45663</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -4382,10 +4523,10 @@
         <v>45664</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" t="s">
-        <v>123</v>
+        <v>201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4393,24 +4534,46 @@
         <v>45664</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" t="s">
-        <v>123</v>
+        <v>200</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4418,11 +4581,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4457,7 +4620,7 @@
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -4661,7 +4824,7 @@
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
@@ -4704,7 +4867,7 @@
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>9</v>
@@ -4713,7 +4876,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
@@ -4722,7 +4885,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>9</v>
@@ -4733,7 +4896,7 @@
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
@@ -4742,7 +4905,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>9</v>
@@ -4751,7 +4914,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
@@ -4760,7 +4923,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="25"/>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>9</v>
@@ -4771,7 +4934,7 @@
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
@@ -4780,7 +4943,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>9</v>
@@ -4789,7 +4952,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>9</v>
@@ -4798,7 +4961,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>9</v>
@@ -4806,7 +4969,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>9</v>
@@ -4817,7 +4980,7 @@
         <v>45647</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
@@ -4828,7 +4991,7 @@
         <v>45648</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -4842,7 +5005,7 @@
         <v>45293</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>9</v>
@@ -4853,7 +5016,7 @@
         <v>45660</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
@@ -4864,7 +5027,7 @@
         <v>45660</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>9</v>
@@ -4875,7 +5038,7 @@
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
@@ -4884,7 +5047,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>9</v>
@@ -4893,7 +5056,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
@@ -4904,7 +5067,7 @@
         <v>45664</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>9</v>
@@ -4915,14 +5078,44 @@
         <v>45664</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
+      <c r="A56" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4941,7 +5134,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -4978,7 +5171,7 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -4989,7 +5182,7 @@
         <v>45660</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5000,7 +5193,7 @@
         <v>45663</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -5011,7 +5204,7 @@
         <v>45663</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5022,10 +5215,10 @@
         <v>45664</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
+        <v>203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5033,10 +5226,43 @@
         <v>45664</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810B999C-6AF4-4112-A7E3-7546E83A27FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F48E525-B66A-4445-A69D-DCC463545C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="210">
   <si>
     <t>Task</t>
   </si>
@@ -623,9 +623,6 @@
     <t>3.python class on conditional statements</t>
   </si>
   <si>
-    <t xml:space="preserve"> pandas practice and SQL practice</t>
-  </si>
-  <si>
     <t>power bi introduction vedio and pi chart,donut chat,ribbon chat,funnel chat</t>
   </si>
   <si>
@@ -684,6 +681,15 @@
   </si>
   <si>
     <t>powerbi vedios and tableau vedios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project task </t>
+  </si>
+  <si>
+    <t>project work(AWS quicksight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pandas practice (only python concepts)</t>
   </si>
 </sst>
 </file>
@@ -795,11 +801,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1122,11 +1128,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1463,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1469,7 +1475,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="24">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1483,7 +1489,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>133</v>
       </c>
@@ -1703,19 +1709,85 @@
         <v>45664</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B58" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1723,11 +1795,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2674,7 +2746,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2683,7 +2755,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2692,7 +2764,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +2999,7 @@
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>122</v>
@@ -2936,7 +3008,7 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>122</v>
@@ -2945,7 +3017,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>122</v>
@@ -2954,7 +3026,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
       <c r="B67" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>122</v>
@@ -2962,6 +3034,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A43:A45"/>
@@ -2971,17 +3054,6 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3166,7 +3238,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3594,7 +3666,7 @@
         <v>45663</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
@@ -3616,7 +3688,7 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
@@ -3627,7 +3699,7 @@
         <v>45665</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>122</v>
@@ -3638,7 +3710,7 @@
         <v>45665</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>122</v>
@@ -3649,7 +3721,7 @@
         <v>45665</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>122</v>
@@ -4096,7 +4168,7 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
@@ -4107,7 +4179,7 @@
         <v>45665</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>122</v>
@@ -4523,7 +4595,7 @@
         <v>45664</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -4534,7 +4606,7 @@
         <v>45664</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -4545,7 +4617,7 @@
         <v>45665</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
         <v>122</v>
@@ -4556,7 +4628,7 @@
         <v>45665</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C47" t="s">
         <v>122</v>
@@ -4564,16 +4636,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4583,9 +4655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5078,7 +5150,7 @@
         <v>45664</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
@@ -5089,7 +5161,7 @@
         <v>45665</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>122</v>
@@ -5100,7 +5172,7 @@
         <v>45665</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>122</v>
@@ -5111,7 +5183,7 @@
         <v>45665</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>122</v>
@@ -5215,7 +5287,7 @@
         <v>45664</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -5248,7 +5320,7 @@
         <v>45665</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
         <v>122</v>
@@ -5259,7 +5331,7 @@
         <v>45665</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F48E525-B66A-4445-A69D-DCC463545C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98BE8E2-BBD8-485A-A5B2-AABC33C30647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="233">
   <si>
     <t>Task</t>
   </si>
@@ -632,9 +632,6 @@
     <t>2. python class to my team member</t>
   </si>
   <si>
-    <t>3. java class to swathi</t>
-  </si>
-  <si>
     <t>4. generated AI</t>
   </si>
   <si>
@@ -656,9 +653,6 @@
     <t>Python loops and conditional statements</t>
   </si>
   <si>
-    <t>list,tuple,dictonary and sets in python</t>
-  </si>
-  <si>
     <t>tableau sample graph creation and colour,shape options</t>
   </si>
   <si>
@@ -671,9 +665,6 @@
     <t>tableau 3 vedios</t>
   </si>
   <si>
-    <t>tableau vedios</t>
-  </si>
-  <si>
     <t>tableau dashboard creation explination to team</t>
   </si>
   <si>
@@ -690,6 +681,84 @@
   </si>
   <si>
     <t xml:space="preserve"> pandas practice (only python concepts)</t>
+  </si>
+  <si>
+    <t>3. project work disscussion with team member</t>
+  </si>
+  <si>
+    <t>5. group disscussion on hmpv virus</t>
+  </si>
+  <si>
+    <t>1. html class on img ,text formatting</t>
+  </si>
+  <si>
+    <t>2.python class</t>
+  </si>
+  <si>
+    <t>3. java class</t>
+  </si>
+  <si>
+    <t>4. project work disscussion with team member</t>
+  </si>
+  <si>
+    <t>5. team disscussion</t>
+  </si>
+  <si>
+    <t>dataiku vedios 1</t>
+  </si>
+  <si>
+    <t>tableau joins and union</t>
+  </si>
+  <si>
+    <t>For loop with Conditional Statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break and Continue Statement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loops Problem Solving </t>
+  </si>
+  <si>
+    <t>Introduction to Lists</t>
+  </si>
+  <si>
+    <t>Group Discussion on HMPV Virus</t>
+  </si>
+  <si>
+    <t>Jfrog Artifactory tutorial video</t>
+  </si>
+  <si>
+    <t>Need to start</t>
+  </si>
+  <si>
+    <t>Group discussion on HMPV Virus</t>
+  </si>
+  <si>
+    <t>tableau vedios upto 5 videos completed</t>
+  </si>
+  <si>
+    <t>Pyhton Append</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Tableau videos</t>
+  </si>
+  <si>
+    <t>html vedios upto 2 videos and html class</t>
+  </si>
+  <si>
+    <t>group discussion  on hmpv virus</t>
+  </si>
+  <si>
+    <t>power bi skill set preparation</t>
+  </si>
+  <si>
+    <t>tableau</t>
+  </si>
+  <si>
+    <t>tableau union and joins explination to team</t>
   </si>
 </sst>
 </file>
@@ -801,11 +870,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,9 +1199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,7 +1532,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1475,7 +1544,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1489,7 +1558,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" t="s">
         <v>133</v>
       </c>
@@ -1709,7 +1778,7 @@
         <v>45664</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1731,7 +1800,7 @@
         <v>45664</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1742,7 +1811,7 @@
         <v>45664</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1764,7 +1833,7 @@
         <v>45665</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
@@ -1775,7 +1844,7 @@
         <v>45665</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C61" t="s">
         <v>122</v>
@@ -1783,11 +1852,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1795,11 +1864,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2417,11 +2486,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2746,7 +2815,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2755,7 +2824,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2764,7 +2833,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2995,57 +3064,103 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="25">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="E64" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
       <c r="B65" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="E65" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
+      <c r="B66" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="25"/>
+      <c r="B67" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="25"/>
+      <c r="B68" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
+        <v>45666</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="5" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="25"/>
+      <c r="B70" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="5" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="25"/>
+      <c r="B71" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="25"/>
+      <c r="B72" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="25"/>
+      <c r="B73" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A64:A67"/>
+  <mergeCells count="21">
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
@@ -3054,6 +3169,17 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3238,7 +3364,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3261,11 +3387,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3666,7 +3792,7 @@
         <v>45663</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
@@ -3688,7 +3814,7 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
@@ -3699,10 +3825,10 @@
         <v>45665</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>122</v>
+        <v>191</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3710,10 +3836,10 @@
         <v>45665</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>122</v>
+        <v>193</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3721,10 +3847,40 @@
         <v>45665</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
+        <v>45666</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
+        <v>45666</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
+        <v>45666</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3750,11 +3906,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4168,22 +4324,14 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25">
-        <v>45665</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="A52" s="25"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
@@ -4191,8 +4339,67 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
+        <v>45665</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>45666</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A55:A59"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A2:A3"/>
@@ -4215,11 +4422,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4595,7 +4802,7 @@
         <v>45664</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -4606,7 +4813,7 @@
         <v>45664</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -4617,10 +4824,10 @@
         <v>45665</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" t="s">
-        <v>122</v>
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4628,24 +4835,57 @@
         <v>45665</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" t="s">
-        <v>122</v>
+        <v>228</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
+        <v>45665</v>
+      </c>
+      <c r="B48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>45666</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>45666</v>
+      </c>
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4653,11 +4893,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5161,10 +5401,10 @@
         <v>45665</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>122</v>
+        <v>201</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -5172,10 +5412,10 @@
         <v>45665</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>122</v>
+        <v>202</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -5183,9 +5423,64 @@
         <v>45665</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>45666</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>45666</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>45666</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5206,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5221,7 +5516,7 @@
     <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -5237,8 +5532,11 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>45293</v>
       </c>
@@ -5249,7 +5547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>45660</v>
       </c>
@@ -5260,7 +5558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>45663</v>
       </c>
@@ -5271,7 +5569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>45663</v>
       </c>
@@ -5282,18 +5580,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>45664</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>45664</v>
       </c>
@@ -5304,37 +5602,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>45665</v>
       </c>
       <c r="B8" t="s">
         <v>183</v>
       </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>45665</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>45665</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
+        <v>224</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>45665</v>
+      </c>
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>45666</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>45666</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98BE8E2-BBD8-485A-A5B2-AABC33C30647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C5BC44-FB72-49AF-A815-E7721EE76905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="238">
   <si>
     <t>Task</t>
   </si>
@@ -759,6 +759,21 @@
   </si>
   <si>
     <t>tableau union and joins explination to team</t>
+  </si>
+  <si>
+    <t>Yesterday : 1. Python if else conditions and loops practice. (completed)</t>
+  </si>
+  <si>
+    <t>3. HMPV virus group discussion (completed)</t>
+  </si>
+  <si>
+    <t>4. Project work (completed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project task </t>
+  </si>
+  <si>
+    <t>Group discussion</t>
   </si>
 </sst>
 </file>
@@ -870,11 +885,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1197,11 +1212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,7 +1547,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1544,7 +1559,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="24">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1558,7 +1573,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>133</v>
       </c>
@@ -1822,10 +1837,7 @@
         <v>45665</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1835,28 +1847,60 @@
       <c r="B60" t="s">
         <v>204</v>
       </c>
-      <c r="C60" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>45665</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>45665</v>
+      </c>
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
+        <v>45666</v>
+      </c>
+      <c r="B63" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="18">
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1864,11 +1908,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2815,7 +2859,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2824,7 +2868,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2833,7 +2877,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
@@ -3159,27 +3203,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3364,7 +3408,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4876,16 +4920,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4895,9 +4939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C5BC44-FB72-49AF-A815-E7721EE76905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A95A8F9-BF87-43A4-A58E-22394570C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="255">
   <si>
     <t>Task</t>
   </si>
@@ -590,9 +590,6 @@
     <t>tableau introduction</t>
   </si>
   <si>
-    <t>html  practice</t>
-  </si>
-  <si>
     <t>AWS quick sight project task</t>
   </si>
   <si>
@@ -647,21 +644,12 @@
     <t>python(introduction)</t>
   </si>
   <si>
-    <t>dataiku vedios</t>
-  </si>
-  <si>
     <t>Python loops and conditional statements</t>
   </si>
   <si>
     <t>tableau sample graph creation and colour,shape options</t>
   </si>
   <si>
-    <t>html  vedios</t>
-  </si>
-  <si>
-    <t>html vedios and html class</t>
-  </si>
-  <si>
     <t>tableau 3 vedios</t>
   </si>
   <si>
@@ -695,21 +683,12 @@
     <t>2.python class</t>
   </si>
   <si>
-    <t>3. java class</t>
-  </si>
-  <si>
-    <t>4. project work disscussion with team member</t>
-  </si>
-  <si>
     <t>5. team disscussion</t>
   </si>
   <si>
     <t>dataiku vedios 1</t>
   </si>
   <si>
-    <t>tableau joins and union</t>
-  </si>
-  <si>
     <t>For loop with Conditional Statements</t>
   </si>
   <si>
@@ -728,9 +707,6 @@
     <t>Jfrog Artifactory tutorial video</t>
   </si>
   <si>
-    <t>Need to start</t>
-  </si>
-  <si>
     <t>Group discussion on HMPV Virus</t>
   </si>
   <si>
@@ -743,21 +719,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Tableau videos</t>
-  </si>
-  <si>
-    <t>html vedios upto 2 videos and html class</t>
-  </si>
-  <si>
     <t>group discussion  on hmpv virus</t>
   </si>
   <si>
     <t>power bi skill set preparation</t>
   </si>
   <si>
-    <t>tableau</t>
-  </si>
-  <si>
     <t>tableau union and joins explination to team</t>
   </si>
   <si>
@@ -774,6 +741,90 @@
   </si>
   <si>
     <t>Group discussion</t>
+  </si>
+  <si>
+    <t>dataiku vedios 2</t>
+  </si>
+  <si>
+    <t>dataiku videos</t>
+  </si>
+  <si>
+    <t>python loops</t>
+  </si>
+  <si>
+    <t>tableau unions and joins</t>
+  </si>
+  <si>
+    <t>1. html class on lists unordered list</t>
+  </si>
+  <si>
+    <t>3. generated Ai</t>
+  </si>
+  <si>
+    <t>4.team disscussion</t>
+  </si>
+  <si>
+    <t>5. project work disscussion</t>
+  </si>
+  <si>
+    <t>Group discussion on social media is good or bad</t>
+  </si>
+  <si>
+    <t>Jfrog Artifactory tutorial explained to team member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jfrog Installation video </t>
+  </si>
+  <si>
+    <t>html vedios and html class text fromattinog</t>
+  </si>
+  <si>
+    <t>htmlv vedios upoto 3 videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group discussion on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tableau </t>
+  </si>
+  <si>
+    <t>and Last Function Videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tableau: Donut Chart,Water Fall Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group diacussion Social media Good or </t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Tableau Dashbord Creation</t>
+  </si>
+  <si>
+    <t>Python Append</t>
+  </si>
+  <si>
+    <t>html vedios upto 2 videos and html class (web development)</t>
+  </si>
+  <si>
+    <t>html  vedios html -(markup language)</t>
+  </si>
+  <si>
+    <t>html  practice+B43</t>
+  </si>
+  <si>
+    <t>html  vedios ( javascript)</t>
+  </si>
+  <si>
+    <t>tableau url actions and filters worksheets and filters for dashboard</t>
+  </si>
+  <si>
+    <t>tableau(modeling and relationship)</t>
+  </si>
+  <si>
+    <t>python append explination to shamshad garu</t>
   </si>
 </sst>
 </file>
@@ -883,16 +934,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,9 +1265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,7 +1301,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1261,7 +1312,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1321,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +1330,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1290,7 +1341,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1299,7 +1350,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +1359,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1319,7 +1370,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1328,7 +1379,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1337,7 +1388,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1348,7 +1399,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1357,7 +1408,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1366,7 +1417,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1377,7 +1428,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1386,7 +1437,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1395,7 +1446,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1406,7 +1457,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1415,7 +1466,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1424,7 +1475,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1435,7 +1486,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1444,7 +1495,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1455,7 +1506,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1464,7 +1515,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1475,7 +1526,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1484,7 +1535,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1493,7 +1544,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1504,7 +1555,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1513,7 +1564,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1524,7 +1575,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1533,7 +1584,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1547,7 +1598,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1636,7 +1687,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1647,7 +1698,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -1656,7 +1707,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" t="s">
         <v>140</v>
       </c>
@@ -1689,7 +1740,7 @@
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+      <c r="A45" s="23">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1700,7 +1751,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>145</v>
       </c>
@@ -1709,7 +1760,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="B47" t="s">
         <v>140</v>
       </c>
@@ -1729,7 +1780,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="23">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -1740,7 +1791,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -1749,7 +1800,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -1760,7 +1811,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" t="s">
         <v>140</v>
       </c>
@@ -1769,7 +1820,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" t="s">
         <v>137</v>
       </c>
@@ -1782,7 +1833,7 @@
         <v>45663</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1793,7 +1844,7 @@
         <v>45664</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1815,7 +1866,7 @@
         <v>45664</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1826,7 +1877,7 @@
         <v>45664</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1837,7 +1888,7 @@
         <v>45665</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1845,7 +1896,7 @@
         <v>45665</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1853,7 +1904,7 @@
         <v>45665</v>
       </c>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1861,31 +1912,31 @@
         <v>45665</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
+      <c r="A63" s="22">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="22"/>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C64" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="22"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -1895,11 +1946,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
@@ -1908,11 +1959,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2530,11 +2581,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2565,7 +2616,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2576,7 +2627,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2585,10 +2636,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2599,24 +2650,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2627,7 +2678,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2636,7 +2687,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2645,7 +2696,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2656,7 +2707,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2665,10 +2716,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2679,7 +2730,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2688,13 +2739,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2705,7 +2756,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2714,7 +2765,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2723,7 +2774,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2734,7 +2785,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2743,7 +2794,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2752,7 +2803,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="23">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2763,7 +2814,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2772,7 +2823,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2781,7 +2832,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="22">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2792,7 +2843,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2801,7 +2852,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2810,7 +2861,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2819,7 +2870,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="23">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2830,7 +2881,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2839,7 +2890,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2848,7 +2899,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="23">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2859,7 +2910,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2868,7 +2919,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2877,13 +2928,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="22">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2894,7 +2945,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -2903,7 +2954,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2912,7 +2963,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="22">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2920,13 +2971,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2937,7 +2988,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="A47" s="23">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2948,7 +2999,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="5" t="s">
         <v>146</v>
       </c>
@@ -2957,7 +3008,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="5" t="s">
         <v>147</v>
       </c>
@@ -2988,7 +3039,7 @@
       <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="A52" s="23">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2999,7 +3050,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="5" t="s">
         <v>147</v>
       </c>
@@ -3030,7 +3081,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="A56" s="23">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3041,7 +3092,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="5" t="s">
         <v>167</v>
       </c>
@@ -3050,7 +3101,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="A58" s="23">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3061,7 +3112,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="5" t="s">
         <v>169</v>
       </c>
@@ -3070,7 +3121,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
@@ -3079,151 +3130,199 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="23">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="5" t="s">
+      <c r="E62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="E63" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
+      <c r="A64" s="22">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="22"/>
+      <c r="B65" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="5" t="s">
+      <c r="E65" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="B66" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="5" t="s">
+      <c r="E67" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="22">
+        <v>45666</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+      <c r="B70" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
+      <c r="B71" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="22"/>
+      <c r="B72" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
-        <v>45666</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="E73" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="22">
+        <v>45667</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" s="5" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="22"/>
+      <c r="B75" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" s="5" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="22"/>
+      <c r="B76" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" s="5" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C73" s="5" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+  <mergeCells count="22">
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3264,7 +3363,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3275,7 +3374,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3284,15 +3383,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3301,21 +3400,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3326,7 +3425,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3335,80 +3434,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3431,11 +3530,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3466,7 +3565,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3477,7 +3576,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3486,10 +3585,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3500,24 +3599,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3528,7 +3627,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3537,10 +3636,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3551,7 +3650,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3560,10 +3659,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3574,7 +3673,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3583,7 +3682,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3592,7 +3691,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3603,7 +3702,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3612,7 +3711,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3623,7 +3722,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3632,7 +3731,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3643,7 +3742,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3652,7 +3751,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3661,23 +3760,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
@@ -3685,7 +3784,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="22">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3696,7 +3795,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3773,7 +3872,7 @@
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="22">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3781,7 +3880,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="4" t="s">
         <v>149</v>
       </c>
@@ -3790,7 +3889,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="4" t="s">
         <v>150</v>
       </c>
@@ -3836,7 +3935,7 @@
         <v>45663</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
@@ -3858,7 +3957,7 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
@@ -3869,7 +3968,7 @@
         <v>45665</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>9</v>
@@ -3880,7 +3979,7 @@
         <v>45665</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
@@ -3891,7 +3990,7 @@
         <v>45665</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>9</v>
@@ -3902,10 +4001,10 @@
         <v>45666</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>122</v>
+        <v>227</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3913,10 +4012,10 @@
         <v>45666</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>122</v>
+        <v>190</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3924,7 +4023,54 @@
         <v>45666</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>215</v>
+        <v>252</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
+        <v>45666</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3950,11 +4096,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3985,7 +4131,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3996,7 +4142,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4005,7 +4151,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="22">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4016,18 +4162,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4038,7 +4184,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4047,10 +4193,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="22">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4061,7 +4207,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4070,10 +4216,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="22">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4084,7 +4230,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4093,7 +4239,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4102,7 +4248,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="22">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4113,7 +4259,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4122,7 +4268,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="22">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4133,10 +4279,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="A20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="22">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4147,13 +4293,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4164,7 +4310,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4173,10 +4319,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="22">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4187,7 +4333,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4196,7 +4342,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4205,7 +4351,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="22">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4216,7 +4362,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4296,12 +4442,12 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="22">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
@@ -4310,7 +4456,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>150</v>
       </c>
@@ -4344,20 +4490,20 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="25">
+      <c r="A48" s="22">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>3</v>
@@ -4368,63 +4514,63 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="22"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="22"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
+      <c r="A55" s="22">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
@@ -4435,10 +4581,43 @@
         <v>45666</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>45666</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>45666</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4466,11 +4645,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4835,7 +5014,7 @@
         <v>45663</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -4846,7 +5025,7 @@
         <v>45664</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -4857,7 +5036,7 @@
         <v>45664</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -4868,7 +5047,7 @@
         <v>45665</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -4879,7 +5058,7 @@
         <v>45665</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -4890,46 +5069,78 @@
         <v>45665</v>
       </c>
       <c r="B48" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>45666</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>45666</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" t="s">
-        <v>222</v>
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>45667</v>
+      </c>
+      <c r="B51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>45667</v>
+      </c>
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>45667</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>45667</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4937,11 +5148,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5130,7 +5341,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5141,7 +5352,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5150,7 +5361,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5161,7 +5372,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5170,13 +5381,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5187,7 +5398,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5196,7 +5407,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5205,7 +5416,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="22">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -5213,13 +5424,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="22"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="22">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5230,7 +5441,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5239,7 +5450,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -5248,7 +5459,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="22">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5259,7 +5470,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -5268,7 +5479,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -5277,7 +5488,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -5286,7 +5497,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="A39" s="22">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -5297,7 +5508,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -5306,7 +5517,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -5315,7 +5526,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5390,7 +5601,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="22">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5401,7 +5612,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="4" t="s">
         <v>173</v>
       </c>
@@ -5410,7 +5621,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
@@ -5423,7 +5634,7 @@
         <v>45664</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>9</v>
@@ -5434,7 +5645,7 @@
         <v>45664</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
@@ -5445,7 +5656,7 @@
         <v>45665</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>9</v>
@@ -5456,7 +5667,7 @@
         <v>45665</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
@@ -5467,7 +5678,7 @@
         <v>45665</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>9</v>
@@ -5478,7 +5689,7 @@
         <v>45665</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
@@ -5489,7 +5700,7 @@
         <v>45665</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>9</v>
@@ -5500,10 +5711,10 @@
         <v>45666</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>122</v>
+        <v>253</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -5511,10 +5722,10 @@
         <v>45666</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>122</v>
+        <v>252</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -5522,9 +5733,42 @@
         <v>45666</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5545,16 +5789,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.109375" customWidth="1"/>
@@ -5577,7 +5821,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5618,7 +5862,7 @@
         <v>45663</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5629,7 +5873,7 @@
         <v>45664</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -5640,7 +5884,7 @@
         <v>45664</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -5651,7 +5895,7 @@
         <v>45665</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
         <v>153</v>
@@ -5662,7 +5906,7 @@
         <v>45665</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -5673,7 +5917,7 @@
         <v>45665</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5684,7 +5928,7 @@
         <v>45665</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -5695,7 +5939,7 @@
         <v>45666</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -5706,10 +5950,46 @@
         <v>45666</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>45667</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A95A8F9-BF87-43A4-A58E-22394570C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C18445C-7091-43C8-B43E-110F9ABA3E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="257">
   <si>
     <t>Task</t>
   </si>
@@ -825,6 +825,12 @@
   </si>
   <si>
     <t>python append explination to shamshad garu</t>
+  </si>
+  <si>
+    <t>group discussion  on social media is good or bad</t>
+  </si>
+  <si>
+    <t>group discussion</t>
   </si>
 </sst>
 </file>
@@ -934,9 +940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -944,6 +947,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,7 +1307,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1312,7 +1318,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1327,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1336,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1341,7 +1347,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1350,7 +1356,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1359,7 +1365,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1370,7 +1376,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1379,7 +1385,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1388,7 +1394,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1399,7 +1405,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1414,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1417,7 +1423,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1428,7 +1434,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1437,7 +1443,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1446,7 +1452,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1457,7 +1463,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1466,7 +1472,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1475,7 +1481,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1486,7 +1492,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1495,7 +1501,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1506,7 +1512,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1515,7 +1521,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1526,7 +1532,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1535,7 +1541,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1544,7 +1550,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1555,7 +1561,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1564,7 +1570,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1575,7 +1581,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1584,7 +1590,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1598,7 +1604,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1610,7 +1616,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1624,7 +1630,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" t="s">
         <v>133</v>
       </c>
@@ -1687,7 +1693,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1698,7 +1704,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -1707,7 +1713,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" t="s">
         <v>140</v>
       </c>
@@ -1740,7 +1746,7 @@
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1751,7 +1757,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="B46" t="s">
         <v>145</v>
       </c>
@@ -1760,7 +1766,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="B47" t="s">
         <v>140</v>
       </c>
@@ -1780,7 +1786,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
+      <c r="A49" s="22">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -1791,7 +1797,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="22"/>
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -1800,7 +1806,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -1811,7 +1817,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" t="s">
         <v>140</v>
       </c>
@@ -1820,7 +1826,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" t="s">
         <v>137</v>
       </c>
@@ -1916,7 +1922,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="25">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -1927,7 +1933,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="25"/>
       <c r="B64" t="s">
         <v>226</v>
       </c>
@@ -1936,7 +1942,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -1946,11 +1952,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
@@ -1959,11 +1965,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2585,7 +2591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2616,7 +2622,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2627,7 +2633,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2636,10 +2642,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2650,24 +2656,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2678,7 +2684,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2687,7 +2693,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2696,7 +2702,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2707,7 +2713,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2716,10 +2722,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2730,7 +2736,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2739,13 +2745,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2756,7 +2762,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2765,7 +2771,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2774,7 +2780,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2785,7 +2791,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2794,7 +2800,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2803,7 +2809,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2814,7 +2820,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2823,7 +2829,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2832,7 +2838,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="25">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2843,7 +2849,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2852,7 +2858,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2861,7 +2867,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2870,7 +2876,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2881,7 +2887,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2890,7 +2896,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2899,7 +2905,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2910,7 +2916,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2919,7 +2925,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2928,13 +2934,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="A39" s="24"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="25">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2945,7 +2951,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -2954,7 +2960,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2963,7 +2969,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="25">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2971,13 +2977,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2988,7 +2994,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
+      <c r="A47" s="22">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2999,7 +3005,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
         <v>146</v>
       </c>
@@ -3008,7 +3014,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
         <v>147</v>
       </c>
@@ -3039,7 +3045,7 @@
       <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3050,7 +3056,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="5" t="s">
         <v>147</v>
       </c>
@@ -3081,7 +3087,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="A56" s="22">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3092,7 +3098,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
         <v>167</v>
       </c>
@@ -3101,7 +3107,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3112,7 +3118,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="5" t="s">
         <v>169</v>
       </c>
@@ -3121,7 +3127,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
@@ -3130,7 +3136,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3141,7 +3147,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
@@ -3150,7 +3156,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
         <v>185</v>
       </c>
@@ -3159,7 +3165,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="25">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3170,7 +3176,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="5" t="s">
         <v>188</v>
       </c>
@@ -3179,7 +3185,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="5" t="s">
         <v>203</v>
       </c>
@@ -3188,7 +3194,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="5" t="s">
         <v>189</v>
       </c>
@@ -3197,7 +3203,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="5" t="s">
         <v>204</v>
       </c>
@@ -3206,7 +3212,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="25">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3217,7 +3223,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="5" t="s">
         <v>206</v>
       </c>
@@ -3226,7 +3232,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="5" t="s">
         <v>203</v>
       </c>
@@ -3235,7 +3241,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="5" t="s">
         <v>189</v>
       </c>
@@ -3244,7 +3250,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="5" t="s">
         <v>207</v>
       </c>
@@ -3253,7 +3259,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="25">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3264,7 +3270,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="5" t="s">
         <v>206</v>
       </c>
@@ -3273,7 +3279,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="5" t="s">
         <v>232</v>
       </c>
@@ -3282,7 +3288,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="5" t="s">
         <v>233</v>
       </c>
@@ -3291,7 +3297,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="5" t="s">
         <v>234</v>
       </c>
@@ -3301,28 +3307,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3363,7 +3369,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3374,7 +3380,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3383,15 +3389,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3400,21 +3406,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3425,7 +3431,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3434,80 +3440,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3565,7 +3571,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="25">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3576,7 +3582,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3585,10 +3591,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="25">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3599,24 +3605,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="25">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="25">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3627,7 +3633,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3636,10 +3642,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="25">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3650,7 +3656,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3659,10 +3665,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="25">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3673,7 +3679,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3682,7 +3688,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3691,7 +3697,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="25">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3702,7 +3708,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3711,7 +3717,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="25">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3722,7 +3728,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3731,7 +3737,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="25">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3742,7 +3748,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3751,7 +3757,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3760,23 +3766,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="25">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="25">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="25">
         <v>45643</v>
       </c>
     </row>
@@ -3784,7 +3790,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="25">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3795,7 +3801,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3872,7 +3878,7 @@
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="25">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3880,7 +3886,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="4" t="s">
         <v>149</v>
       </c>
@@ -3889,7 +3895,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
         <v>150</v>
       </c>
@@ -4100,7 +4106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4131,7 +4137,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="25">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4142,7 +4148,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4151,7 +4157,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="25">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4162,18 +4168,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="25">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="25">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4184,7 +4190,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4193,10 +4199,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="25">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4207,7 +4213,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4216,10 +4222,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="25">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4230,7 +4236,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4239,7 +4245,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4248,7 +4254,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="25">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4259,7 +4265,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4268,7 +4274,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="25">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4279,10 +4285,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="25">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4293,13 +4299,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="25">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4310,7 +4316,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4319,10 +4325,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="25">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4333,7 +4339,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4342,7 +4348,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4351,7 +4357,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="25">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4362,7 +4368,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4442,12 +4448,12 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="25">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
@@ -4456,7 +4462,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
         <v>150</v>
       </c>
@@ -4490,7 +4496,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="25">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4501,7 +4507,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="4" t="s">
         <v>178</v>
       </c>
@@ -4521,16 +4527,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="25">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4541,7 +4547,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="4" t="s">
         <v>210</v>
       </c>
@@ -4550,7 +4556,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="4" t="s">
         <v>211</v>
       </c>
@@ -4559,7 +4565,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="4" t="s">
         <v>212</v>
       </c>
@@ -4568,7 +4574,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="4" t="s">
         <v>213</v>
       </c>
@@ -5131,16 +5137,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5148,11 +5154,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5341,7 +5347,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="25">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5352,7 +5358,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5361,7 +5367,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="25">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5372,7 +5378,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5381,13 +5387,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="25"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="25">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5398,7 +5404,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5407,7 +5413,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5416,7 +5422,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="25">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -5424,13 +5430,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+      <c r="A32" s="25">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5441,7 +5447,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5450,7 +5456,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -5459,7 +5465,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="25">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5470,7 +5476,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -5479,7 +5485,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -5488,7 +5494,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -5497,7 +5503,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="A39" s="25">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -5508,7 +5514,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -5517,7 +5523,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -5526,7 +5532,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5601,7 +5607,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="25">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5612,7 +5618,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="4" t="s">
         <v>173</v>
       </c>
@@ -5621,7 +5627,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
@@ -5733,21 +5739,18 @@
         <v>45666</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
-        <v>45667</v>
+        <v>45666</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>122</v>
+        <v>198</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -5755,7 +5758,7 @@
         <v>45667</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>122</v>
@@ -5766,9 +5769,31 @@
         <v>45667</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C18445C-7091-43C8-B43E-110F9ABA3E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D161E3-1CBA-4A18-AC84-8652359812B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="261">
   <si>
     <t>Task</t>
   </si>
@@ -740,9 +740,6 @@
     <t xml:space="preserve">Project task </t>
   </si>
   <si>
-    <t>Group discussion</t>
-  </si>
-  <si>
     <t>dataiku vedios 2</t>
   </si>
   <si>
@@ -831,6 +828,21 @@
   </si>
   <si>
     <t>group discussion</t>
+  </si>
+  <si>
+    <t>2. Social media good or bad ( group discussion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Project related task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Python practice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Group discussion </t>
+  </si>
+  <si>
+    <t>4. Project work</t>
   </si>
 </sst>
 </file>
@@ -940,6 +952,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -947,9 +962,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1319,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1318,7 +1330,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1327,7 +1339,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1348,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1347,7 +1359,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1356,7 +1368,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1377,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1376,7 +1388,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1385,7 +1397,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1394,7 +1406,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1405,7 +1417,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1414,7 +1426,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1423,7 +1435,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1434,7 +1446,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1443,7 +1455,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1452,7 +1464,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1463,7 +1475,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1472,7 +1484,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1481,7 +1493,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1492,7 +1504,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1501,7 +1513,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1512,7 +1524,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1521,7 +1533,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1532,7 +1544,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1541,7 +1553,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1550,7 +1562,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1561,7 +1573,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1570,7 +1582,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1581,7 +1593,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1590,7 +1602,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1604,7 +1616,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1616,7 +1628,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="24">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1630,7 +1642,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>133</v>
       </c>
@@ -1693,7 +1705,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1704,7 +1716,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -1713,7 +1725,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" t="s">
         <v>140</v>
       </c>
@@ -1746,7 +1758,7 @@
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+      <c r="A45" s="23">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1757,7 +1769,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>145</v>
       </c>
@@ -1766,7 +1778,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="B47" t="s">
         <v>140</v>
       </c>
@@ -1786,7 +1798,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="23">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -1797,7 +1809,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -1806,7 +1818,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -1817,7 +1829,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" t="s">
         <v>140</v>
       </c>
@@ -1826,7 +1838,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" t="s">
         <v>137</v>
       </c>
@@ -1896,6 +1908,9 @@
       <c r="B59" t="s">
         <v>222</v>
       </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
@@ -1904,6 +1919,9 @@
       <c r="B60" t="s">
         <v>200</v>
       </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
@@ -1912,6 +1930,9 @@
       <c r="B61" t="s">
         <v>223</v>
       </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
@@ -1920,43 +1941,85 @@
       <c r="B62" t="s">
         <v>224</v>
       </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
+      <c r="A63" s="22">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
         <v>225</v>
       </c>
-      <c r="C63" t="s">
-        <v>122</v>
+      <c r="F63" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="22"/>
       <c r="B64" t="s">
-        <v>226</v>
-      </c>
-      <c r="C64" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+        <v>256</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="22"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
-      <c r="C65" t="s">
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="22">
+        <v>45667</v>
+      </c>
+      <c r="B66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" t="s">
+        <v>259</v>
+      </c>
+      <c r="C68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
+  <mergeCells count="19">
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
@@ -1965,11 +2028,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2622,7 +2685,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2633,7 +2696,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2642,10 +2705,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2656,24 +2719,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2684,7 +2747,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2693,7 +2756,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2702,7 +2765,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2713,7 +2776,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2722,10 +2785,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2736,7 +2799,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2745,13 +2808,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2762,7 +2825,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2771,7 +2834,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2780,7 +2843,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2791,7 +2854,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2800,7 +2863,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2809,7 +2872,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="23">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2820,7 +2883,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2829,7 +2892,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2901,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="22">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2849,7 +2912,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2858,7 +2921,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2867,7 +2930,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2876,7 +2939,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="23">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2887,7 +2950,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2896,7 +2959,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2905,7 +2968,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="23">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2916,7 +2979,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2925,7 +2988,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2934,13 +2997,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="25"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="22">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2951,7 +3014,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -2960,7 +3023,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2969,7 +3032,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="22">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2977,13 +3040,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2994,7 +3057,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="A47" s="23">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3005,7 +3068,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="5" t="s">
         <v>146</v>
       </c>
@@ -3014,7 +3077,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="5" t="s">
         <v>147</v>
       </c>
@@ -3045,7 +3108,7 @@
       <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="A52" s="23">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3056,7 +3119,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="5" t="s">
         <v>147</v>
       </c>
@@ -3087,7 +3150,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="A56" s="23">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3098,7 +3161,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="5" t="s">
         <v>167</v>
       </c>
@@ -3107,7 +3170,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="A58" s="23">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3118,7 +3181,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="5" t="s">
         <v>169</v>
       </c>
@@ -3127,7 +3190,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
@@ -3136,7 +3199,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="23">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3147,7 +3210,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
@@ -3156,7 +3219,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="5" t="s">
         <v>185</v>
       </c>
@@ -3165,7 +3228,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
+      <c r="A64" s="22">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3176,7 +3239,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="5" t="s">
         <v>188</v>
       </c>
@@ -3185,7 +3248,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="5" t="s">
         <v>203</v>
       </c>
@@ -3194,7 +3257,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="5" t="s">
         <v>189</v>
       </c>
@@ -3203,7 +3266,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="5" t="s">
         <v>204</v>
       </c>
@@ -3212,7 +3275,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
+      <c r="A69" s="22">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3223,7 +3286,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="5" t="s">
         <v>206</v>
       </c>
@@ -3232,7 +3295,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="5" t="s">
         <v>203</v>
       </c>
@@ -3241,7 +3304,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="5" t="s">
         <v>189</v>
       </c>
@@ -3250,7 +3313,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="5" t="s">
         <v>207</v>
       </c>
@@ -3259,18 +3322,18 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
+      <c r="A74" s="22">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="5" t="s">
         <v>206</v>
       </c>
@@ -3279,27 +3342,27 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>122</v>
@@ -3307,28 +3370,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3369,7 +3432,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3380,7 +3443,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3389,15 +3452,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3406,21 +3469,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3431,7 +3494,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3440,80 +3503,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3571,7 +3634,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3582,7 +3645,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3591,10 +3654,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3605,24 +3668,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3633,7 +3696,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3642,10 +3705,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3656,7 +3719,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3665,10 +3728,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3679,7 +3742,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3688,7 +3751,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3697,7 +3760,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3708,7 +3771,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3717,7 +3780,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3728,7 +3791,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3737,7 +3800,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3748,7 +3811,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3757,7 +3820,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3766,23 +3829,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
@@ -3790,7 +3853,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="22">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3801,7 +3864,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3878,7 +3941,7 @@
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="22">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3886,7 +3949,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="4" t="s">
         <v>149</v>
       </c>
@@ -3895,7 +3958,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="4" t="s">
         <v>150</v>
       </c>
@@ -4007,7 +4070,7 @@
         <v>45666</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
@@ -4029,7 +4092,7 @@
         <v>45666</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
@@ -4040,7 +4103,7 @@
         <v>45666</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>9</v>
@@ -4051,7 +4114,7 @@
         <v>45667</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>122</v>
@@ -4062,7 +4125,7 @@
         <v>45667</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>122</v>
@@ -4073,7 +4136,7 @@
         <v>45667</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>122</v>
@@ -4137,7 +4200,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4148,7 +4211,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4157,7 +4220,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="22">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4168,18 +4231,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4190,7 +4253,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4199,10 +4262,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="22">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4213,7 +4276,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4222,10 +4285,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="22">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4236,7 +4299,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4245,7 +4308,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4254,7 +4317,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="22">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4265,7 +4328,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4274,7 +4337,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="22">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4285,10 +4348,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="A20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="22">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4299,13 +4362,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4316,7 +4379,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4325,10 +4388,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="22">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4339,7 +4402,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4348,7 +4411,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4357,7 +4420,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="22">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4368,7 +4431,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4448,12 +4511,12 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="22">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
@@ -4462,7 +4525,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>150</v>
       </c>
@@ -4496,7 +4559,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="25">
+      <c r="A48" s="22">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4507,7 +4570,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="4" t="s">
         <v>178</v>
       </c>
@@ -4527,16 +4590,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="22"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="22"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
+      <c r="A55" s="22">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4547,7 +4610,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="4" t="s">
         <v>210</v>
       </c>
@@ -4556,7 +4619,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="4" t="s">
         <v>211</v>
       </c>
@@ -4565,7 +4628,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="4" t="s">
         <v>212</v>
       </c>
@@ -4574,7 +4637,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="4" t="s">
         <v>213</v>
       </c>
@@ -4598,7 +4661,7 @@
         <v>45666</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
@@ -4609,7 +4672,7 @@
         <v>45666</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
@@ -4620,7 +4683,7 @@
         <v>45667</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>1</v>
@@ -5020,7 +5083,7 @@
         <v>45663</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -5031,7 +5094,7 @@
         <v>45664</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -5064,7 +5127,7 @@
         <v>45665</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -5086,7 +5149,7 @@
         <v>45666</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -5108,7 +5171,7 @@
         <v>45667</v>
       </c>
       <c r="B51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -5116,7 +5179,7 @@
         <v>45667</v>
       </c>
       <c r="B52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -5124,7 +5187,7 @@
         <v>45667</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -5132,21 +5195,21 @@
         <v>45667</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5156,9 +5219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5347,7 +5410,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5358,7 +5421,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5367,7 +5430,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5378,7 +5441,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5387,13 +5450,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5404,7 +5467,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5413,7 +5476,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5422,7 +5485,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="22">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -5430,13 +5493,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="22"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="22">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5447,7 +5510,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5456,7 +5519,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -5465,7 +5528,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="22">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5476,7 +5539,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -5485,7 +5548,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -5494,7 +5557,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -5503,7 +5566,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="A39" s="22">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -5514,7 +5577,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -5523,7 +5586,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -5532,7 +5595,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5607,7 +5670,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="22">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5618,7 +5681,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="4" t="s">
         <v>173</v>
       </c>
@@ -5627,7 +5690,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
@@ -5717,7 +5780,7 @@
         <v>45666</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
@@ -5728,7 +5791,7 @@
         <v>45666</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
@@ -5739,7 +5802,7 @@
         <v>45666</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -5758,7 +5821,7 @@
         <v>45667</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>122</v>
@@ -5780,7 +5843,7 @@
         <v>45667</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>122</v>
@@ -5791,7 +5854,7 @@
         <v>45667</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>122</v>
@@ -5975,7 +6038,7 @@
         <v>45666</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -5983,22 +6046,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -6009,12 +6072,12 @@
         <v>45667</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D161E3-1CBA-4A18-AC84-8652359812B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120C263E-93A7-4748-A2A4-9FACF82698B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="269">
   <si>
     <t>Task</t>
   </si>
@@ -713,9 +713,6 @@
     <t>tableau vedios upto 5 videos completed</t>
   </si>
   <si>
-    <t>Pyhton Append</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -770,9 +767,6 @@
     <t>Jfrog Artifactory tutorial explained to team member</t>
   </si>
   <si>
-    <t xml:space="preserve">Jfrog Installation video </t>
-  </si>
-  <si>
     <t>html vedios and html class text fromattinog</t>
   </si>
   <si>
@@ -791,18 +785,9 @@
     <t xml:space="preserve"> Tableau: Donut Chart,Water Fall Chart</t>
   </si>
   <si>
-    <t xml:space="preserve">Group diacussion Social media Good or </t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
     <t>Tableau Dashbord Creation</t>
   </si>
   <si>
-    <t>Python Append</t>
-  </si>
-  <si>
     <t>html vedios upto 2 videos and html class (web development)</t>
   </si>
   <si>
@@ -843,6 +828,45 @@
   </si>
   <si>
     <t>4. Project work</t>
+  </si>
+  <si>
+    <t>CICD Pipeline and apche spark application vedio</t>
+  </si>
+  <si>
+    <t>Group discussion about online learning vs traditional learning</t>
+  </si>
+  <si>
+    <t>discussion about docker commands  with team member</t>
+  </si>
+  <si>
+    <t>strings in python</t>
+  </si>
+  <si>
+    <t>tableau waterfall chat creation</t>
+  </si>
+  <si>
+    <t>Python Append class</t>
+  </si>
+  <si>
+    <t>Group diacussion Social media Good or bad</t>
+  </si>
+  <si>
+    <t>python append practice</t>
+  </si>
+  <si>
+    <t>tableau small data , big data oreparation and  tableau meta data(data types)</t>
+  </si>
+  <si>
+    <t>tableau explination to team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python append assignments checking </t>
+  </si>
+  <si>
+    <t>quick functions checking</t>
+  </si>
+  <si>
+    <t>html  practice and html vedio(2) watching</t>
   </si>
 </sst>
 </file>
@@ -1283,9 +1307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,7 +1930,7 @@
         <v>45665</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1928,7 +1952,7 @@
         <v>45665</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1939,7 +1963,7 @@
         <v>45665</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1950,7 +1974,7 @@
         <v>45666</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1959,7 +1983,7 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1979,7 +2003,7 @@
         <v>45667</v>
       </c>
       <c r="B66" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C66" t="s">
         <v>122</v>
@@ -1988,7 +2012,7 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
         <v>122</v>
@@ -1997,7 +2021,7 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C68" t="s">
         <v>122</v>
@@ -2006,7 +2030,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C69" t="s">
         <v>122</v>
@@ -2014,6 +2038,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -2030,9 +2057,6 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3326,7 +3350,7 @@
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>122</v>
@@ -3344,7 +3368,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>122</v>
@@ -3353,7 +3377,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
       <c r="B77" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>122</v>
@@ -3362,7 +3386,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
       <c r="B78" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>122</v>
@@ -3370,28 +3394,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4070,7 +4094,7 @@
         <v>45666</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
@@ -4092,7 +4116,7 @@
         <v>45666</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
@@ -4103,7 +4127,7 @@
         <v>45666</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>9</v>
@@ -4114,7 +4138,7 @@
         <v>45667</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>122</v>
@@ -4125,7 +4149,7 @@
         <v>45667</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>122</v>
@@ -4136,7 +4160,7 @@
         <v>45667</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>122</v>
@@ -4165,11 +4189,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4661,7 +4685,7 @@
         <v>45666</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
@@ -4672,22 +4696,58 @@
         <v>45666</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>45667</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>45671</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4714,11 +4774,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5083,7 +5143,7 @@
         <v>45663</v>
       </c>
       <c r="B43" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -5094,7 +5154,7 @@
         <v>45664</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -5127,7 +5187,7 @@
         <v>45665</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -5149,7 +5209,7 @@
         <v>45666</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -5171,7 +5231,10 @@
         <v>45667</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -5179,7 +5242,10 @@
         <v>45667</v>
       </c>
       <c r="B52" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -5187,7 +5253,10 @@
         <v>45667</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -5195,21 +5264,35 @@
         <v>45667</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>45671</v>
+      </c>
+      <c r="B55" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5217,11 +5300,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5758,7 +5841,7 @@
         <v>45665</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
@@ -5769,7 +5852,7 @@
         <v>45665</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>9</v>
@@ -5780,7 +5863,7 @@
         <v>45666</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
@@ -5791,7 +5874,7 @@
         <v>45666</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
@@ -5802,7 +5885,7 @@
         <v>45666</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -5821,7 +5904,7 @@
         <v>45667</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>122</v>
@@ -5832,7 +5915,7 @@
         <v>45667</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>122</v>
@@ -5843,7 +5926,7 @@
         <v>45667</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>122</v>
@@ -5854,10 +5937,42 @@
         <v>45667</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>45671</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>45671</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>45671</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>45671</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5877,10 +5992,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5909,7 +6024,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -6027,18 +6142,15 @@
         <v>45666</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>45666</v>
-      </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -6046,38 +6158,56 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>45667</v>
+      </c>
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>45667</v>
-      </c>
-      <c r="B19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>45671</v>
+      </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>260</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120C263E-93A7-4748-A2A4-9FACF82698B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF352DC-8641-4105-997F-285F8F99347A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="270">
   <si>
     <t>Task</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>html  practice and html vedio(2) watching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group discussion </t>
   </si>
 </sst>
 </file>
@@ -976,10 +979,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1343,7 +1346,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1354,7 +1357,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1363,7 +1366,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1383,7 +1386,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1392,7 +1395,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1404,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1412,7 +1415,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1421,7 +1424,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1430,7 +1433,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1441,7 +1444,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1450,7 +1453,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1459,7 +1462,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1470,7 +1473,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1479,7 +1482,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1488,7 +1491,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1499,7 +1502,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1508,7 +1511,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1517,7 +1520,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1528,7 +1531,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1540,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1548,7 +1551,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +1560,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1568,7 +1571,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1577,7 +1580,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1586,7 +1589,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1597,7 +1600,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1606,7 +1609,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1617,7 +1620,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1626,7 +1629,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1729,7 +1732,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1740,7 +1743,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -1749,7 +1752,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" t="s">
         <v>140</v>
       </c>
@@ -1782,7 +1785,7 @@
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1793,7 +1796,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="B46" t="s">
         <v>145</v>
       </c>
@@ -1802,7 +1805,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="B47" t="s">
         <v>140</v>
       </c>
@@ -1822,7 +1825,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
+      <c r="A49" s="22">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -1833,7 +1836,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="22"/>
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -1842,7 +1845,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -1853,7 +1856,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" t="s">
         <v>140</v>
       </c>
@@ -1862,7 +1865,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" t="s">
         <v>137</v>
       </c>
@@ -1970,7 +1973,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="23">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -1981,7 +1984,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
       <c r="B64" t="s">
         <v>251</v>
       </c>
@@ -1990,7 +1993,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -1999,7 +2002,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="23">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2010,7 +2013,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="B67" t="s">
         <v>253</v>
       </c>
@@ -2019,7 +2022,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="B68" t="s">
         <v>254</v>
       </c>
@@ -2028,7 +2031,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
       <c r="B69" t="s">
         <v>255</v>
       </c>
@@ -2038,6 +2041,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A45:A47"/>
@@ -2054,9 +2060,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2709,7 +2712,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2720,7 +2723,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2729,10 +2732,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2743,24 +2746,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2771,7 +2774,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2780,7 +2783,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2789,7 +2792,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2800,7 +2803,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2809,10 +2812,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2823,7 +2826,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2832,13 +2835,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2849,7 +2852,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2858,7 +2861,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2867,7 +2870,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2878,7 +2881,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2887,7 +2890,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2896,7 +2899,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2907,7 +2910,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2916,7 +2919,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2925,7 +2928,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2936,7 +2939,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2945,7 +2948,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2954,7 +2957,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2963,7 +2966,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2974,7 +2977,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2983,7 +2986,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2992,7 +2995,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3027,7 +3030,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3038,7 +3041,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -3047,7 +3050,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -3056,7 +3059,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3064,13 +3067,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -3081,7 +3084,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
+      <c r="A47" s="22">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3092,7 +3095,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
         <v>146</v>
       </c>
@@ -3101,7 +3104,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
         <v>147</v>
       </c>
@@ -3132,7 +3135,7 @@
       <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3143,7 +3146,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="5" t="s">
         <v>147</v>
       </c>
@@ -3174,7 +3177,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="A56" s="22">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3185,7 +3188,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
         <v>167</v>
       </c>
@@ -3194,7 +3197,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3205,7 +3208,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="5" t="s">
         <v>169</v>
       </c>
@@ -3214,7 +3217,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
@@ -3223,7 +3226,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3234,7 +3237,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
@@ -3243,7 +3246,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
         <v>185</v>
       </c>
@@ -3252,7 +3255,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="23">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3263,7 +3266,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="5" t="s">
         <v>188</v>
       </c>
@@ -3272,7 +3275,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="5" t="s">
         <v>203</v>
       </c>
@@ -3281,7 +3284,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="5" t="s">
         <v>189</v>
       </c>
@@ -3290,7 +3293,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="5" t="s">
         <v>204</v>
       </c>
@@ -3299,7 +3302,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="23">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3310,7 +3313,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="5" t="s">
         <v>206</v>
       </c>
@@ -3319,7 +3322,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="5" t="s">
         <v>203</v>
       </c>
@@ -3328,7 +3331,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="5" t="s">
         <v>189</v>
       </c>
@@ -3337,7 +3340,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="5" t="s">
         <v>207</v>
       </c>
@@ -3346,7 +3349,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="23">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3357,7 +3360,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="5" t="s">
         <v>206</v>
       </c>
@@ -3366,7 +3369,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="5" t="s">
         <v>230</v>
       </c>
@@ -3375,7 +3378,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="5" t="s">
         <v>231</v>
       </c>
@@ -3384,7 +3387,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="5" t="s">
         <v>232</v>
       </c>
@@ -3394,28 +3397,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3456,7 +3459,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3467,7 +3470,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3476,15 +3479,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3493,21 +3496,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3518,7 +3521,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3527,75 +3530,75 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
@@ -3658,7 +3661,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3669,7 +3672,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3678,10 +3681,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3692,24 +3695,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3720,7 +3723,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3729,10 +3732,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3743,7 +3746,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3752,10 +3755,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3766,7 +3769,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3775,7 +3778,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3784,7 +3787,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3795,7 +3798,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3804,7 +3807,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3815,7 +3818,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3824,7 +3827,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3835,7 +3838,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3844,7 +3847,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3853,23 +3856,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
@@ -3877,7 +3880,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="23">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3888,7 +3891,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3965,7 +3968,7 @@
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3973,7 +3976,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="4" t="s">
         <v>149</v>
       </c>
@@ -3982,7 +3985,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="4" t="s">
         <v>150</v>
       </c>
@@ -4191,9 +4194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4224,7 +4227,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4235,7 +4238,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4244,7 +4247,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="23">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4255,18 +4258,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4277,7 +4280,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4286,10 +4289,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4300,7 +4303,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4309,10 +4312,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4323,7 +4326,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4332,7 +4335,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4341,7 +4344,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4352,7 +4355,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4361,7 +4364,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4372,10 +4375,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="23">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4386,13 +4389,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4403,7 +4406,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4412,10 +4415,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4426,7 +4429,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4435,7 +4438,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4444,7 +4447,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4455,7 +4458,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4535,12 +4538,12 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
@@ -4549,7 +4552,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>150</v>
       </c>
@@ -4583,7 +4586,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="23">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4594,7 +4597,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="4" t="s">
         <v>178</v>
       </c>
@@ -4614,16 +4617,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="23">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4634,7 +4637,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="4" t="s">
         <v>210</v>
       </c>
@@ -4643,7 +4646,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
         <v>211</v>
       </c>
@@ -4652,7 +4655,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
         <v>212</v>
       </c>
@@ -4661,7 +4664,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="4" t="s">
         <v>213</v>
       </c>
@@ -4748,6 +4751,9 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
+      <c r="B69" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4776,9 +4782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5280,19 +5286,22 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
+      <c r="B56" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5300,11 +5309,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5493,7 +5502,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5504,7 +5513,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5513,7 +5522,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5524,7 +5533,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5533,13 +5542,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5550,7 +5559,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5559,7 +5568,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5568,7 +5577,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -5576,13 +5585,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+      <c r="A32" s="23">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5593,7 +5602,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5602,7 +5611,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -5611,7 +5620,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="23">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5622,7 +5631,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -5631,7 +5640,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -5640,7 +5649,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -5649,7 +5658,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="A39" s="23">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -5660,7 +5669,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -5669,7 +5678,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -5678,7 +5687,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5753,7 +5762,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5764,7 +5773,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="4" t="s">
         <v>173</v>
       </c>
@@ -5773,7 +5782,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
@@ -5973,6 +5982,11 @@
       </c>
       <c r="B72" s="4" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5992,10 +6006,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6210,6 +6224,11 @@
         <v>122</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF352DC-8641-4105-997F-285F8F99347A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F110B3-792E-4194-8186-893ECBD9EBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="274">
   <si>
     <t>Task</t>
   </si>
@@ -857,19 +857,31 @@
     <t>tableau small data , big data oreparation and  tableau meta data(data types)</t>
   </si>
   <si>
-    <t>tableau explination to team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">python append assignments checking </t>
-  </si>
-  <si>
     <t>quick functions checking</t>
   </si>
   <si>
     <t>html  practice and html vedio(2) watching</t>
   </si>
   <si>
-    <t xml:space="preserve">Group discussion </t>
+    <t>Chat bots introduction</t>
+  </si>
+  <si>
+    <t>Mlops introduction</t>
+  </si>
+  <si>
+    <t>Jfrog Installation Video</t>
+  </si>
+  <si>
+    <t>GitHub explanation for team members</t>
+  </si>
+  <si>
+    <t>Devops course for certification need to start</t>
+  </si>
+  <si>
+    <t>power bi admnistration vedios</t>
+  </si>
+  <si>
+    <t>powerbi  vedio</t>
   </si>
 </sst>
 </file>
@@ -2041,12 +2053,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -2060,6 +2066,12 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2677,11 +2689,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3395,30 +3407,56 @@
         <v>122</v>
       </c>
     </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="14">
+        <v>45671</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="14">
+        <v>45672</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4192,11 +4230,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4745,14 +4783,41 @@
       <c r="B68" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>122</v>
+      <c r="E68" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
+      <c r="A69" s="8">
+        <v>45671</v>
+      </c>
       <c r="B69" s="4" t="s">
         <v>269</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>45672</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>45672</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5281,7 +5346,7 @@
         <v>45671</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -5292,16 +5357,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5309,11 +5374,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5896,6 +5961,9 @@
       <c r="B63" s="4" t="s">
         <v>249</v>
       </c>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -5908,85 +5976,81 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>45667</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>45667</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>45667</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>45667</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E68" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>45671</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>45671</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E70" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
-        <v>45671</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="4" t="s">
-        <v>250</v>
+        <v>272</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6006,10 +6070,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6212,21 +6276,32 @@
       <c r="B20" t="s">
         <v>260</v>
       </c>
-      <c r="C20" t="s">
-        <v>122</v>
+      <c r="E20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>263</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>45672</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F110B3-792E-4194-8186-893ECBD9EBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1710CF54-7E13-42EB-A38C-837B831A940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="276">
   <si>
     <t>Task</t>
   </si>
@@ -882,6 +882,14 @@
   </si>
   <si>
     <t>powerbi  vedio</t>
+  </si>
+  <si>
+    <t>Pandas practice and project related task in pandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. aws_quicksight function( ifelse condition, multiple condition) exaplined to jayasri completed
+2. project related task( gauge and stacked bar combo chart) completed</t>
   </si>
 </sst>
 </file>
@@ -991,10 +999,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1320,11 +1328,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1366,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1369,7 +1377,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +1386,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1395,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1398,7 +1406,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1407,7 +1415,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1424,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1427,7 +1435,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1436,7 +1444,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1445,7 +1453,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1456,7 +1464,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1473,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1474,7 +1482,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1485,7 +1493,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1494,7 +1502,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1503,7 +1511,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1514,7 +1522,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1523,7 +1531,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1532,7 +1540,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1543,7 +1551,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1552,7 +1560,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1563,7 +1571,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1572,7 +1580,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1583,7 +1591,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1592,7 +1600,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1601,7 +1609,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1612,7 +1620,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1621,7 +1629,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1632,7 +1640,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1641,7 +1649,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1744,7 +1752,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1755,7 +1763,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -1764,7 +1772,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" t="s">
         <v>140</v>
       </c>
@@ -1797,7 +1805,7 @@
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+      <c r="A45" s="23">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1808,7 +1816,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>145</v>
       </c>
@@ -1817,7 +1825,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="B47" t="s">
         <v>140</v>
       </c>
@@ -1837,7 +1845,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="23">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -1848,7 +1856,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -1857,7 +1865,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -1868,7 +1876,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" t="s">
         <v>140</v>
       </c>
@@ -1877,7 +1885,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" t="s">
         <v>137</v>
       </c>
@@ -1985,7 +1993,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -1996,7 +2004,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="22"/>
       <c r="B64" t="s">
         <v>251</v>
       </c>
@@ -2005,7 +2013,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2014,45 +2022,70 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
+      <c r="A66" s="22">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
         <v>252</v>
       </c>
-      <c r="C66" t="s">
-        <v>122</v>
+      <c r="F66" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="22"/>
       <c r="B67" t="s">
         <v>253</v>
       </c>
-      <c r="C67" t="s">
-        <v>122</v>
+      <c r="F67" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" t="s">
         <v>254</v>
       </c>
-      <c r="C68" t="s">
-        <v>122</v>
+      <c r="F68" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="22"/>
       <c r="B69" t="s">
         <v>255</v>
       </c>
-      <c r="C69" t="s">
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>45671</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>45672</v>
+      </c>
+      <c r="B71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -2069,9 +2102,6 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2724,7 +2754,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2735,7 +2765,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2744,10 +2774,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2758,24 +2788,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2786,7 +2816,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2795,7 +2825,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2804,7 +2834,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2815,7 +2845,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2824,10 +2854,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2838,7 +2868,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2847,13 +2877,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2864,7 +2894,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2873,7 +2903,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2882,7 +2912,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2893,7 +2923,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2902,7 +2932,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2911,7 +2941,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="23">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2922,7 +2952,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2931,7 +2961,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2940,7 +2970,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2951,7 +2981,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2960,7 +2990,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2969,7 +2999,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2978,7 +3008,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="23">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2989,7 +3019,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2998,7 +3028,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -3007,7 +3037,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="23">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3042,7 +3072,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3053,7 +3083,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -3062,7 +3092,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -3071,7 +3101,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3079,13 +3109,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -3096,7 +3126,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="A47" s="23">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3107,7 +3137,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="5" t="s">
         <v>146</v>
       </c>
@@ -3116,7 +3146,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="5" t="s">
         <v>147</v>
       </c>
@@ -3147,7 +3177,7 @@
       <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="A52" s="23">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3158,7 +3188,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="5" t="s">
         <v>147</v>
       </c>
@@ -3189,7 +3219,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="A56" s="23">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3200,7 +3230,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="5" t="s">
         <v>167</v>
       </c>
@@ -3209,7 +3239,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="A58" s="23">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3220,7 +3250,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="5" t="s">
         <v>169</v>
       </c>
@@ -3229,7 +3259,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
@@ -3238,7 +3268,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="23">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3249,7 +3279,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
@@ -3258,7 +3288,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="5" t="s">
         <v>185</v>
       </c>
@@ -3267,7 +3297,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
+      <c r="A64" s="22">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3278,7 +3308,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="5" t="s">
         <v>188</v>
       </c>
@@ -3287,7 +3317,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="5" t="s">
         <v>203</v>
       </c>
@@ -3296,7 +3326,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="5" t="s">
         <v>189</v>
       </c>
@@ -3305,7 +3335,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="5" t="s">
         <v>204</v>
       </c>
@@ -3314,7 +3344,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
+      <c r="A69" s="22">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3325,7 +3355,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="5" t="s">
         <v>206</v>
       </c>
@@ -3334,7 +3364,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="5" t="s">
         <v>203</v>
       </c>
@@ -3343,7 +3373,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="5" t="s">
         <v>189</v>
       </c>
@@ -3352,7 +3382,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="5" t="s">
         <v>207</v>
       </c>
@@ -3361,7 +3391,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="23">
+      <c r="A74" s="22">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3372,7 +3402,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="5" t="s">
         <v>206</v>
       </c>
@@ -3381,7 +3411,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="5" t="s">
         <v>230</v>
       </c>
@@ -3390,7 +3420,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="5" t="s">
         <v>231</v>
       </c>
@@ -3399,7 +3429,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="5" t="s">
         <v>232</v>
       </c>
@@ -3435,28 +3465,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3497,7 +3527,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3508,7 +3538,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3517,15 +3547,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3534,21 +3564,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3559,7 +3589,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3568,75 +3598,75 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
@@ -3699,7 +3729,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3710,7 +3740,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3719,10 +3749,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3733,24 +3763,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3761,7 +3791,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3770,10 +3800,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3784,7 +3814,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3793,10 +3823,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3807,7 +3837,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3816,7 +3846,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3825,7 +3855,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3836,7 +3866,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3845,7 +3875,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3856,7 +3886,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3865,7 +3895,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3876,7 +3906,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3885,7 +3915,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3894,23 +3924,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
@@ -3918,7 +3948,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3929,7 +3959,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4006,7 +4036,7 @@
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4014,7 +4044,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="4" t="s">
         <v>149</v>
       </c>
@@ -4023,7 +4053,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="4" t="s">
         <v>150</v>
       </c>
@@ -4265,7 +4295,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4276,7 +4306,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4285,7 +4315,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4296,18 +4326,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4318,7 +4348,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4327,10 +4357,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4341,7 +4371,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4350,10 +4380,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4364,7 +4394,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4373,7 +4403,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4382,7 +4412,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4393,7 +4423,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4402,7 +4432,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4413,10 +4443,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4427,13 +4457,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4444,7 +4474,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4453,10 +4483,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4467,7 +4497,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4476,7 +4506,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4485,7 +4515,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4496,7 +4526,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4576,12 +4606,12 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
@@ -4590,7 +4620,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>150</v>
       </c>
@@ -4624,7 +4654,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4635,7 +4665,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="4" t="s">
         <v>178</v>
       </c>
@@ -4655,16 +4685,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="22"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
+      <c r="A55" s="22">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4675,7 +4705,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="4" t="s">
         <v>210</v>
       </c>
@@ -4684,7 +4714,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="4" t="s">
         <v>211</v>
       </c>
@@ -4693,7 +4723,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="4" t="s">
         <v>212</v>
       </c>
@@ -4702,7 +4732,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="4" t="s">
         <v>213</v>
       </c>
@@ -5357,16 +5387,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5567,7 +5597,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5578,7 +5608,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5587,7 +5617,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5598,7 +5628,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5607,13 +5637,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5624,7 +5654,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5633,7 +5663,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5642,7 +5672,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -5650,13 +5680,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5667,7 +5697,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5676,7 +5706,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -5685,7 +5715,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5696,7 +5726,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -5705,7 +5735,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -5714,7 +5744,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -5723,7 +5753,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -5734,7 +5764,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -5743,7 +5773,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -5752,7 +5782,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5827,7 +5857,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5838,7 +5868,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="4" t="s">
         <v>173</v>
       </c>
@@ -5847,7 +5877,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
@@ -6072,7 +6102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1710CF54-7E13-42EB-A38C-837B831A940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF2D90-15DD-4CF6-AB83-8F90B5C28AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="283">
   <si>
     <t>Task</t>
   </si>
@@ -875,9 +875,6 @@
     <t>GitHub explanation for team members</t>
   </si>
   <si>
-    <t>Devops course for certification need to start</t>
-  </si>
-  <si>
     <t>power bi admnistration vedios</t>
   </si>
   <si>
@@ -890,6 +887,30 @@
     <t xml:space="preserve">
 1. aws_quicksight function( ifelse condition, multiple condition) exaplined to jayasri completed
 2. project related task( gauge and stacked bar combo chart) completed</t>
+  </si>
+  <si>
+    <t>Linux fundamentals (Basic linux commands)</t>
+  </si>
+  <si>
+    <t>Linux fundamentals( File system hierarchy, Permissions and ownership)</t>
+  </si>
+  <si>
+    <t>GitHub explanation to Shamshad garu</t>
+  </si>
+  <si>
+    <t>html class</t>
+  </si>
+  <si>
+    <t>power bi video watching</t>
+  </si>
+  <si>
+    <t>python practice(loops)</t>
+  </si>
+  <si>
+    <t>project meeting</t>
+  </si>
+  <si>
+    <t>power bi architecture videos</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1020,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1330,9 +1351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1387,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1377,7 +1398,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1407,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1416,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1406,7 +1427,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1415,7 +1436,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1424,7 +1445,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1435,7 +1456,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1444,7 +1465,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1453,7 +1474,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1464,7 +1485,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1473,7 +1494,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1482,7 +1503,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1493,7 +1514,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1502,7 +1523,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1511,7 +1532,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1522,7 +1543,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1531,7 +1552,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1540,7 +1561,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1551,7 +1572,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1560,7 +1581,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1571,7 +1592,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1580,7 +1601,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1591,7 +1612,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1600,7 +1621,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1609,7 +1630,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1620,7 +1641,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1629,7 +1650,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1640,7 +1661,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1649,7 +1670,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1752,7 +1773,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1763,7 +1784,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -1772,7 +1793,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" t="s">
         <v>140</v>
       </c>
@@ -1805,7 +1826,7 @@
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1816,7 +1837,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="B46" t="s">
         <v>145</v>
       </c>
@@ -1825,7 +1846,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="B47" t="s">
         <v>140</v>
       </c>
@@ -1845,7 +1866,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
+      <c r="A49" s="22">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -1856,7 +1877,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="22"/>
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -1865,7 +1886,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -1876,7 +1897,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" t="s">
         <v>140</v>
       </c>
@@ -1885,7 +1906,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" t="s">
         <v>137</v>
       </c>
@@ -1993,7 +2014,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="23">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -2004,7 +2025,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
       <c r="B64" t="s">
         <v>251</v>
       </c>
@@ -2013,7 +2034,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2043,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="23">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2033,7 +2054,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="B67" t="s">
         <v>253</v>
       </c>
@@ -2042,7 +2063,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="B68" t="s">
         <v>254</v>
       </c>
@@ -2051,7 +2072,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
       <c r="B69" t="s">
         <v>255</v>
       </c>
@@ -2064,7 +2085,7 @@
         <v>45671</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2075,7 +2096,7 @@
         <v>45672</v>
       </c>
       <c r="B71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D71" t="s">
         <v>122</v>
@@ -2083,6 +2104,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A45:A47"/>
@@ -2099,9 +2123,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2754,7 +2775,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2765,7 +2786,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2774,10 +2795,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2788,24 +2809,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2816,7 +2837,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2825,7 +2846,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2834,7 +2855,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2845,7 +2866,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2854,10 +2875,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2868,7 +2889,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2877,13 +2898,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2894,7 +2915,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2903,7 +2924,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2912,7 +2933,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2923,7 +2944,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2932,7 +2953,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2941,7 +2962,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2952,7 +2973,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2961,7 +2982,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2970,7 +2991,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2981,7 +3002,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2990,7 +3011,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2999,7 +3020,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -3008,7 +3029,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3019,7 +3040,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -3028,7 +3049,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -3037,7 +3058,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3072,7 +3093,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3083,7 +3104,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -3092,7 +3113,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -3101,7 +3122,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3109,13 +3130,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -3126,7 +3147,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
+      <c r="A47" s="22">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3137,7 +3158,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
         <v>146</v>
       </c>
@@ -3146,7 +3167,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
         <v>147</v>
       </c>
@@ -3177,7 +3198,7 @@
       <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3188,7 +3209,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="5" t="s">
         <v>147</v>
       </c>
@@ -3219,7 +3240,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="A56" s="22">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3230,7 +3251,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
         <v>167</v>
       </c>
@@ -3239,7 +3260,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3250,7 +3271,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="5" t="s">
         <v>169</v>
       </c>
@@ -3259,7 +3280,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
@@ -3268,7 +3289,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3279,7 +3300,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
@@ -3288,7 +3309,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
         <v>185</v>
       </c>
@@ -3297,7 +3318,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="23">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3308,7 +3329,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="5" t="s">
         <v>188</v>
       </c>
@@ -3317,7 +3338,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="5" t="s">
         <v>203</v>
       </c>
@@ -3326,7 +3347,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="5" t="s">
         <v>189</v>
       </c>
@@ -3335,7 +3356,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="5" t="s">
         <v>204</v>
       </c>
@@ -3344,7 +3365,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="23">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3355,7 +3376,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="5" t="s">
         <v>206</v>
       </c>
@@ -3364,7 +3385,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="5" t="s">
         <v>203</v>
       </c>
@@ -3373,7 +3394,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="5" t="s">
         <v>189</v>
       </c>
@@ -3382,7 +3403,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="5" t="s">
         <v>207</v>
       </c>
@@ -3391,7 +3412,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="23">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3402,7 +3423,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="5" t="s">
         <v>206</v>
       </c>
@@ -3411,7 +3432,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="5" t="s">
         <v>230</v>
       </c>
@@ -3420,7 +3441,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="5" t="s">
         <v>231</v>
       </c>
@@ -3429,7 +3450,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="5" t="s">
         <v>232</v>
       </c>
@@ -3465,28 +3486,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3527,7 +3548,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3538,7 +3559,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3547,15 +3568,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3564,21 +3585,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3589,7 +3610,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3598,75 +3619,75 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
@@ -3694,11 +3715,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3729,7 +3750,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3740,7 +3761,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3749,10 +3770,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3763,24 +3784,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3791,7 +3812,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3800,10 +3821,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3814,7 +3835,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3823,10 +3844,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3837,7 +3858,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3846,7 +3867,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3855,7 +3876,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3866,7 +3887,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3875,7 +3896,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3886,7 +3907,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3895,7 +3916,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3906,7 +3927,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3915,7 +3936,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3924,23 +3945,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
@@ -3948,7 +3969,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="23">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3959,7 +3980,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4036,7 +4057,7 @@
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4044,7 +4065,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="4" t="s">
         <v>149</v>
       </c>
@@ -4053,7 +4074,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="4" t="s">
         <v>150</v>
       </c>
@@ -4235,6 +4256,30 @@
       </c>
       <c r="C61" s="4" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>45673</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>45673</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>45673</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4260,17 +4305,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="51" style="4" customWidth="1"/>
+    <col min="2" max="2" width="61.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
@@ -4295,7 +4340,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4306,7 +4351,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4315,7 +4360,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="23">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4326,18 +4371,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4348,7 +4393,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4357,10 +4402,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4371,7 +4416,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4380,10 +4425,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4394,7 +4439,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4403,7 +4448,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4412,7 +4457,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4423,7 +4468,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4432,7 +4477,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4443,10 +4488,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="23">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4457,13 +4502,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4474,7 +4519,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4483,10 +4528,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4497,7 +4542,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4506,7 +4551,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4515,7 +4560,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4526,7 +4571,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4606,12 +4651,12 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
@@ -4620,7 +4665,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>150</v>
       </c>
@@ -4654,7 +4699,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="23">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4665,7 +4710,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="4" t="s">
         <v>178</v>
       </c>
@@ -4685,16 +4730,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="23">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4705,7 +4750,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="4" t="s">
         <v>210</v>
       </c>
@@ -4714,7 +4759,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
         <v>211</v>
       </c>
@@ -4723,7 +4768,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
         <v>212</v>
       </c>
@@ -4732,7 +4777,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="4" t="s">
         <v>213</v>
       </c>
@@ -4835,8 +4880,8 @@
       <c r="B70" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>122</v>
+      <c r="E70" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -4844,9 +4889,31 @@
         <v>45672</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C71" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>45673</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>45673</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4875,11 +4942,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5380,23 +5447,41 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="9">
+        <v>45671</v>
+      </c>
       <c r="B56" t="s">
         <v>250</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>45673</v>
+      </c>
+      <c r="B57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>45673</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5404,11 +5489,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5597,7 +5682,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5608,7 +5693,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5617,7 +5702,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5628,7 +5713,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5637,13 +5722,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5654,7 +5739,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5663,7 +5748,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5672,7 +5757,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -5680,13 +5765,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+      <c r="A32" s="23">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5697,7 +5782,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5706,7 +5791,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -5715,7 +5800,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="23">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5726,7 +5811,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -5735,7 +5820,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -5744,7 +5829,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -5753,7 +5838,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="A39" s="23">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -5764,7 +5849,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -5773,7 +5858,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -5782,7 +5867,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5857,7 +5942,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5868,7 +5953,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="4" t="s">
         <v>173</v>
       </c>
@@ -5877,7 +5962,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
@@ -6077,9 +6162,20 @@
         <v>45672</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C71" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>45673</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6103,7 +6199,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6323,13 +6419,19 @@
         <v>45672</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>45673</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
       <c r="C23" t="s">
         <v>122</v>
       </c>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF2D90-15DD-4CF6-AB83-8F90B5C28AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDA9B54-225F-43CA-A1BA-A7A228D31E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="286">
   <si>
     <t>Task</t>
   </si>
@@ -911,6 +911,15 @@
   </si>
   <si>
     <t>power bi architecture videos</t>
+  </si>
+  <si>
+    <t>AWS quicksight  kt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projet work </t>
+  </si>
+  <si>
+    <t>dataikq installation</t>
   </si>
 </sst>
 </file>
@@ -1349,11 +1358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2098,18 +2107,23 @@
       <c r="B71" t="s">
         <v>273</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>45673</v>
+      </c>
+      <c r="B72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -2123,6 +2137,12 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2740,11 +2760,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3418,8 +3438,8 @@
       <c r="B74" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>122</v>
+      <c r="E74" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3427,8 +3447,8 @@
       <c r="B75" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>122</v>
+      <c r="E75" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3436,8 +3456,8 @@
       <c r="B76" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>122</v>
+      <c r="E76" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3445,8 +3465,8 @@
       <c r="B77" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>122</v>
+      <c r="E77" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -3454,8 +3474,8 @@
       <c r="B78" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>122</v>
+      <c r="E78" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -3465,49 +3485,80 @@
       <c r="B79" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E79" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E80" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>45672</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E81" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" s="5" t="s">
         <v>268</v>
       </c>
+      <c r="E82" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="14">
+        <v>45673</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5472,16 +5523,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5491,7 +5542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDA9B54-225F-43CA-A1BA-A7A228D31E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE0593-796C-4C07-8FE3-783F0C5237C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="304">
   <si>
     <t>Task</t>
   </si>
@@ -892,15 +892,6 @@
     <t>Linux fundamentals (Basic linux commands)</t>
   </si>
   <si>
-    <t>Linux fundamentals( File system hierarchy, Permissions and ownership)</t>
-  </si>
-  <si>
-    <t>GitHub explanation to Shamshad garu</t>
-  </si>
-  <si>
-    <t>html class</t>
-  </si>
-  <si>
     <t>power bi video watching</t>
   </si>
   <si>
@@ -920,6 +911,73 @@
   </si>
   <si>
     <t>dataikq installation</t>
+  </si>
+  <si>
+    <t>1.dataiku videos</t>
+  </si>
+  <si>
+    <t>2.git hub class</t>
+  </si>
+  <si>
+    <t>3 dataiku tool practice</t>
+  </si>
+  <si>
+    <t>neeed to start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataiku installation  &amp; dataiku video </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data iku videos </t>
+  </si>
+  <si>
+    <t>git hub</t>
+  </si>
+  <si>
+    <t>quick sight project kt from prasanna</t>
+  </si>
+  <si>
+    <t>GitHub (clone, repository creation,push pull) in VS Code explanation  to team</t>
+  </si>
+  <si>
+    <t>git hub practice</t>
+  </si>
+  <si>
+    <t>quicksight videos</t>
+  </si>
+  <si>
+    <t>html HTML TAG practice
+tags--- &lt;a&gt;&lt;b&gt;big&gt;&lt;body&gt;br&gt;button&gt;&lt;del&gt;&lt;p&gt;&lt;ul&gt;il&gt;img&gt;
+HTML Element Reference
+tags--&lt;abbr&gt;&lt;acronym&lt;address&gt;applet(emded)or(objiect)
+html video watching</t>
+  </si>
+  <si>
+    <t>html tags practice</t>
+  </si>
+  <si>
+    <t>html videos</t>
+  </si>
+  <si>
+    <t>tablau video</t>
+  </si>
+  <si>
+    <t>git hub(repository creation,brach creation,file uploading)</t>
+  </si>
+  <si>
+    <t>tableau videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power bi architecture </t>
+  </si>
+  <si>
+    <t>python explinaton to shamshad</t>
+  </si>
+  <si>
+    <t>tableau explination to team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub (clone, repository creation,push pull) in VS Code task </t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2174,7 @@
         <v>45673</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D72" t="s">
         <v>122</v>
@@ -2124,6 +2182,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -2137,12 +2201,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2760,11 +2818,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3479,7 +3537,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="14">
+      <c r="A79" s="22">
         <v>45671</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3490,6 +3548,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="22"/>
       <c r="B80" s="5" t="s">
         <v>267</v>
       </c>
@@ -3498,7 +3557,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="14">
+      <c r="A81" s="22">
         <v>45672</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -3509,6 +3568,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="22"/>
       <c r="B82" s="5" t="s">
         <v>268</v>
       </c>
@@ -3517,48 +3577,82 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="14">
+      <c r="A83" s="22">
         <v>45673</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="22">
+        <v>45674</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="5" t="s">
+      <c r="C86" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
+      <c r="B87" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>122</v>
+      <c r="C87" s="5" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A74:A78"/>
+  <mergeCells count="26">
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A74:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3766,11 +3860,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4283,8 +4377,8 @@
       <c r="B59" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>122</v>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -4294,8 +4388,8 @@
       <c r="B60" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>122</v>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -4305,8 +4399,8 @@
       <c r="B61" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>122</v>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -4314,7 +4408,10 @@
         <v>45673</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4322,7 +4419,10 @@
         <v>45673</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -4330,7 +4430,23 @@
         <v>45673</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>26</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4356,17 +4472,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="61.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
@@ -4951,10 +5067,10 @@
         <v>45673</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>122</v>
+        <v>290</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -4962,9 +5078,42 @@
         <v>45673</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C73" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>45673</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4993,16 +5142,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="60.88671875" customWidth="1"/>
     <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
@@ -5496,6 +5645,9 @@
       <c r="B55" t="s">
         <v>266</v>
       </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
@@ -5504,13 +5656,19 @@
       <c r="B56" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>45673</v>
       </c>
-      <c r="B57" t="s">
-        <v>278</v>
+      <c r="B57" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -5518,7 +5676,40 @@
         <v>45673</v>
       </c>
       <c r="B58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>45674</v>
+      </c>
+      <c r="B59" t="s">
         <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>45674</v>
+      </c>
+      <c r="B60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>45674</v>
+      </c>
+      <c r="B61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5540,11 +5731,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6224,9 +6415,64 @@
         <v>45673</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C72" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>45673</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6247,10 +6493,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6481,9 +6727,75 @@
         <v>45673</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>45673</v>
+      </c>
+      <c r="B24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>45673</v>
+      </c>
+      <c r="B25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>45673</v>
+      </c>
+      <c r="B26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>45674</v>
+      </c>
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>45674</v>
+      </c>
+      <c r="B28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>45674</v>
+      </c>
+      <c r="B29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE0593-796C-4C07-8FE3-783F0C5237C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009642F7-10E5-467A-92B2-ADDCC0E043B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="310">
   <si>
     <t>Task</t>
   </si>
@@ -940,12 +940,6 @@
     <t>GitHub (clone, repository creation,push pull) in VS Code explanation  to team</t>
   </si>
   <si>
-    <t>git hub practice</t>
-  </si>
-  <si>
-    <t>quicksight videos</t>
-  </si>
-  <si>
     <t>html HTML TAG practice
 tags--- &lt;a&gt;&lt;b&gt;big&gt;&lt;body&gt;br&gt;button&gt;&lt;del&gt;&lt;p&gt;&lt;ul&gt;il&gt;img&gt;
 HTML Element Reference
@@ -968,16 +962,40 @@
     <t>tableau videos</t>
   </si>
   <si>
-    <t xml:space="preserve">power bi architecture </t>
-  </si>
-  <si>
-    <t>python explinaton to shamshad</t>
-  </si>
-  <si>
-    <t>tableau explination to team</t>
-  </si>
-  <si>
     <t xml:space="preserve">GitHub (clone, repository creation,push pull) in VS Code task </t>
+  </si>
+  <si>
+    <t>power bi architecture and powet bi admin videos</t>
+  </si>
+  <si>
+    <t>power bi graph generation</t>
+  </si>
+  <si>
+    <t>Git hub(repository creation,brach creation,file uploading)</t>
+  </si>
+  <si>
+    <t>Git Commands push,pull practice and Python_Append Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git Commands push,pull practice </t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>Github tasks for shamshad and Rahmathunnisa</t>
+  </si>
+  <si>
+    <t>Learned about Boto3</t>
+  </si>
+  <si>
+    <t>File System Hierarchy</t>
+  </si>
+  <si>
+    <t>Permissions and Ownership videos</t>
+  </si>
+  <si>
+    <t>Need to start</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1105,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1454,7 +1472,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1465,7 +1483,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1492,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1501,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1494,7 +1512,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1503,7 +1521,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1530,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1523,7 +1541,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1532,7 +1550,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1541,7 +1559,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1552,7 +1570,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1561,7 +1579,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1570,7 +1588,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1581,7 +1599,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1590,7 +1608,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1599,7 +1617,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1610,7 +1628,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1619,7 +1637,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1628,7 +1646,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1639,7 +1657,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1648,7 +1666,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1659,7 +1677,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1668,7 +1686,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1679,7 +1697,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1688,7 +1706,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1697,7 +1715,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1708,7 +1726,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1717,7 +1735,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1728,7 +1746,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1737,7 +1755,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1840,7 +1858,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1851,7 +1869,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -1860,7 +1878,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" t="s">
         <v>140</v>
       </c>
@@ -1893,7 +1911,7 @@
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+      <c r="A45" s="23">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1904,7 +1922,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>145</v>
       </c>
@@ -1913,7 +1931,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="B47" t="s">
         <v>140</v>
       </c>
@@ -1933,7 +1951,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="23">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -1944,7 +1962,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -1953,7 +1971,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -1964,7 +1982,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" t="s">
         <v>140</v>
       </c>
@@ -1973,7 +1991,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" t="s">
         <v>137</v>
       </c>
@@ -2081,7 +2099,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -2092,7 +2110,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="22"/>
       <c r="B64" t="s">
         <v>251</v>
       </c>
@@ -2101,7 +2119,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2128,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
+      <c r="A66" s="22">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2121,7 +2139,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="22"/>
       <c r="B67" t="s">
         <v>253</v>
       </c>
@@ -2130,7 +2148,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" t="s">
         <v>254</v>
       </c>
@@ -2139,7 +2157,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="22"/>
       <c r="B69" t="s">
         <v>255</v>
       </c>
@@ -2182,9 +2200,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A45:A47"/>
@@ -2201,6 +2216,9 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2853,7 +2871,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2864,7 +2882,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2873,10 +2891,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2887,24 +2905,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2915,7 +2933,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2924,7 +2942,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2933,7 +2951,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2944,7 +2962,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2953,10 +2971,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2967,7 +2985,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2976,13 +2994,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2993,7 +3011,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -3002,7 +3020,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -3011,7 +3029,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3022,7 +3040,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -3031,7 +3049,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -3040,7 +3058,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="23">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3051,7 +3069,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -3060,7 +3078,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -3069,7 +3087,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3080,7 +3098,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -3089,7 +3107,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -3098,7 +3116,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -3107,7 +3125,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="23">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3118,7 +3136,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -3127,7 +3145,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -3136,7 +3154,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="23">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3171,7 +3189,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3182,7 +3200,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -3191,7 +3209,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -3200,7 +3218,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3208,13 +3226,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -3225,7 +3243,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="A47" s="23">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3236,7 +3254,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="5" t="s">
         <v>146</v>
       </c>
@@ -3245,7 +3263,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="5" t="s">
         <v>147</v>
       </c>
@@ -3276,7 +3294,7 @@
       <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="A52" s="23">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3287,7 +3305,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="5" t="s">
         <v>147</v>
       </c>
@@ -3318,7 +3336,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="A56" s="23">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3329,7 +3347,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="5" t="s">
         <v>167</v>
       </c>
@@ -3338,7 +3356,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="A58" s="23">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3349,7 +3367,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="5" t="s">
         <v>169</v>
       </c>
@@ -3358,7 +3376,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
@@ -3367,7 +3385,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="23">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3378,7 +3396,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
@@ -3387,7 +3405,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="5" t="s">
         <v>185</v>
       </c>
@@ -3396,7 +3414,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
+      <c r="A64" s="22">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3407,7 +3425,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="5" t="s">
         <v>188</v>
       </c>
@@ -3416,7 +3434,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="5" t="s">
         <v>203</v>
       </c>
@@ -3425,7 +3443,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="5" t="s">
         <v>189</v>
       </c>
@@ -3434,7 +3452,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="5" t="s">
         <v>204</v>
       </c>
@@ -3443,7 +3461,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
+      <c r="A69" s="22">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3454,7 +3472,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="5" t="s">
         <v>206</v>
       </c>
@@ -3463,7 +3481,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="5" t="s">
         <v>203</v>
       </c>
@@ -3472,7 +3490,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="5" t="s">
         <v>189</v>
       </c>
@@ -3481,7 +3499,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="5" t="s">
         <v>207</v>
       </c>
@@ -3490,7 +3508,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="23">
+      <c r="A74" s="22">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3501,7 +3519,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="5" t="s">
         <v>206</v>
       </c>
@@ -3510,7 +3528,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="5" t="s">
         <v>230</v>
       </c>
@@ -3519,7 +3537,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="5" t="s">
         <v>231</v>
       </c>
@@ -3528,7 +3546,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="5" t="s">
         <v>232</v>
       </c>
@@ -3537,7 +3555,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="A79" s="23">
         <v>45671</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3548,7 +3566,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="5" t="s">
         <v>267</v>
       </c>
@@ -3557,7 +3575,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="22">
+      <c r="A81" s="23">
         <v>45672</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -3568,7 +3586,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="5" t="s">
         <v>268</v>
       </c>
@@ -3577,7 +3595,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="22">
+      <c r="A83" s="23">
         <v>45673</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3588,7 +3606,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="5" t="s">
         <v>282</v>
       </c>
@@ -3597,7 +3615,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="A85" s="23">
         <v>45674</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3608,7 +3626,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="5" t="s">
         <v>284</v>
       </c>
@@ -3617,7 +3635,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="5" t="s">
         <v>285</v>
       </c>
@@ -3693,7 +3711,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3704,7 +3722,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3713,15 +3731,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3730,21 +3748,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3755,7 +3773,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3764,75 +3782,75 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
@@ -3895,7 +3913,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3906,7 +3924,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3915,10 +3933,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3929,24 +3947,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3957,7 +3975,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3966,10 +3984,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3980,7 +3998,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3989,10 +4007,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4003,7 +4021,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -4012,7 +4030,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -4021,7 +4039,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4032,7 +4050,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -4041,7 +4059,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4052,7 +4070,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -4061,7 +4079,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4072,7 +4090,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -4081,7 +4099,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -4090,23 +4108,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
@@ -4114,7 +4132,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4125,7 +4143,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4202,7 +4220,7 @@
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4210,7 +4228,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="4" t="s">
         <v>149</v>
       </c>
@@ -4219,7 +4237,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="4" t="s">
         <v>150</v>
       </c>
@@ -4472,11 +4490,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4507,7 +4525,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4518,7 +4536,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4527,7 +4545,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4538,18 +4556,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4560,7 +4578,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4569,10 +4587,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4583,7 +4601,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4592,10 +4610,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4606,7 +4624,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4615,7 +4633,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4624,7 +4642,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4635,7 +4653,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4644,7 +4662,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4655,10 +4673,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4669,13 +4687,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4686,7 +4704,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4695,10 +4713,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4709,7 +4727,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4718,7 +4736,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4727,7 +4745,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4738,7 +4756,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4818,12 +4836,12 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
@@ -4832,7 +4850,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>150</v>
       </c>
@@ -4866,7 +4884,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4877,7 +4895,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="4" t="s">
         <v>178</v>
       </c>
@@ -4897,16 +4915,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="22"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
+      <c r="A55" s="22">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4917,7 +4935,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="4" t="s">
         <v>210</v>
       </c>
@@ -4926,7 +4944,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="4" t="s">
         <v>211</v>
       </c>
@@ -4935,7 +4953,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="4" t="s">
         <v>212</v>
       </c>
@@ -4944,7 +4962,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="4" t="s">
         <v>213</v>
       </c>
@@ -5100,10 +5118,10 @@
         <v>45674</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>122</v>
+        <v>5</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -5111,10 +5129,43 @@
         <v>45674</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>122</v>
+        <v>305</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>45677</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>45677</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5665,7 +5716,7 @@
         <v>45673</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -5695,7 +5746,7 @@
         <v>45674</v>
       </c>
       <c r="B60" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
@@ -5706,7 +5757,7 @@
         <v>45674</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C61" t="s">
         <v>122</v>
@@ -5733,9 +5784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5924,7 +5975,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5935,7 +5986,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5944,7 +5995,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5955,7 +6006,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5964,13 +6015,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5981,7 +6032,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5990,7 +6041,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5999,7 +6050,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -6007,13 +6058,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -6024,7 +6075,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -6033,7 +6084,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -6042,7 +6093,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6053,7 +6104,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -6062,7 +6113,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -6071,7 +6122,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -6080,7 +6131,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -6091,7 +6142,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -6100,7 +6151,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -6109,7 +6160,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -6184,7 +6235,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -6195,7 +6246,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="4" t="s">
         <v>173</v>
       </c>
@@ -6204,7 +6255,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
@@ -6415,7 +6466,7 @@
         <v>45673</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
@@ -6437,18 +6488,18 @@
         <v>45674</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>122</v>
+        <v>299</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>122</v>
@@ -6456,25 +6507,17 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>45674</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="A77" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6493,10 +6536,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6738,7 +6781,7 @@
         <v>45673</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -6749,7 +6792,7 @@
         <v>45673</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -6771,10 +6814,10 @@
         <v>45674</v>
       </c>
       <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27" t="s">
-        <v>122</v>
+        <v>297</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -6784,8 +6827,8 @@
       <c r="B28" t="s">
         <v>276</v>
       </c>
-      <c r="C28" t="s">
-        <v>122</v>
+      <c r="E28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -6793,13 +6836,36 @@
         <v>45674</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>45677</v>
+      </c>
+      <c r="B30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A30:A31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009642F7-10E5-467A-92B2-ADDCC0E043B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A85E1B-97B4-4BE5-AA0E-2B40DBD2098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="319">
   <si>
     <t>Task</t>
   </si>
@@ -913,18 +913,6 @@
     <t>dataikq installation</t>
   </si>
   <si>
-    <t>1.dataiku videos</t>
-  </si>
-  <si>
-    <t>2.git hub class</t>
-  </si>
-  <si>
-    <t>3 dataiku tool practice</t>
-  </si>
-  <si>
-    <t>neeed to start</t>
-  </si>
-  <si>
     <t xml:space="preserve">dataiku installation  &amp; dataiku video </t>
   </si>
   <si>
@@ -968,34 +956,73 @@
     <t>power bi architecture and powet bi admin videos</t>
   </si>
   <si>
-    <t>power bi graph generation</t>
-  </si>
-  <si>
     <t>Git hub(repository creation,brach creation,file uploading)</t>
   </si>
   <si>
     <t>Git Commands push,pull practice and Python_Append Practice</t>
   </si>
   <si>
-    <t xml:space="preserve">Git Commands push,pull practice </t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
     <t>Github tasks for shamshad and Rahmathunnisa</t>
   </si>
   <si>
     <t>Learned about Boto3</t>
   </si>
   <si>
-    <t>File System Hierarchy</t>
-  </si>
-  <si>
-    <t>Permissions and Ownership videos</t>
-  </si>
-  <si>
     <t>Need to start</t>
+  </si>
+  <si>
+    <t>.power bi (up stream , downstream, data flow, power bi admin,microsoft admin, reporting,power bi related microsoft tools )</t>
+  </si>
+  <si>
+    <t>power bi videos watching</t>
+  </si>
+  <si>
+    <t>1.java class on loops for,while,do while</t>
+  </si>
+  <si>
+    <t>2.html  code on audio</t>
+  </si>
+  <si>
+    <t>3 dataiku tool options documentation preparation</t>
+  </si>
+  <si>
+    <t>week end</t>
+  </si>
+  <si>
+    <t>1. dataiku class</t>
+  </si>
+  <si>
+    <t>2. java practice and  test on loops topic</t>
+  </si>
+  <si>
+    <t>3.project work</t>
+  </si>
+  <si>
+    <t>data iku introduction class</t>
+  </si>
+  <si>
+    <t>data iku joins  and dataiku videos</t>
+  </si>
+  <si>
+    <t>dataiku introduction class</t>
+  </si>
+  <si>
+    <t>quick sight introduction class</t>
+  </si>
+  <si>
+    <t>Git Commands push,pull practice  and sql</t>
+  </si>
+  <si>
+    <t>python( filter, group by,isin ,not isin,rename, drop ,keep)</t>
+  </si>
+  <si>
+    <t>aws glue job</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>client code understanding</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1132,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1472,7 +1499,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1483,7 +1510,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1519,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1528,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1512,7 +1539,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1521,7 +1548,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1530,7 +1557,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1541,7 +1568,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1550,7 +1577,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1559,7 +1586,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1570,7 +1597,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1579,7 +1606,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1588,7 +1615,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1599,7 +1626,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1608,7 +1635,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1617,7 +1644,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1628,7 +1655,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1637,7 +1664,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1646,7 +1673,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1657,7 +1684,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1666,7 +1693,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1677,7 +1704,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1686,7 +1713,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1697,7 +1724,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1706,7 +1733,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1715,7 +1742,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1726,7 +1753,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1735,7 +1762,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1746,7 +1773,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1755,7 +1782,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1858,7 +1885,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1869,7 +1896,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -1878,7 +1905,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" t="s">
         <v>140</v>
       </c>
@@ -1911,7 +1938,7 @@
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1922,7 +1949,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="B46" t="s">
         <v>145</v>
       </c>
@@ -1931,7 +1958,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="B47" t="s">
         <v>140</v>
       </c>
@@ -1951,7 +1978,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
+      <c r="A49" s="22">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -1962,7 +1989,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="22"/>
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -1971,7 +1998,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -1982,7 +2009,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" t="s">
         <v>140</v>
       </c>
@@ -1991,7 +2018,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" t="s">
         <v>137</v>
       </c>
@@ -2099,7 +2126,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="23">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -2110,7 +2137,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
       <c r="B64" t="s">
         <v>251</v>
       </c>
@@ -2119,7 +2146,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2128,7 +2155,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="23">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2139,7 +2166,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="B67" t="s">
         <v>253</v>
       </c>
@@ -2148,7 +2175,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="B68" t="s">
         <v>254</v>
       </c>
@@ -2157,7 +2184,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
       <c r="B69" t="s">
         <v>255</v>
       </c>
@@ -2200,6 +2227,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A45:A47"/>
@@ -2216,9 +2246,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2836,11 +2863,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:A82"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,7 +2898,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2882,7 +2909,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2891,10 +2918,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2905,24 +2932,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2933,7 +2960,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2942,7 +2969,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2951,7 +2978,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2962,7 +2989,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2971,10 +2998,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2985,7 +3012,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2994,13 +3021,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3011,7 +3038,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -3020,7 +3047,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -3029,7 +3056,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3040,7 +3067,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -3049,7 +3076,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -3058,7 +3085,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3069,7 +3096,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -3078,7 +3105,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -3087,7 +3114,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3098,7 +3125,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -3107,7 +3134,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -3116,7 +3143,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -3125,7 +3152,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3136,7 +3163,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -3145,7 +3172,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -3154,7 +3181,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3189,7 +3216,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3200,7 +3227,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -3209,7 +3236,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -3218,7 +3245,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3226,13 +3253,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -3243,7 +3270,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
+      <c r="A47" s="22">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3254,7 +3281,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
         <v>146</v>
       </c>
@@ -3263,7 +3290,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
         <v>147</v>
       </c>
@@ -3294,7 +3321,7 @@
       <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3305,7 +3332,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="5" t="s">
         <v>147</v>
       </c>
@@ -3336,7 +3363,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="A56" s="22">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3347,7 +3374,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
         <v>167</v>
       </c>
@@ -3356,7 +3383,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3367,7 +3394,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="5" t="s">
         <v>169</v>
       </c>
@@ -3376,7 +3403,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
@@ -3385,7 +3412,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3396,7 +3423,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
@@ -3405,7 +3432,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
         <v>185</v>
       </c>
@@ -3414,7 +3441,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="23">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3425,7 +3452,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="5" t="s">
         <v>188</v>
       </c>
@@ -3434,7 +3461,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="5" t="s">
         <v>203</v>
       </c>
@@ -3443,7 +3470,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="5" t="s">
         <v>189</v>
       </c>
@@ -3452,7 +3479,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="5" t="s">
         <v>204</v>
       </c>
@@ -3461,7 +3488,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="23">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3472,7 +3499,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="5" t="s">
         <v>206</v>
       </c>
@@ -3481,7 +3508,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="5" t="s">
         <v>203</v>
       </c>
@@ -3490,7 +3517,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="5" t="s">
         <v>189</v>
       </c>
@@ -3499,7 +3526,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="5" t="s">
         <v>207</v>
       </c>
@@ -3508,7 +3535,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="23">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3519,7 +3546,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="5" t="s">
         <v>206</v>
       </c>
@@ -3528,7 +3555,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="5" t="s">
         <v>230</v>
       </c>
@@ -3537,7 +3564,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="5" t="s">
         <v>231</v>
       </c>
@@ -3546,7 +3573,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="5" t="s">
         <v>232</v>
       </c>
@@ -3555,7 +3582,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="23">
+      <c r="A79" s="22">
         <v>45671</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3566,7 +3593,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="5" t="s">
         <v>267</v>
       </c>
@@ -3575,7 +3602,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="23">
+      <c r="A81" s="22">
         <v>45672</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -3586,7 +3613,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="5" t="s">
         <v>268</v>
       </c>
@@ -3595,7 +3622,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="23">
+      <c r="A83" s="22">
         <v>45673</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3606,7 +3633,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="5" t="s">
         <v>282</v>
       </c>
@@ -3615,46 +3642,93 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="23">
+      <c r="A85" s="22">
         <v>45674</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>286</v>
+        <v>303</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>286</v>
+        <v>304</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>286</v>
+        <v>305</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="14">
+        <v>45675</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="14">
+        <v>45676</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="14">
+        <v>45677</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="22">
+        <v>45678</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
+      <c r="B92" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="B93" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="27">
+    <mergeCell ref="A91:A93"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="A79:A80"/>
@@ -3671,6 +3745,16 @@
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3711,7 +3795,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3722,7 +3806,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3731,15 +3815,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3748,21 +3832,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3773,7 +3857,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3782,75 +3866,75 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
@@ -3878,11 +3962,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3913,7 +3997,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3924,7 +4008,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3933,10 +4017,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3947,24 +4031,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3975,7 +4059,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3984,10 +4068,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3998,7 +4082,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -4007,10 +4091,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4021,7 +4105,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -4030,7 +4114,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -4039,7 +4123,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4050,7 +4134,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -4059,7 +4143,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4070,7 +4154,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -4079,7 +4163,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4090,7 +4174,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -4099,7 +4183,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -4108,23 +4192,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
@@ -4132,7 +4216,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="23">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4143,7 +4227,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4220,7 +4304,7 @@
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4228,7 +4312,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="4" t="s">
         <v>149</v>
       </c>
@@ -4237,7 +4321,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="4" t="s">
         <v>150</v>
       </c>
@@ -4448,23 +4532,65 @@
         <v>45673</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>45674</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>45674</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4490,11 +4616,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,7 +4651,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4536,7 +4662,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4545,7 +4671,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="23">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4556,18 +4682,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4578,7 +4704,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4587,10 +4713,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4601,7 +4727,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4610,10 +4736,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4624,7 +4750,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4633,7 +4759,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4642,7 +4768,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4653,7 +4779,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4662,7 +4788,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4673,10 +4799,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="23">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4687,13 +4813,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4704,7 +4830,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4713,10 +4839,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4727,7 +4853,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4736,7 +4862,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4745,7 +4871,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4756,7 +4882,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4836,12 +4962,12 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
@@ -4850,7 +4976,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>150</v>
       </c>
@@ -4884,7 +5010,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="23">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4895,7 +5021,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="4" t="s">
         <v>178</v>
       </c>
@@ -4915,16 +5041,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="23">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4935,7 +5061,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="4" t="s">
         <v>210</v>
       </c>
@@ -4944,7 +5070,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
         <v>211</v>
       </c>
@@ -4953,7 +5079,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
         <v>212</v>
       </c>
@@ -4962,7 +5088,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="4" t="s">
         <v>213</v>
       </c>
@@ -5085,7 +5211,7 @@
         <v>45673</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
@@ -5096,7 +5222,7 @@
         <v>45673</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
@@ -5129,7 +5255,7 @@
         <v>45674</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>9</v>
@@ -5140,9 +5266,14 @@
         <v>45674</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5150,11 +5281,11 @@
       <c r="A79" s="8">
         <v>45677</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>309</v>
+      <c r="B79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -5162,10 +5293,29 @@
         <v>45677</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5193,11 +5343,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5716,7 +5866,7 @@
         <v>45673</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -5727,7 +5877,10 @@
         <v>45673</v>
       </c>
       <c r="B58" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -5737,8 +5890,8 @@
       <c r="B59" t="s">
         <v>26</v>
       </c>
-      <c r="C59" t="s">
-        <v>122</v>
+      <c r="E59" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -5746,10 +5899,10 @@
         <v>45674</v>
       </c>
       <c r="B60" t="s">
-        <v>293</v>
-      </c>
-      <c r="C60" t="s">
-        <v>122</v>
+        <v>289</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -5757,24 +5910,57 @@
         <v>45674</v>
       </c>
       <c r="B61" t="s">
-        <v>294</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
+        <v>290</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>45678</v>
+      </c>
+      <c r="B62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>45678</v>
+      </c>
+      <c r="B63" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>45678</v>
+      </c>
+      <c r="B64" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5782,11 +5968,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5975,7 +6161,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5986,7 +6172,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5995,7 +6181,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -6006,7 +6192,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -6015,13 +6201,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -6032,7 +6218,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6041,7 +6227,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -6050,7 +6236,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -6058,13 +6244,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+      <c r="A32" s="23">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -6075,7 +6261,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -6084,7 +6270,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -6093,7 +6279,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="23">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6104,7 +6290,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -6113,7 +6299,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -6122,7 +6308,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -6131,7 +6317,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="A39" s="23">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -6142,7 +6328,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -6151,7 +6337,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -6160,7 +6346,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -6235,7 +6421,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -6246,7 +6432,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="4" t="s">
         <v>173</v>
       </c>
@@ -6255,7 +6441,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
@@ -6466,7 +6652,7 @@
         <v>45673</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
@@ -6488,7 +6674,7 @@
         <v>45674</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>9</v>
@@ -6501,8 +6687,8 @@
       <c r="B75" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>122</v>
+      <c r="E75" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -6510,14 +6696,30 @@
         <v>45677</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C76" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6536,10 +6738,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6781,7 +6983,7 @@
         <v>45673</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -6792,7 +6994,7 @@
         <v>45673</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -6814,7 +7016,7 @@
         <v>45674</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -6836,35 +7038,52 @@
         <v>45674</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45677</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" t="s">
-        <v>303</v>
-      </c>
-      <c r="C31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>45678</v>
+      </c>
+      <c r="B33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A85E1B-97B4-4BE5-AA0E-2B40DBD2098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34BB8E5-D9C6-45A6-96ED-98ADAEB005CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
-    <sheet name="prasanna_copy" sheetId="11" r:id="rId2"/>
-    <sheet name="Rahamathunissa" sheetId="3" r:id="rId3"/>
-    <sheet name="Swathi" sheetId="10" r:id="rId4"/>
-    <sheet name="Bujji garu" sheetId="4" r:id="rId5"/>
-    <sheet name="Santhosh" sheetId="5" r:id="rId6"/>
-    <sheet name="Mallika" sheetId="6" r:id="rId7"/>
-    <sheet name="Jayasri" sheetId="7" r:id="rId8"/>
-    <sheet name="Shamshad_garu" sheetId="12" r:id="rId9"/>
+    <sheet name="Rahamathunissa" sheetId="3" r:id="rId2"/>
+    <sheet name="Swathi" sheetId="10" r:id="rId3"/>
+    <sheet name="Bujji garu" sheetId="4" r:id="rId4"/>
+    <sheet name="Santhosh" sheetId="5" r:id="rId5"/>
+    <sheet name="Mallika" sheetId="6" r:id="rId6"/>
+    <sheet name="Jayasri" sheetId="7" r:id="rId7"/>
+    <sheet name="Shamshad_garu" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="326">
   <si>
     <t>Task</t>
   </si>
@@ -440,9 +439,6 @@
     <t>Basic checks,append,group by, aggregation,merges</t>
   </si>
   <si>
-    <t>Sql and aws quicksight explanation to team</t>
-  </si>
-  <si>
     <t>data iq ducumentation</t>
   </si>
   <si>
@@ -968,15 +964,9 @@
     <t>Learned about Boto3</t>
   </si>
   <si>
-    <t>Need to start</t>
-  </si>
-  <si>
     <t>.power bi (up stream , downstream, data flow, power bi admin,microsoft admin, reporting,power bi related microsoft tools )</t>
   </si>
   <si>
-    <t>power bi videos watching</t>
-  </si>
-  <si>
     <t>1.java class on loops for,while,do while</t>
   </si>
   <si>
@@ -989,9 +979,6 @@
     <t>week end</t>
   </si>
   <si>
-    <t>1. dataiku class</t>
-  </si>
-  <si>
     <t>2. java practice and  test on loops topic</t>
   </si>
   <si>
@@ -1023,6 +1010,39 @@
   </si>
   <si>
     <t>client code understanding</t>
+  </si>
+  <si>
+    <t>power bi administration explination to team</t>
+  </si>
+  <si>
+    <t>supply chain management</t>
+  </si>
+  <si>
+    <t>power bi task</t>
+  </si>
+  <si>
+    <t>tableau metedata(difference between contineous and discrete and  naming convention and rename methods)</t>
+  </si>
+  <si>
+    <t>project task</t>
+  </si>
+  <si>
+    <t>dataiku recipes practice</t>
+  </si>
+  <si>
+    <t>data iku (group by, join,python  recipes)</t>
+  </si>
+  <si>
+    <t>python merges</t>
+  </si>
+  <si>
+    <t>1. dataiku practice and explanation to team on filets,group by and joint recipe</t>
+  </si>
+  <si>
+    <t>2.sync and  split recipe  practice in dataiku</t>
+  </si>
+  <si>
+    <t>3. aws config videos</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1101,9 +1121,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1465,7 +1482,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,7 +1516,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1510,7 +1527,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1536,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1545,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1539,7 +1556,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1548,7 +1565,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1557,7 +1574,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1568,7 +1585,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1577,7 +1594,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1586,7 +1603,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1597,7 +1614,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1606,7 +1623,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1615,7 +1632,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1626,7 +1643,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1635,7 +1652,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1644,7 +1661,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1655,7 +1672,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1664,7 +1681,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1673,7 +1690,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1684,7 +1701,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1693,7 +1710,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1704,7 +1721,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1713,7 +1730,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1724,7 +1741,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1733,7 +1750,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1742,7 +1759,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1753,7 +1770,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1762,7 +1779,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1773,7 +1790,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1782,7 +1799,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1796,7 +1813,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1808,50 +1825,50 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" t="s">
         <v>132</v>
       </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" t="s">
+      <c r="C34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" t="s">
         <v>134</v>
       </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>135</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" t="s">
         <v>136</v>
       </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" t="s">
+      <c r="C36" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1862,7 +1879,7 @@
         <v>45645</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
         <v>122</v>
@@ -1870,7 +1887,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
         <v>122</v>
@@ -1878,149 +1895,149 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="21">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>45647</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="15">
-        <v>45647</v>
-      </c>
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>45648</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
-        <v>45648</v>
-      </c>
-      <c r="B44" s="16" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <v>45649</v>
+      </c>
+      <c r="B45" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
-        <v>45649</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" t="s">
         <v>144</v>
       </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" t="s">
-        <v>145</v>
-      </c>
       <c r="F46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="21"/>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>45650</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="21">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>45660</v>
+      </c>
+      <c r="B51" t="s">
         <v>163</v>
       </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
-        <v>45660</v>
-      </c>
-      <c r="B51" t="s">
-        <v>164</v>
-      </c>
       <c r="F51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="21"/>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -2031,7 +2048,7 @@
         <v>45663</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -2042,7 +2059,7 @@
         <v>45664</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -2064,7 +2081,7 @@
         <v>45664</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -2075,7 +2092,7 @@
         <v>45664</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -2086,7 +2103,7 @@
         <v>45665</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -2097,7 +2114,7 @@
         <v>45665</v>
       </c>
       <c r="B60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -2108,7 +2125,7 @@
         <v>45665</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -2119,34 +2136,34 @@
         <v>45665</v>
       </c>
       <c r="B62" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="22">
+        <v>45666</v>
+      </c>
+      <c r="B63" t="s">
         <v>223</v>
       </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
-        <v>45666</v>
-      </c>
-      <c r="B63" t="s">
-        <v>224</v>
-      </c>
       <c r="F63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="22"/>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2155,38 +2172,38 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
+      <c r="A66" s="22">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
+        <v>251</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" t="s">
         <v>252</v>
       </c>
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" t="s">
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" t="s">
         <v>253</v>
       </c>
-      <c r="F67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
-      <c r="B68" t="s">
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" t="s">
         <v>254</v>
-      </c>
-      <c r="F68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" t="s">
-        <v>255</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2197,7 +2214,7 @@
         <v>45671</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2208,7 +2225,7 @@
         <v>45672</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2219,7 +2236,7 @@
         <v>45673</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s">
         <v>122</v>
@@ -2227,12 +2244,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -2246,628 +2257,24 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1119D2-2A02-4855-8488-C99F1423766D}">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>45628</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>45628</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>45628</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>45629</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>45629</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>45629</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>45630</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>45630</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>45630</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>45631</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>45631</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>45631</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>45632</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>45632</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>45632</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>45635</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>45635</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>45635</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>45636</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>45636</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>45637</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>45637</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>45638</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>45638</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>45638</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>45639</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>45639</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>45642</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>45642</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>45643</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>45643</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>45644</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>45644</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2898,7 +2305,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2909,7 +2316,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2918,10 +2325,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2932,24 +2339,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2960,7 +2367,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2969,7 +2376,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2978,7 +2385,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2989,7 +2396,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2998,10 +2405,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -3012,7 +2419,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -3021,13 +2428,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3038,7 +2445,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -3047,7 +2454,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -3056,7 +2463,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3067,7 +2474,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -3076,7 +2483,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -3085,7 +2492,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3096,7 +2503,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -3105,7 +2512,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -3114,7 +2521,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3125,7 +2532,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -3134,7 +2541,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -3143,7 +2550,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -3152,7 +2559,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="21">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3163,7 +2570,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -3172,7 +2579,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -3181,7 +2588,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3192,7 +2599,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -3201,7 +2608,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -3210,13 +2617,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="A39" s="24"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3227,7 +2634,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -3236,7 +2643,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -3245,344 +2652,344 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="A47" s="21">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="5" t="s">
+      <c r="E49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>45647</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
+        <v>45648</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <v>45649</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>45650</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
-        <v>45647</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
-        <v>45648</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
-        <v>45649</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="14">
-        <v>45650</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="E54" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <v>45659</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
+        <v>45660</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
-        <v>45660</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="E56" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="5" t="s">
+      <c r="E57" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
+        <v>45663</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
-        <v>45663</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="E58" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="5" t="s">
+      <c r="E59" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E60" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="21">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="5" t="s">
+      <c r="E62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="E63" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
+      <c r="A64" s="22">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="22"/>
+      <c r="B65" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
-      <c r="B65" s="5" t="s">
+      <c r="E65" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="B66" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="5" t="s">
+      <c r="E67" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
-      <c r="B68" s="5" t="s">
+      <c r="E68" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="22">
+        <v>45666</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
-        <v>45666</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="E69" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+      <c r="B70" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
-      <c r="B70" s="5" t="s">
+      <c r="E70" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
+      <c r="B71" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="22"/>
+      <c r="B72" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
-      <c r="B71" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
-      <c r="B72" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
-      <c r="B73" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="E73" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="23">
+      <c r="A74" s="22">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="22"/>
+      <c r="B75" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="22"/>
+      <c r="B76" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
-      <c r="B75" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
-      <c r="B76" s="5" t="s">
+      <c r="E76" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="5" t="s">
+      <c r="E77" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
-      <c r="B78" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="E78" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="A79" s="21">
         <v>45671</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3593,157 +3000,171 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="21">
+        <v>45672</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="22">
-        <v>45672</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="E82" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="22">
+      <c r="A83" s="21">
         <v>45673</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="21"/>
+      <c r="B84" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="E84" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="A85" s="21">
         <v>45674</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="21"/>
+      <c r="B86" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="21"/>
+      <c r="B87" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="13">
+        <v>45675</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="13">
+        <v>45676</v>
+      </c>
+      <c r="B89" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
-      <c r="B86" s="5" t="s">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="13">
+        <v>45677</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="21">
+        <v>45678</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="21"/>
+      <c r="B92" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
-      <c r="B87" s="5" t="s">
+      <c r="E92" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="21"/>
+      <c r="B93" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="14">
-        <v>45675</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="14">
-        <v>45676</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="14">
-        <v>45677</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="22">
-        <v>45678</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="E93" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="21">
+        <v>45679</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
-      <c r="B92" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C92" s="5" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="21"/>
+      <c r="B95" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
-      <c r="B93" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C93" s="5" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="21"/>
+      <c r="B96" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
+  <mergeCells count="28">
+    <mergeCell ref="A94:A96"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -3755,12 +3176,28 @@
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B374E9-D3C4-48FA-8670-36406B6AB735}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -3795,7 +3232,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3806,7 +3243,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3815,15 +3252,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3832,21 +3269,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3857,7 +3294,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3866,80 +3303,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3960,13 +3397,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3997,7 +3434,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4008,7 +3445,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4017,10 +3454,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4031,24 +3468,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4059,7 +3496,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -4068,10 +3505,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4082,7 +3519,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -4091,10 +3528,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4105,7 +3542,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -4114,7 +3551,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -4123,7 +3560,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4134,7 +3571,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -4143,7 +3580,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4154,7 +3591,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -4163,7 +3600,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4174,7 +3611,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -4183,7 +3620,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -4192,31 +3629,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4227,7 +3664,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4256,7 +3693,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>122</v>
@@ -4282,29 +3719,29 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="20">
+      <c r="A41" s="19">
         <v>45647</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>45648</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="20">
-        <v>45648</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4312,18 +3749,18 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="22"/>
+      <c r="B45" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>9</v>
@@ -4334,7 +3771,7 @@
         <v>45659</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>9</v>
@@ -4356,7 +3793,7 @@
         <v>45660</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>16</v>
@@ -4367,7 +3804,7 @@
         <v>45663</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
@@ -4378,7 +3815,7 @@
         <v>45663</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>9</v>
@@ -4389,7 +3826,7 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
@@ -4400,7 +3837,7 @@
         <v>45665</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>9</v>
@@ -4411,7 +3848,7 @@
         <v>45665</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
@@ -4422,51 +3859,51 @@
         <v>45665</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <v>45666</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
+      <c r="A56" s="13">
         <v>45666</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="14">
+      <c r="A57" s="13">
         <v>45666</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
+      <c r="A58" s="13">
         <v>45666</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>9</v>
@@ -4477,7 +3914,7 @@
         <v>45667</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
@@ -4488,7 +3925,7 @@
         <v>45667</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>9</v>
@@ -4499,7 +3936,7 @@
         <v>45667</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
@@ -4510,7 +3947,7 @@
         <v>45673</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
@@ -4521,7 +3958,7 @@
         <v>45673</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
@@ -4532,7 +3969,7 @@
         <v>45673</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>9</v>
@@ -4543,7 +3980,7 @@
         <v>45674</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>9</v>
@@ -4554,7 +3991,7 @@
         <v>45674</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>9</v>
@@ -4565,10 +4002,10 @@
         <v>45678</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>122</v>
+        <v>136</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -4576,10 +4013,10 @@
         <v>45678</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>122</v>
+        <v>307</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4587,9 +4024,31 @@
         <v>45678</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C69" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>45679</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>45679</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4614,13 +4073,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4651,7 +4110,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4662,7 +4121,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4671,7 +4130,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4682,18 +4141,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4704,7 +4163,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4713,10 +4172,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4727,7 +4186,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4736,10 +4195,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4750,7 +4209,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4759,7 +4218,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4768,7 +4227,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4779,7 +4238,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4788,7 +4247,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4799,10 +4258,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4813,13 +4272,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4830,7 +4289,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4839,10 +4298,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4853,7 +4312,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4862,7 +4321,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4871,7 +4330,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4882,7 +4341,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4914,7 +4373,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
@@ -4940,45 +4399,45 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="20">
+      <c r="A38" s="19">
         <v>45647</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>45648</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="20">
-        <v>45648</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>9</v>
@@ -4989,10 +4448,10 @@
         <v>45659</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -5003,27 +4462,27 @@
         <v>45660</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
-      <c r="B49" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>3</v>
@@ -5034,63 +4493,63 @@
         <v>45664</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="22"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
+      <c r="A55" s="22">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
-      <c r="B56" s="4" t="s">
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="4" t="s">
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
-      <c r="B58" s="4" t="s">
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
@@ -5101,7 +4560,7 @@
         <v>45666</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
@@ -5112,7 +4571,7 @@
         <v>45666</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
@@ -5123,7 +4582,7 @@
         <v>45666</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
@@ -5134,7 +4593,7 @@
         <v>45667</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>9</v>
@@ -5145,7 +4604,7 @@
         <v>45667</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>9</v>
@@ -5156,7 +4615,7 @@
         <v>45667</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>9</v>
@@ -5167,7 +4626,7 @@
         <v>45671</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>9</v>
@@ -5178,7 +4637,7 @@
         <v>45671</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
@@ -5189,7 +4648,7 @@
         <v>45672</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>9</v>
@@ -5200,7 +4659,7 @@
         <v>45672</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
@@ -5211,7 +4670,7 @@
         <v>45673</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
@@ -5222,7 +4681,7 @@
         <v>45673</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
@@ -5233,7 +4692,7 @@
         <v>45673</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>9</v>
@@ -5255,7 +4714,7 @@
         <v>45674</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>9</v>
@@ -5266,7 +4725,7 @@
         <v>45674</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
@@ -5282,7 +4741,7 @@
         <v>45677</v>
       </c>
       <c r="B79" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
@@ -5293,28 +4752,39 @@
         <v>45677</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>45678</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>45678</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C82" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>45679</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5341,13 +4811,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5377,7 +4847,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -5388,7 +4858,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="26"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -5397,10 +4867,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -5411,24 +4881,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -5439,7 +4909,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -5448,7 +4918,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -5457,12 +4927,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -5471,10 +4941,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>45637</v>
       </c>
       <c r="B17" t="s">
@@ -5485,7 +4955,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -5494,7 +4964,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>45638</v>
       </c>
       <c r="B19" t="s">
@@ -5505,7 +4975,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
       <c r="B20" t="s">
         <v>101</v>
       </c>
@@ -5514,15 +4984,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>45639</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -5531,7 +5001,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26"/>
       <c r="B24" t="s">
         <v>102</v>
       </c>
@@ -5540,12 +5010,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <v>45642</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="26"/>
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -5554,7 +5024,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="26"/>
       <c r="B27" t="s">
         <v>104</v>
       </c>
@@ -5563,7 +5033,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="26">
         <v>45643</v>
       </c>
       <c r="B28" t="s">
@@ -5571,7 +5041,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" t="s">
         <v>116</v>
       </c>
@@ -5584,7 +5054,7 @@
         <v>45644</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -5595,7 +5065,7 @@
         <v>45645</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -5606,7 +5076,7 @@
         <v>45646</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -5621,33 +5091,33 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>45647</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>45648</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
-        <v>45648</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>45649</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -5663,7 +5133,7 @@
         <v>45659</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -5671,7 +5141,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -5682,7 +5152,7 @@
         <v>45660</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -5690,7 +5160,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -5701,7 +5171,7 @@
         <v>45663</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -5712,7 +5182,7 @@
         <v>45663</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -5723,7 +5193,7 @@
         <v>45664</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -5734,7 +5204,7 @@
         <v>45664</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -5745,7 +5215,7 @@
         <v>45665</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -5756,18 +5226,18 @@
         <v>45665</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>45665</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -5778,7 +5248,7 @@
         <v>45666</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -5789,7 +5259,7 @@
         <v>45666</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -5800,7 +5270,7 @@
         <v>45667</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -5811,7 +5281,7 @@
         <v>45667</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -5822,7 +5292,7 @@
         <v>45667</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -5833,7 +5303,7 @@
         <v>45667</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -5844,7 +5314,7 @@
         <v>45671</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -5855,7 +5325,7 @@
         <v>45671</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -5866,7 +5336,7 @@
         <v>45673</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -5877,7 +5347,7 @@
         <v>45673</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -5899,7 +5369,7 @@
         <v>45674</v>
       </c>
       <c r="B60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -5910,7 +5380,7 @@
         <v>45674</v>
       </c>
       <c r="B61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -5921,10 +5391,10 @@
         <v>45678</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" t="s">
-        <v>300</v>
+        <v>288</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -5932,10 +5402,10 @@
         <v>45678</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
-      </c>
-      <c r="C63" t="s">
-        <v>300</v>
+        <v>308</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -5943,42 +5413,53 @@
         <v>45678</v>
       </c>
       <c r="B64" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>45679</v>
+      </c>
+      <c r="B65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="71.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="96.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" customWidth="1"/>
@@ -6003,7 +5484,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -6014,7 +5495,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
@@ -6023,10 +5504,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -6037,7 +5518,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
@@ -6046,21 +5527,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -6071,7 +5552,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -6080,10 +5561,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -6094,7 +5575,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
@@ -6103,7 +5584,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
@@ -6112,7 +5593,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -6123,7 +5604,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
@@ -6132,7 +5613,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
@@ -6141,7 +5622,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -6152,7 +5633,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
@@ -6161,7 +5642,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -6172,7 +5653,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -6181,7 +5662,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -6192,7 +5673,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -6201,13 +5682,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -6218,7 +5699,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6227,7 +5708,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -6236,7 +5717,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -6244,13 +5725,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -6261,7 +5742,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -6270,7 +5751,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -6279,7 +5760,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6290,7 +5771,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -6299,7 +5780,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -6308,7 +5789,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -6317,7 +5798,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -6328,7 +5809,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -6337,7 +5818,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -6346,7 +5827,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -6356,33 +5837,33 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="20">
+      <c r="A44" s="19">
         <v>45647</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
+        <v>45648</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="20">
-        <v>45648</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
@@ -6392,7 +5873,7 @@
         <v>45293</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>9</v>
@@ -6403,7 +5884,7 @@
         <v>45660</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
@@ -6414,36 +5895,36 @@
         <v>45660</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="4" t="s">
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
@@ -6454,7 +5935,7 @@
         <v>45664</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>9</v>
@@ -6465,7 +5946,7 @@
         <v>45664</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
@@ -6476,7 +5957,7 @@
         <v>45665</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>9</v>
@@ -6487,7 +5968,7 @@
         <v>45665</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
@@ -6498,7 +5979,7 @@
         <v>45665</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>9</v>
@@ -6509,7 +5990,7 @@
         <v>45665</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
@@ -6520,7 +6001,7 @@
         <v>45665</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>9</v>
@@ -6531,7 +6012,7 @@
         <v>45666</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
@@ -6542,7 +6023,7 @@
         <v>45666</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
@@ -6553,7 +6034,7 @@
         <v>45666</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
@@ -6564,7 +6045,7 @@
         <v>45666</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>9</v>
@@ -6575,7 +6056,7 @@
         <v>45667</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>9</v>
@@ -6586,7 +6067,7 @@
         <v>45667</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>9</v>
@@ -6597,7 +6078,7 @@
         <v>45667</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>9</v>
@@ -6608,7 +6089,7 @@
         <v>45667</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>9</v>
@@ -6619,7 +6100,7 @@
         <v>45671</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
@@ -6630,7 +6111,7 @@
         <v>45671</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>9</v>
@@ -6641,7 +6122,7 @@
         <v>45672</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
@@ -6652,7 +6133,7 @@
         <v>45673</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
@@ -6663,7 +6144,7 @@
         <v>45673</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
@@ -6674,7 +6155,7 @@
         <v>45674</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>9</v>
@@ -6685,7 +6166,7 @@
         <v>45677</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>9</v>
@@ -6696,7 +6177,7 @@
         <v>45677</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>9</v>
@@ -6707,10 +6188,10 @@
         <v>45678</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>122</v>
+        <v>315</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -6718,7 +6199,54 @@
         <v>45678</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>302</v>
+        <v>316</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>45679</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>45679</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>45679</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6736,12 +6264,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6770,7 +6298,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -6778,7 +6306,7 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -6789,7 +6317,7 @@
         <v>45660</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -6800,7 +6328,7 @@
         <v>45663</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -6811,7 +6339,7 @@
         <v>45663</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -6822,7 +6350,7 @@
         <v>45664</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -6833,7 +6361,7 @@
         <v>45664</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -6844,10 +6372,10 @@
         <v>45665</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6855,7 +6383,7 @@
         <v>45665</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -6866,18 +6394,18 @@
         <v>45665</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>45665</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -6888,7 +6416,7 @@
         <v>45666</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -6896,7 +6424,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -6904,7 +6432,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -6912,7 +6440,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -6923,7 +6451,7 @@
         <v>45667</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -6931,7 +6459,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -6942,7 +6470,7 @@
         <v>45671</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -6950,7 +6478,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -6961,7 +6489,7 @@
         <v>45672</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -6972,7 +6500,7 @@
         <v>45673</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -6983,7 +6511,7 @@
         <v>45673</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -6994,7 +6522,7 @@
         <v>45673</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -7005,7 +6533,7 @@
         <v>45673</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -7016,7 +6544,7 @@
         <v>45674</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -7027,7 +6555,7 @@
         <v>45674</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -7038,46 +6566,71 @@
         <v>45674</v>
       </c>
       <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>45677</v>
+      </c>
+      <c r="B30" t="s">
         <v>296</v>
       </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <v>45677</v>
-      </c>
-      <c r="B30" t="s">
-        <v>297</v>
-      </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>45678</v>
       </c>
-      <c r="B33" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>45679</v>
+      </c>
+      <c r="B34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>45679</v>
+      </c>
+      <c r="B35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34BB8E5-D9C6-45A6-96ED-98ADAEB005CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700692B7-4501-4D9B-A91D-4CFD561C8104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="341">
   <si>
     <t>Task</t>
   </si>
@@ -877,9 +877,6 @@
     <t>powerbi  vedio</t>
   </si>
   <si>
-    <t>Pandas practice and project related task in pandas</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 1. aws_quicksight function( ifelse condition, multiple condition) exaplined to jayasri completed
 2. project related task( gauge and stacked bar combo chart) completed</t>
@@ -898,9 +895,6 @@
   </si>
   <si>
     <t>power bi architecture videos</t>
-  </si>
-  <si>
-    <t>AWS quicksight  kt</t>
   </si>
   <si>
     <t xml:space="preserve">projet work </t>
@@ -1033,9 +1027,6 @@
     <t>data iku (group by, join,python  recipes)</t>
   </si>
   <si>
-    <t>python merges</t>
-  </si>
-  <si>
     <t>1. dataiku practice and explanation to team on filets,group by and joint recipe</t>
   </si>
   <si>
@@ -1043,6 +1034,60 @@
   </si>
   <si>
     <t>3. aws config videos</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>data iku filters,sync,prepare</t>
+  </si>
+  <si>
+    <t>python merges(inner,left.right,outer)</t>
+  </si>
+  <si>
+    <t>python( filter, group by,isin ,not isin,rename, drop ,keep) practice</t>
+  </si>
+  <si>
+    <t>power bi graph generation task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_related task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandas-- to display time and date , last modified </t>
+  </si>
+  <si>
+    <t>KT to santhosh</t>
+  </si>
+  <si>
+    <t>aws quicksight project overview</t>
+  </si>
+  <si>
+    <t>aws quicksight</t>
+  </si>
+  <si>
+    <t>project related task</t>
+  </si>
+  <si>
+    <t>repalce values one column to another column</t>
+  </si>
+  <si>
+    <t>kt to shamshad garu</t>
+  </si>
+  <si>
+    <t>aws quicksight over view</t>
+  </si>
+  <si>
+    <t>cilent code under standing</t>
+  </si>
+  <si>
+    <t>aws quicksight (python,sql code)</t>
+  </si>
+  <si>
+    <t>cilent code understanding, then steps prepare</t>
+  </si>
+  <si>
+    <t>problem ki solution</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1147,6 +1192,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1478,11 +1526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,7 +1564,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1527,7 +1575,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +1584,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1593,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1556,7 +1604,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1565,7 +1613,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1574,7 +1622,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1585,7 +1633,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1594,7 +1642,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1603,7 +1651,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1614,7 +1662,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1623,7 +1671,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1632,7 +1680,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1643,7 +1691,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1652,7 +1700,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1661,7 +1709,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1672,7 +1720,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1681,7 +1729,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1690,7 +1738,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1701,7 +1749,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1710,7 +1758,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1721,7 +1769,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1730,7 +1778,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1741,7 +1789,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1750,7 +1798,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1759,7 +1807,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1770,7 +1818,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1779,7 +1827,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1790,7 +1838,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1799,7 +1847,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1813,7 +1861,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1825,7 +1873,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="24">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1839,7 +1887,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>132</v>
       </c>
@@ -1902,7 +1950,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="A40" s="22">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -1913,7 +1961,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
+      <c r="A41" s="22"/>
       <c r="B41" t="s">
         <v>136</v>
       </c>
@@ -1922,7 +1970,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" t="s">
         <v>139</v>
       </c>
@@ -1955,7 +2003,7 @@
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
+      <c r="A45" s="22">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -1966,7 +2014,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+      <c r="A46" s="22"/>
       <c r="B46" t="s">
         <v>144</v>
       </c>
@@ -1975,7 +2023,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
       <c r="B47" t="s">
         <v>139</v>
       </c>
@@ -1995,7 +2043,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
+      <c r="A49" s="22">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -2006,7 +2054,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
+      <c r="A50" s="22"/>
       <c r="B50" t="s">
         <v>136</v>
       </c>
@@ -2015,7 +2063,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="21">
+      <c r="A51" s="22">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -2026,7 +2074,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" t="s">
         <v>139</v>
       </c>
@@ -2035,7 +2083,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" t="s">
         <v>136</v>
       </c>
@@ -2143,7 +2191,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="23">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -2154,7 +2202,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
       <c r="B64" t="s">
         <v>250</v>
       </c>
@@ -2163,7 +2211,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2220,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="23">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2183,7 +2231,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -2192,7 +2240,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="B68" t="s">
         <v>253</v>
       </c>
@@ -2201,7 +2249,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
       <c r="B69" t="s">
         <v>254</v>
       </c>
@@ -2214,42 +2262,186 @@
         <v>45671</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="22">
         <v>45672</v>
       </c>
       <c r="B71" t="s">
-        <v>272</v>
+        <v>328</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
+      <c r="A72" s="22"/>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="22">
         <v>45673</v>
       </c>
-      <c r="B72" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" t="s">
-        <v>122</v>
+      <c r="B73" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="22">
+        <v>45674</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="22"/>
+      <c r="B76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>45675</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>45676</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>45677</v>
+      </c>
+      <c r="B80" t="s">
+        <v>335</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="9"/>
+      <c r="B81" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>45678</v>
+      </c>
+      <c r="B82" t="s">
+        <v>337</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>45679</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="24">
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A17:A19"/>
@@ -2258,11 +2450,22 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2272,9 +2475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2305,7 +2508,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2316,7 +2519,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2325,10 +2528,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2339,24 +2542,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2367,7 +2570,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2376,7 +2579,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2385,7 +2588,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2396,7 +2599,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2405,10 +2608,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2419,7 +2622,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2428,13 +2631,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2445,7 +2648,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2454,7 +2657,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2463,7 +2666,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="A23" s="22">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2474,7 +2677,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2483,7 +2686,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2492,7 +2695,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="A26" s="22">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2503,7 +2706,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2512,7 +2715,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2521,7 +2724,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2532,7 +2735,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2541,7 +2744,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2550,7 +2753,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2559,7 +2762,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+      <c r="A33" s="22">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2570,7 +2773,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2579,7 +2782,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2588,7 +2791,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+      <c r="A36" s="22">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2599,7 +2802,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2608,7 +2811,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2617,13 +2820,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="25"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2634,7 +2837,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -2643,7 +2846,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2652,7 +2855,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2660,13 +2863,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2677,7 +2880,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+      <c r="A47" s="22">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2688,7 +2891,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
         <v>145</v>
       </c>
@@ -2697,7 +2900,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
         <v>146</v>
       </c>
@@ -2728,7 +2931,7 @@
       <c r="E51" s="17"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="21">
+      <c r="A52" s="22">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2739,7 +2942,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="5" t="s">
         <v>146</v>
       </c>
@@ -2770,7 +2973,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="A56" s="22">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -2781,7 +2984,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
         <v>166</v>
       </c>
@@ -2790,7 +2993,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
+      <c r="A58" s="22">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -2801,7 +3004,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="5" t="s">
         <v>168</v>
       </c>
@@ -2810,7 +3013,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
         <v>169</v>
       </c>
@@ -2819,7 +3022,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="21">
+      <c r="A61" s="22">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -2830,7 +3033,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="5" t="s">
         <v>183</v>
       </c>
@@ -2839,7 +3042,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
         <v>184</v>
       </c>
@@ -2848,7 +3051,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="23">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -2859,7 +3062,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="5" t="s">
         <v>187</v>
       </c>
@@ -2868,7 +3071,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="5" t="s">
         <v>202</v>
       </c>
@@ -2877,7 +3080,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="5" t="s">
         <v>188</v>
       </c>
@@ -2886,7 +3089,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="5" t="s">
         <v>203</v>
       </c>
@@ -2895,7 +3098,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="23">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -2906,7 +3109,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="5" t="s">
         <v>205</v>
       </c>
@@ -2915,7 +3118,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="5" t="s">
         <v>202</v>
       </c>
@@ -2924,7 +3127,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="5" t="s">
         <v>188</v>
       </c>
@@ -2933,7 +3136,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="5" t="s">
         <v>206</v>
       </c>
@@ -2942,7 +3145,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="23">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -2953,7 +3156,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="5" t="s">
         <v>205</v>
       </c>
@@ -2962,7 +3165,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="5" t="s">
         <v>229</v>
       </c>
@@ -2971,7 +3174,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="5" t="s">
         <v>230</v>
       </c>
@@ -2980,7 +3183,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="5" t="s">
         <v>231</v>
       </c>
@@ -2989,7 +3192,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="21">
+      <c r="A79" s="22">
         <v>45671</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3000,7 +3203,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="5" t="s">
         <v>266</v>
       </c>
@@ -3009,7 +3212,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="21">
+      <c r="A81" s="22">
         <v>45672</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -3020,7 +3223,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="5" t="s">
         <v>267</v>
       </c>
@@ -3029,49 +3232,49 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="21">
+      <c r="A83" s="22">
         <v>45673</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="21">
+      <c r="A85" s="22">
         <v>45674</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
+      <c r="B87" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="21"/>
-      <c r="B87" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>9</v>
@@ -3093,7 +3296,7 @@
         <v>45676</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3101,40 +3304,40 @@
         <v>45677</v>
       </c>
       <c r="B90" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="22">
+        <v>45678</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
+      <c r="B92" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="B93" s="5" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="21">
-        <v>45678</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="21"/>
-      <c r="B93" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="E93" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="21">
+      <c r="A94" s="22">
         <v>45679</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -3145,18 +3348,18 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="21"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="21"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>122</v>
@@ -3232,7 +3435,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3243,7 +3446,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3252,15 +3455,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3269,21 +3472,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="22">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3294,7 +3497,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3303,80 +3506,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="22">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="A20" s="22">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="A22" s="22">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="A24" s="22">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="A27" s="22">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="A29" s="22">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="A31" s="22">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3399,11 +3602,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3434,7 +3637,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3445,7 +3648,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3454,10 +3657,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3468,24 +3671,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3496,7 +3699,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3505,10 +3708,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3519,7 +3722,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3528,10 +3731,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3542,7 +3745,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3551,7 +3754,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3560,7 +3763,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3571,7 +3774,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3580,7 +3783,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3591,7 +3794,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3600,7 +3803,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3611,7 +3814,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3620,7 +3823,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3629,31 +3832,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="23">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3664,7 +3867,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3741,7 +3944,7 @@
       <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3749,7 +3952,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="4" t="s">
         <v>148</v>
       </c>
@@ -3758,7 +3961,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="4" t="s">
         <v>149</v>
       </c>
@@ -3947,7 +4150,7 @@
         <v>45673</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
@@ -3958,7 +4161,7 @@
         <v>45673</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
@@ -3969,7 +4172,7 @@
         <v>45673</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>9</v>
@@ -3980,7 +4183,7 @@
         <v>45674</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>9</v>
@@ -3991,7 +4194,7 @@
         <v>45674</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>9</v>
@@ -4013,7 +4216,7 @@
         <v>45678</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>9</v>
@@ -4024,7 +4227,7 @@
         <v>45678</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
@@ -4035,10 +4238,10 @@
         <v>45679</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>122</v>
+        <v>318</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -4046,9 +4249,20 @@
         <v>45679</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C71" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>45680</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4078,8 +4292,8 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4110,7 +4324,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4121,7 +4335,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4130,7 +4344,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="23">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4141,18 +4355,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4163,7 +4377,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4172,10 +4386,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4186,7 +4400,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4195,10 +4409,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4209,7 +4423,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4218,7 +4432,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4227,7 +4441,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4238,7 +4452,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4247,7 +4461,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4258,10 +4472,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="23">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4272,13 +4486,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4289,7 +4503,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4298,10 +4512,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4312,7 +4526,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4321,7 +4535,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4330,7 +4544,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4341,7 +4555,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4421,12 +4635,12 @@
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>148</v>
       </c>
@@ -4435,7 +4649,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>149</v>
       </c>
@@ -4469,7 +4683,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="23">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4480,7 +4694,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="4" t="s">
         <v>177</v>
       </c>
@@ -4500,16 +4714,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="23">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4520,7 +4734,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="4" t="s">
         <v>209</v>
       </c>
@@ -4529,7 +4743,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
         <v>210</v>
       </c>
@@ -4538,7 +4752,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
         <v>211</v>
       </c>
@@ -4547,7 +4761,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="4" t="s">
         <v>212</v>
       </c>
@@ -4659,7 +4873,7 @@
         <v>45672</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
@@ -4670,7 +4884,7 @@
         <v>45673</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
@@ -4681,7 +4895,7 @@
         <v>45673</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
@@ -4714,7 +4928,7 @@
         <v>45674</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>9</v>
@@ -4725,7 +4939,7 @@
         <v>45674</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
@@ -4741,7 +4955,7 @@
         <v>45677</v>
       </c>
       <c r="B79" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
@@ -4749,13 +4963,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -4765,13 +4979,16 @@
       <c r="B81" s="4" t="s">
         <v>312</v>
       </c>
+      <c r="E81" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>9</v>
@@ -4779,10 +4996,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>122</v>
@@ -4813,11 +5030,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4847,7 +5064,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="27">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -4858,7 +5075,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -4867,10 +5084,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -4881,24 +5098,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="A8" s="27">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="27">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -4909,7 +5126,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -4918,7 +5135,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -4927,12 +5144,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+      <c r="A14" s="27">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -4941,10 +5158,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="A17" s="27">
         <v>45637</v>
       </c>
       <c r="B17" t="s">
@@ -4955,7 +5172,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -4964,7 +5181,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="27">
         <v>45638</v>
       </c>
       <c r="B19" t="s">
@@ -4975,7 +5192,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" t="s">
         <v>101</v>
       </c>
@@ -4984,15 +5201,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+      <c r="A22" s="27">
         <v>45639</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -5001,7 +5218,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+      <c r="A24" s="27"/>
       <c r="B24" t="s">
         <v>102</v>
       </c>
@@ -5010,12 +5227,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+      <c r="A25" s="27">
         <v>45642</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
+      <c r="A26" s="27"/>
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -5024,7 +5241,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="27"/>
       <c r="B27" t="s">
         <v>104</v>
       </c>
@@ -5033,7 +5250,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="26">
+      <c r="A28" s="27">
         <v>45643</v>
       </c>
       <c r="B28" t="s">
@@ -5041,7 +5258,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="27"/>
       <c r="B29" t="s">
         <v>116</v>
       </c>
@@ -5336,7 +5553,7 @@
         <v>45673</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -5347,7 +5564,7 @@
         <v>45673</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -5369,7 +5586,7 @@
         <v>45674</v>
       </c>
       <c r="B60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -5380,7 +5597,7 @@
         <v>45674</v>
       </c>
       <c r="B61" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -5391,7 +5608,7 @@
         <v>45678</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -5402,7 +5619,7 @@
         <v>45678</v>
       </c>
       <c r="B63" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -5413,20 +5630,31 @@
         <v>45678</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>45679</v>
       </c>
       <c r="B65" t="s">
-        <v>321</v>
-      </c>
-      <c r="C65" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>45680</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5449,10 +5677,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -5642,7 +5870,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5653,7 +5881,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5662,7 +5890,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5673,7 +5901,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5682,13 +5910,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5699,7 +5927,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5708,7 +5936,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5717,7 +5945,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -5725,13 +5953,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+      <c r="A32" s="23">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5742,7 +5970,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5751,7 +5979,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -5760,7 +5988,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="23">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5771,7 +5999,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -5780,7 +6008,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -5789,7 +6017,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -5798,7 +6026,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="A39" s="23">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -5809,7 +6037,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -5818,7 +6046,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -5827,7 +6055,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -5902,7 +6130,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5913,7 +6141,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
@@ -5922,7 +6150,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
         <v>173</v>
       </c>
@@ -6133,7 +6361,7 @@
         <v>45673</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>9</v>
@@ -6144,7 +6372,7 @@
         <v>45673</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
@@ -6155,7 +6383,7 @@
         <v>45674</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>9</v>
@@ -6177,7 +6405,7 @@
         <v>45677</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>9</v>
@@ -6188,7 +6416,7 @@
         <v>45678</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
@@ -6199,7 +6427,7 @@
         <v>45678</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>9</v>
@@ -6210,7 +6438,7 @@
         <v>45678</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
@@ -6221,7 +6449,7 @@
         <v>45679</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>9</v>
@@ -6229,23 +6457,12 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
-        <v>45679</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C82" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6266,10 +6483,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6500,7 +6717,7 @@
         <v>45673</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -6511,7 +6728,7 @@
         <v>45673</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -6522,7 +6739,7 @@
         <v>45673</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -6544,7 +6761,7 @@
         <v>45674</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -6555,7 +6772,7 @@
         <v>45674</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -6566,36 +6783,36 @@
         <v>45674</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>45677</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -6606,7 +6823,7 @@
         <v>45678</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -6617,10 +6834,10 @@
         <v>45679</v>
       </c>
       <c r="B34" t="s">
-        <v>311</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
+        <v>309</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -6628,9 +6845,31 @@
         <v>45679</v>
       </c>
       <c r="B35" t="s">
-        <v>322</v>
-      </c>
-      <c r="C35" t="s">
+        <v>325</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>45680</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>45680</v>
+      </c>
+      <c r="B37" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700692B7-4501-4D9B-A91D-4CFD561C8104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF0BDB-88C4-45A7-BF1F-61DF6547D2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="342">
   <si>
     <t>Task</t>
   </si>
@@ -1088,6 +1088,12 @@
   </si>
   <si>
     <t>problem ki solution</t>
+  </si>
+  <si>
+    <t>1. Project work
+2. Python recipe in dataiku
+3.  Structure of jinja2 files
+4.  App config in aws</t>
   </si>
 </sst>
 </file>
@@ -1193,20 +1199,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
@@ -1861,7 +1867,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1873,7 +1879,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="21">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1887,7 +1893,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="21"/>
       <c r="B34" t="s">
         <v>132</v>
       </c>
@@ -2191,7 +2197,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
+      <c r="A63" s="25">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -2202,7 +2208,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="25"/>
       <c r="B64" t="s">
         <v>250</v>
       </c>
@@ -2211,7 +2217,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="25"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +2226,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
+      <c r="A66" s="25">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2231,7 +2237,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -2240,7 +2246,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
       <c r="B68" t="s">
         <v>253</v>
       </c>
@@ -2249,7 +2255,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="25"/>
       <c r="B69" t="s">
         <v>254</v>
       </c>
@@ -2362,12 +2368,12 @@
       <c r="A78" s="9">
         <v>45675</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
       <c r="F78" t="s">
         <v>9</v>
       </c>
@@ -2376,12 +2382,12 @@
       <c r="A79" s="9">
         <v>45676</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
       <c r="F79" t="s">
         <v>9</v>
       </c>
@@ -2442,19 +2448,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="A71:A72"/>
@@ -2466,6 +2459,19 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2473,11 +2479,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2724,7 +2730,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="25">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2735,7 +2741,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2744,7 +2750,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2753,7 +2759,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2802,7 +2808,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2811,7 +2817,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2820,13 +2826,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="A39" s="23"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="25">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2837,7 +2843,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -2846,7 +2852,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2855,7 +2861,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="25">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2863,13 +2869,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -3051,7 +3057,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
+      <c r="A64" s="25">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3062,7 +3068,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="5" t="s">
         <v>187</v>
       </c>
@@ -3071,7 +3077,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="5" t="s">
         <v>202</v>
       </c>
@@ -3080,7 +3086,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="5" t="s">
         <v>188</v>
       </c>
@@ -3089,7 +3095,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="5" t="s">
         <v>203</v>
       </c>
@@ -3098,7 +3104,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
+      <c r="A69" s="25">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3109,7 +3115,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="5" t="s">
         <v>205</v>
       </c>
@@ -3118,7 +3124,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="5" t="s">
         <v>202</v>
       </c>
@@ -3127,7 +3133,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="5" t="s">
         <v>188</v>
       </c>
@@ -3136,7 +3142,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="5" t="s">
         <v>206</v>
       </c>
@@ -3145,7 +3151,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="23">
+      <c r="A74" s="25">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3156,7 +3162,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="5" t="s">
         <v>205</v>
       </c>
@@ -3165,7 +3171,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="5" t="s">
         <v>229</v>
       </c>
@@ -3174,7 +3180,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="5" t="s">
         <v>230</v>
       </c>
@@ -3183,7 +3189,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="5" t="s">
         <v>231</v>
       </c>
@@ -3343,30 +3349,44 @@
       <c r="B94" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="22"/>
       <c r="B95" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="22"/>
       <c r="B96" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C96" s="5" t="s">
+    </row>
+    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="13">
+        <v>45680</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="A2:A4"/>
@@ -3383,18 +3403,6 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3579,7 +3587,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3637,7 +3645,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="25">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3648,7 +3656,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3657,10 +3665,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="25">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3671,24 +3679,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="25">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="25">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3699,7 +3707,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3708,10 +3716,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="25">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3722,7 +3730,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3731,10 +3739,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="25">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3745,7 +3753,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3754,7 +3762,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3763,7 +3771,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="25">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3774,7 +3782,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3783,7 +3791,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="25">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3794,7 +3802,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3803,7 +3811,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="25">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3814,7 +3822,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3823,7 +3831,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3832,23 +3840,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="25">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="25">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="25">
         <v>45643</v>
       </c>
     </row>
@@ -3856,7 +3864,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+      <c r="A34" s="25">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3867,7 +3875,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3944,7 +3952,7 @@
       <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="25">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3952,7 +3960,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="4" t="s">
         <v>148</v>
       </c>
@@ -3961,7 +3969,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
         <v>149</v>
       </c>
@@ -4324,7 +4332,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="25">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4335,7 +4343,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4344,7 +4352,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="25">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4355,18 +4363,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="25">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="25">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4377,7 +4385,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4386,10 +4394,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="25">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4400,7 +4408,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4409,10 +4417,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="25">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4423,7 +4431,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4432,7 +4440,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4441,7 +4449,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="25">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4452,7 +4460,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4461,7 +4469,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="25">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4472,10 +4480,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="25">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4486,13 +4494,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="25">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4503,7 +4511,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4512,10 +4520,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="25">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4526,7 +4534,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4535,7 +4543,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4544,7 +4552,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="25">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4555,7 +4563,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4635,12 +4643,12 @@
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="25">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
         <v>148</v>
       </c>
@@ -4649,7 +4657,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
         <v>149</v>
       </c>
@@ -4683,7 +4691,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+      <c r="A48" s="25">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4694,7 +4702,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="4" t="s">
         <v>177</v>
       </c>
@@ -4714,16 +4722,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="25"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
+      <c r="A55" s="25">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4734,7 +4742,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="4" t="s">
         <v>209</v>
       </c>
@@ -4743,7 +4751,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="4" t="s">
         <v>210</v>
       </c>
@@ -4752,7 +4760,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="4" t="s">
         <v>211</v>
       </c>
@@ -4761,7 +4769,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="4" t="s">
         <v>212</v>
       </c>
@@ -5660,16 +5668,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5870,7 +5878,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="25">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5881,7 +5889,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5890,7 +5898,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="25">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5901,7 +5909,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5910,13 +5918,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="25">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5927,7 +5935,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5936,7 +5944,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5945,7 +5953,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="25">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -5953,13 +5961,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+      <c r="A32" s="25">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5970,7 +5978,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5979,7 +5987,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -5988,7 +5996,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="25">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5999,7 +6007,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -6008,7 +6016,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -6017,7 +6025,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -6026,7 +6034,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="25">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -6037,7 +6045,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -6046,7 +6054,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -6055,7 +6063,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -6130,7 +6138,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="25">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -6141,7 +6149,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
@@ -6150,7 +6158,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="4" t="s">
         <v>173</v>
       </c>
@@ -6790,7 +6798,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="25">
         <v>45677</v>
       </c>
       <c r="B30" t="s">
@@ -6801,7 +6809,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" t="s">
         <v>308</v>
       </c>
@@ -6810,7 +6818,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" t="s">
         <v>307</v>
       </c>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF0BDB-88C4-45A7-BF1F-61DF6547D2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E392865-1144-498F-9BD5-6CE1CB291DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="344">
   <si>
     <t>Task</t>
   </si>
@@ -997,12 +997,6 @@
     <t>python( filter, group by,isin ,not isin,rename, drop ,keep)</t>
   </si>
   <si>
-    <t>aws glue job</t>
-  </si>
-  <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>client code understanding</t>
   </si>
   <si>
@@ -1094,6 +1088,18 @@
 2. Python recipe in dataiku
 3.  Structure of jinja2 files
 4.  App config in aws</t>
+  </si>
+  <si>
+    <t>2.  jinja template code understanding</t>
+  </si>
+  <si>
+    <t>3. project flow understanding</t>
+  </si>
+  <si>
+    <t>Project code analysis</t>
+  </si>
+  <si>
+    <t>split recipe</t>
   </si>
 </sst>
 </file>
@@ -1199,20 +1205,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1535,8 +1541,8 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,7 +1873,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1879,7 +1885,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+      <c r="A33" s="24">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1893,7 +1899,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>132</v>
       </c>
@@ -2197,7 +2203,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
+      <c r="A63" s="23">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -2208,7 +2214,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="23"/>
       <c r="B64" t="s">
         <v>250</v>
       </c>
@@ -2217,7 +2223,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="23"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2226,7 +2232,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="25">
+      <c r="A66" s="23">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2237,7 +2243,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
+      <c r="A67" s="23"/>
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -2246,7 +2252,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
+      <c r="A68" s="23"/>
       <c r="B68" t="s">
         <v>253</v>
       </c>
@@ -2255,7 +2261,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
+      <c r="A69" s="23"/>
       <c r="B69" t="s">
         <v>254</v>
       </c>
@@ -2279,10 +2285,10 @@
         <v>45672</v>
       </c>
       <c r="B71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2294,7 +2300,7 @@
         <v>79</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2305,10 +2311,10 @@
         <v>45673</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2320,7 +2326,7 @@
         <v>136</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2334,7 +2340,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2343,10 +2349,10 @@
     <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2358,7 +2364,7 @@
         <v>136</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2368,12 +2374,12 @@
       <c r="A78" s="9">
         <v>45675</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
       <c r="F78" t="s">
         <v>9</v>
       </c>
@@ -2382,12 +2388,12 @@
       <c r="A79" s="9">
         <v>45676</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
       <c r="F79" t="s">
         <v>9</v>
       </c>
@@ -2397,10 +2403,10 @@
         <v>45677</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2409,10 +2415,10 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2423,10 +2429,10 @@
         <v>45678</v>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2437,10 +2443,10 @@
         <v>45679</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2448,6 +2454,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="A71:A72"/>
@@ -2459,19 +2478,6 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2479,11 +2485,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2730,7 +2736,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2741,7 +2747,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2750,7 +2756,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2759,7 +2765,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2808,7 +2814,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2817,7 +2823,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2826,13 +2832,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="23">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2843,7 +2849,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -2852,7 +2858,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2861,7 +2867,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="23">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2869,13 +2875,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -3057,7 +3063,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
+      <c r="A64" s="23">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3068,7 +3074,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="5" t="s">
         <v>187</v>
       </c>
@@ -3077,7 +3083,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="5" t="s">
         <v>202</v>
       </c>
@@ -3086,7 +3092,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="5" t="s">
         <v>188</v>
       </c>
@@ -3095,7 +3101,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="5" t="s">
         <v>203</v>
       </c>
@@ -3104,7 +3110,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
+      <c r="A69" s="23">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3115,7 +3121,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="5" t="s">
         <v>205</v>
       </c>
@@ -3124,7 +3130,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="5" t="s">
         <v>202</v>
       </c>
@@ -3133,7 +3139,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="5" t="s">
         <v>188</v>
       </c>
@@ -3142,7 +3148,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="5" t="s">
         <v>206</v>
       </c>
@@ -3151,7 +3157,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
+      <c r="A74" s="23">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3162,7 +3168,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="5" t="s">
         <v>205</v>
       </c>
@@ -3171,7 +3177,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="5" t="s">
         <v>229</v>
       </c>
@@ -3180,7 +3186,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="5" t="s">
         <v>230</v>
       </c>
@@ -3189,7 +3195,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="5" t="s">
         <v>231</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>45678</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>9</v>
@@ -3353,40 +3359,61 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="22"/>
       <c r="B95" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="22"/>
       <c r="B96" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>45680</v>
       </c>
       <c r="B97" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="22">
+        <v>45681</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="22"/>
+      <c r="B99" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="22"/>
+      <c r="B100" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+  <mergeCells count="29">
+    <mergeCell ref="A98:A100"/>
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="A2:A4"/>
@@ -3403,6 +3430,18 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3587,7 +3626,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3610,11 +3649,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3645,7 +3684,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3656,7 +3695,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3665,10 +3704,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3679,24 +3718,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3707,7 +3746,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3716,10 +3755,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3730,7 +3769,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3739,10 +3778,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3753,7 +3792,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3762,7 +3801,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3771,7 +3810,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3782,7 +3821,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3791,7 +3830,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3802,7 +3841,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3811,7 +3850,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3822,7 +3861,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3831,7 +3870,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3840,23 +3879,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
@@ -3864,7 +3903,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="23">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3875,7 +3914,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3952,7 +3991,7 @@
       <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="23">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3960,7 +3999,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="4" t="s">
         <v>148</v>
       </c>
@@ -3969,7 +4008,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="4" t="s">
         <v>149</v>
       </c>
@@ -4246,7 +4285,7 @@
         <v>45679</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>9</v>
@@ -4257,7 +4296,7 @@
         <v>45679</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
@@ -4268,10 +4307,26 @@
         <v>45680</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C72" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>45681</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4299,9 +4354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4332,7 +4387,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4343,7 +4398,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4352,7 +4407,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4363,18 +4418,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4385,7 +4440,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4394,10 +4449,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4408,7 +4463,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4417,10 +4472,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4431,7 +4486,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4440,7 +4495,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4449,7 +4504,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4460,7 +4515,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4469,7 +4524,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4480,10 +4535,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4494,13 +4549,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4511,7 +4566,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4520,10 +4575,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4534,7 +4589,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4543,7 +4598,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4552,7 +4607,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4563,7 +4618,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4643,12 +4698,12 @@
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="23">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>148</v>
       </c>
@@ -4657,7 +4712,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>149</v>
       </c>
@@ -4691,7 +4746,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="25">
+      <c r="A48" s="23">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4702,7 +4757,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="4" t="s">
         <v>177</v>
       </c>
@@ -4722,16 +4777,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
+      <c r="A55" s="23">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4742,7 +4797,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="4" t="s">
         <v>209</v>
       </c>
@@ -4751,7 +4806,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
         <v>210</v>
       </c>
@@ -4760,7 +4815,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
         <v>211</v>
       </c>
@@ -4769,7 +4824,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="4" t="s">
         <v>212</v>
       </c>
@@ -4976,16 +5031,16 @@
       <c r="B80" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>311</v>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>9</v>
@@ -4993,10 +5048,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>9</v>
@@ -5004,10 +5059,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>122</v>
@@ -5038,11 +5093,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5649,7 +5704,7 @@
         <v>45679</v>
       </c>
       <c r="B65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -5660,24 +5715,37 @@
         <v>45680</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C66" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>45681</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5878,7 +5946,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5889,7 +5957,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -5898,7 +5966,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -5909,7 +5977,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -5918,13 +5986,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="23"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5935,7 +6003,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -5944,7 +6012,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -5953,7 +6021,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -5961,13 +6029,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="23"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="23">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5978,7 +6046,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5987,7 +6055,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -5996,7 +6064,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="23">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6007,7 +6075,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -6016,7 +6084,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -6025,7 +6093,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -6034,7 +6102,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="A39" s="23">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -6045,7 +6113,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -6054,7 +6122,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -6063,7 +6131,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -6138,7 +6206,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="23">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -6149,7 +6217,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
@@ -6158,7 +6226,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
         <v>173</v>
       </c>
@@ -6424,7 +6492,7 @@
         <v>45678</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
@@ -6435,7 +6503,7 @@
         <v>45678</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>9</v>
@@ -6446,7 +6514,7 @@
         <v>45678</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
@@ -6457,7 +6525,7 @@
         <v>45679</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>9</v>
@@ -6468,7 +6536,7 @@
         <v>45680</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>122</v>
@@ -6491,10 +6559,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6798,7 +6866,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>45677</v>
       </c>
       <c r="B30" t="s">
@@ -6809,7 +6877,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="23"/>
       <c r="B31" t="s">
         <v>308</v>
       </c>
@@ -6818,7 +6886,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23"/>
       <c r="B32" t="s">
         <v>307</v>
       </c>
@@ -6831,7 +6899,7 @@
         <v>45678</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -6853,7 +6921,7 @@
         <v>45679</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -6864,10 +6932,10 @@
         <v>45680</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C36" t="s">
-        <v>122</v>
+        <v>315</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -6875,9 +6943,20 @@
         <v>45680</v>
       </c>
       <c r="B37" t="s">
-        <v>326</v>
-      </c>
-      <c r="C37" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>45681</v>
+      </c>
+      <c r="B38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E392865-1144-498F-9BD5-6CE1CB291DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69186DDF-F4B6-4701-BBC5-AEE80C15C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="357">
   <si>
     <t>Task</t>
   </si>
@@ -1100,6 +1100,45 @@
   </si>
   <si>
     <t>split recipe</t>
+  </si>
+  <si>
+    <t>2. app config</t>
+  </si>
+  <si>
+    <t>3. event bridge-&gt;aqs-&gt;app config-&gt;dataiku flow understanding</t>
+  </si>
+  <si>
+    <t>3. event bridge-&gt;aqs-&gt;app config-&gt;dataiku flow creation</t>
+  </si>
+  <si>
+    <t>parameters configurations</t>
+  </si>
+  <si>
+    <t>improgress</t>
+  </si>
+  <si>
+    <t>26-01=2025</t>
+  </si>
+  <si>
+    <t>recepipes practice</t>
+  </si>
+  <si>
+    <t>parameters configurations(data iku videos watching)</t>
+  </si>
+  <si>
+    <t>tableau and power bi task and videos</t>
+  </si>
+  <si>
+    <t>Project Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jenkins </t>
+  </si>
+  <si>
+    <t>Python_merges Practice  &amp; Project Tasks Practice</t>
+  </si>
+  <si>
+    <t>Project code analysis &amp;</t>
   </si>
 </sst>
 </file>
@@ -2485,11 +2524,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3355,18 +3394,27 @@
       <c r="B94" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="E94" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="22"/>
       <c r="B95" s="5" t="s">
         <v>319</v>
       </c>
+      <c r="E95" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="22"/>
       <c r="B96" s="5" t="s">
         <v>320</v>
       </c>
+      <c r="E96" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
@@ -3386,8 +3434,8 @@
       <c r="B98" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>122</v>
+      <c r="E98" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3395,8 +3443,8 @@
       <c r="B99" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>122</v>
+      <c r="E99" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3404,44 +3452,101 @@
       <c r="B100" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="E100" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="22">
+        <v>45682</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="22"/>
+      <c r="B102" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="22"/>
+      <c r="B103" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="22">
+        <v>45683</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="22"/>
+      <c r="B105" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="22"/>
+      <c r="B106" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A74:A78"/>
+  <mergeCells count="31">
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A74:A78"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
     <mergeCell ref="A91:A93"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A94:A96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3649,11 +3754,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4320,13 +4425,41 @@
       <c r="B73" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>122</v>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>45681</v>
+      </c>
       <c r="B74" s="4" t="s">
         <v>343</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>45682</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4352,11 +4485,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5064,8 +5197,30 @@
       <c r="B83" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>122</v>
+      <c r="E83" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>45684</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>45684</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5093,11 +5248,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5730,9 +5885,50 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+      <c r="A68" s="8">
+        <v>45681</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>343</v>
       </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>45682</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>45683</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5753,11 +5949,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6531,14 +6727,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>45680</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="E81" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>45684</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6559,10 +6766,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6932,7 +7139,7 @@
         <v>45680</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -6956,7 +7163,15 @@
       <c r="B38" t="s">
         <v>342</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>45684</v>
+      </c>
+      <c r="B39" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69186DDF-F4B6-4701-BBC5-AEE80C15C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26081FBD-1D23-4A71-8F31-68984A1B0DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
-    <sheet name="Rahamathunissa" sheetId="3" r:id="rId2"/>
+    <sheet name="Rahamatunnisa" sheetId="3" r:id="rId2"/>
     <sheet name="Swathi" sheetId="10" r:id="rId3"/>
     <sheet name="Bujji garu" sheetId="4" r:id="rId4"/>
     <sheet name="Santhosh" sheetId="5" r:id="rId5"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="366">
   <si>
     <t>Task</t>
   </si>
@@ -1111,15 +1111,6 @@
     <t>3. event bridge-&gt;aqs-&gt;app config-&gt;dataiku flow creation</t>
   </si>
   <si>
-    <t>parameters configurations</t>
-  </si>
-  <si>
-    <t>improgress</t>
-  </si>
-  <si>
-    <t>26-01=2025</t>
-  </si>
-  <si>
     <t>recepipes practice</t>
   </si>
   <si>
@@ -1132,13 +1123,49 @@
     <t>Project Task</t>
   </si>
   <si>
-    <t xml:space="preserve">jenkins </t>
-  </si>
-  <si>
     <t>Python_merges Practice  &amp; Project Tasks Practice</t>
   </si>
   <si>
-    <t>Project code analysis &amp;</t>
+    <t>stack recipe, top n recipe</t>
+  </si>
+  <si>
+    <t>recipes practice</t>
+  </si>
+  <si>
+    <t>sort recipe, window recipe</t>
+  </si>
+  <si>
+    <t>prepare recipe</t>
+  </si>
+  <si>
+    <t>jenkins vedio (basics) and tms code understanding</t>
+  </si>
+  <si>
+    <t>sql practice(table creation,insert values,add column, rename column name, and ,or filters, update)</t>
+  </si>
+  <si>
+    <t>tableau filters</t>
+  </si>
+  <si>
+    <t>Project code tms understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> python practice( append, filetrs)</t>
+  </si>
+  <si>
+    <t>python append, filters practice</t>
+  </si>
+  <si>
+    <t>2. dataiku flow understanding</t>
+  </si>
+  <si>
+    <t>3. terraform code verification</t>
+  </si>
+  <si>
+    <t>2.  python recipe code for jinja templates</t>
+  </si>
+  <si>
+    <t>3. event bridge-&gt;sqs-&gt;app config-&gt;dataiku  flow understanding</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1244,25 +1271,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,7 +1942,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1924,7 +1954,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="21">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1938,7 +1968,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="21"/>
       <c r="B34" t="s">
         <v>132</v>
       </c>
@@ -2242,7 +2272,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
+      <c r="A63" s="25">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -2253,7 +2283,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="25"/>
       <c r="B64" t="s">
         <v>250</v>
       </c>
@@ -2262,7 +2292,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="25"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2301,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
+      <c r="A66" s="25">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2282,7 +2312,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -2291,7 +2321,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
       <c r="B68" t="s">
         <v>253</v>
       </c>
@@ -2300,7 +2330,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="25"/>
       <c r="B69" t="s">
         <v>254</v>
       </c>
@@ -2413,12 +2443,12 @@
       <c r="A78" s="9">
         <v>45675</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
       <c r="F78" t="s">
         <v>9</v>
       </c>
@@ -2427,12 +2457,12 @@
       <c r="A79" s="9">
         <v>45676</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
       <c r="F79" t="s">
         <v>9</v>
       </c>
@@ -2493,19 +2523,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="A71:A72"/>
@@ -2517,6 +2534,19 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2524,11 +2554,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,7 +2805,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="25">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2786,7 +2816,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2795,7 +2825,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2804,7 +2834,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2853,7 +2883,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2862,7 +2892,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2871,13 +2901,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="A39" s="23"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="25">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2888,7 +2918,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -2897,7 +2927,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2906,7 +2936,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="25">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2914,13 +2944,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -3102,7 +3132,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
+      <c r="A64" s="25">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3113,7 +3143,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="5" t="s">
         <v>187</v>
       </c>
@@ -3122,7 +3152,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="5" t="s">
         <v>202</v>
       </c>
@@ -3131,7 +3161,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="5" t="s">
         <v>188</v>
       </c>
@@ -3140,7 +3170,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="5" t="s">
         <v>203</v>
       </c>
@@ -3149,7 +3179,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
+      <c r="A69" s="25">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3160,7 +3190,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="5" t="s">
         <v>205</v>
       </c>
@@ -3169,7 +3199,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="5" t="s">
         <v>202</v>
       </c>
@@ -3178,7 +3208,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="5" t="s">
         <v>188</v>
       </c>
@@ -3187,7 +3217,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="5" t="s">
         <v>206</v>
       </c>
@@ -3196,7 +3226,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="23">
+      <c r="A74" s="25">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3207,7 +3237,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="5" t="s">
         <v>205</v>
       </c>
@@ -3216,7 +3246,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="5" t="s">
         <v>229</v>
       </c>
@@ -3225,7 +3255,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="5" t="s">
         <v>230</v>
       </c>
@@ -3234,7 +3264,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="5" t="s">
         <v>231</v>
       </c>
@@ -3492,8 +3522,8 @@
       <c r="B104" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>122</v>
+      <c r="E104" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3501,8 +3531,8 @@
       <c r="B105" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>122</v>
+      <c r="E105" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3510,12 +3540,84 @@
       <c r="B106" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="E106" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="22">
+        <v>45684</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="22"/>
+      <c r="B108" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="22"/>
+      <c r="B109" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="22">
+        <v>45685</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="22"/>
+      <c r="B111" s="28" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="22"/>
+      <c r="B112" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A40:A42"/>
@@ -3526,27 +3628,6 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A94:A96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3731,7 +3812,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3754,11 +3835,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74:E77"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3789,7 +3870,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="25">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3800,7 +3881,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3809,10 +3890,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="25">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3823,24 +3904,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="25">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="25">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3851,7 +3932,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3860,10 +3941,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="25">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3874,7 +3955,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3883,10 +3964,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="25">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3897,7 +3978,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3906,7 +3987,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3915,7 +3996,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="25">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3926,7 +4007,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -3935,7 +4016,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="25">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3946,7 +4027,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -3955,7 +4036,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="25">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3966,7 +4047,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3975,7 +4056,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -3984,23 +4065,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="25">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="25">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="25">
         <v>45643</v>
       </c>
     </row>
@@ -4008,7 +4089,7 @@
       <c r="A32" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+      <c r="A34" s="25">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4019,7 +4100,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4096,7 +4177,7 @@
       <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="25">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4104,7 +4185,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="4" t="s">
         <v>148</v>
       </c>
@@ -4113,7 +4194,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
         <v>149</v>
       </c>
@@ -4445,20 +4526,50 @@
         <v>45682</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>45683</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="E76" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>45684</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>45685</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4485,17 +4596,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="84.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
@@ -4520,7 +4631,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="25">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4531,7 +4642,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4540,7 +4651,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="25">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4551,18 +4662,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="25">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="25">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4573,7 +4684,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4582,10 +4693,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="25">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4596,7 +4707,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4605,10 +4716,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="25">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4619,7 +4730,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4628,7 +4739,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4637,7 +4748,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="25">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4648,7 +4759,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4657,7 +4768,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="25">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4668,10 +4779,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="25">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4682,13 +4793,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="25">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4699,7 +4810,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4708,10 +4819,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="25">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4722,7 +4833,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4731,7 +4842,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4740,7 +4851,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="25">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4751,7 +4862,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4831,12 +4942,12 @@
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="25">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
         <v>148</v>
       </c>
@@ -4845,7 +4956,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
         <v>149</v>
       </c>
@@ -4879,7 +4990,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+      <c r="A48" s="25">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4890,7 +5001,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="4" t="s">
         <v>177</v>
       </c>
@@ -4910,16 +5021,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="25"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
+      <c r="A55" s="25">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4930,7 +5041,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="4" t="s">
         <v>209</v>
       </c>
@@ -4939,7 +5050,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="4" t="s">
         <v>210</v>
       </c>
@@ -4948,7 +5059,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="4" t="s">
         <v>211</v>
       </c>
@@ -4957,7 +5068,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="4" t="s">
         <v>212</v>
       </c>
@@ -5206,10 +5317,10 @@
         <v>45684</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>1</v>
+        <v>350</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -5217,9 +5328,20 @@
         <v>45684</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C85" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>45685</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5248,11 +5370,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5902,12 +6024,10 @@
         <v>45682</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -5915,33 +6035,61 @@
         <v>45683</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="4"/>
+      <c r="A71" s="8">
+        <v>45684</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>45685</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5949,11 +6097,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6142,7 +6290,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="25">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -6153,7 +6301,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -6162,7 +6310,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="25">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -6173,7 +6321,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -6182,13 +6330,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="25">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -6199,7 +6347,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6208,7 +6356,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -6217,7 +6365,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="25">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -6225,13 +6373,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+      <c r="A32" s="25">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -6242,7 +6390,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -6251,7 +6399,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -6260,7 +6408,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="25">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6271,7 +6419,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -6280,7 +6428,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -6289,7 +6437,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -6298,7 +6446,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="25">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -6309,7 +6457,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -6318,7 +6466,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -6327,7 +6475,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -6402,7 +6550,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="25">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -6413,7 +6561,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
@@ -6422,7 +6570,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="4" t="s">
         <v>173</v>
       </c>
@@ -6743,10 +6891,26 @@
         <v>45684</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>122</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>45685</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6766,16 +6930,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" customWidth="1"/>
+    <col min="2" max="2" width="80.77734375" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.109375" customWidth="1"/>
@@ -7073,7 +7237,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="25">
         <v>45677</v>
       </c>
       <c r="B30" t="s">
@@ -7084,7 +7248,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" t="s">
         <v>308</v>
       </c>
@@ -7093,7 +7257,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" t="s">
         <v>307</v>
       </c>
@@ -7139,7 +7303,7 @@
         <v>45680</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -7163,15 +7327,51 @@
       <c r="B38" t="s">
         <v>342</v>
       </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>45684</v>
       </c>
       <c r="B39" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>45684</v>
+      </c>
+      <c r="B40" t="s">
+        <v>360</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>45685</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>45685</v>
+      </c>
+      <c r="B42" t="s">
+        <v>361</v>
+      </c>
+      <c r="C42" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26081FBD-1D23-4A71-8F31-68984A1B0DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4087F4C1-3249-4142-8655-56B65B612B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="375">
   <si>
     <t>Task</t>
   </si>
@@ -1156,16 +1156,43 @@
     <t>python append, filters practice</t>
   </si>
   <si>
-    <t>2. dataiku flow understanding</t>
-  </si>
-  <si>
-    <t>3. terraform code verification</t>
-  </si>
-  <si>
     <t>2.  python recipe code for jinja templates</t>
   </si>
   <si>
     <t>3. event bridge-&gt;sqs-&gt;app config-&gt;dataiku  flow understanding</t>
+  </si>
+  <si>
+    <t>all types of graphs generated in tableau</t>
+  </si>
+  <si>
+    <t>client meeting</t>
+  </si>
+  <si>
+    <t>project task on tms code and tms main</t>
+  </si>
+  <si>
+    <t>upload local files to data iku folder</t>
+  </si>
+  <si>
+    <t>move folder one project to another project folder in data iku</t>
+  </si>
+  <si>
+    <t>how to run python recipe</t>
+  </si>
+  <si>
+    <t>sql class(where, delete, update, rename)</t>
+  </si>
+  <si>
+    <t>2. dataiku flow understanding, terraform code verification</t>
+  </si>
+  <si>
+    <t>3. LLM introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. jinja2 module installation in dataiku </t>
+  </si>
+  <si>
+    <t>3. error debugging in python recipe</t>
   </si>
 </sst>
 </file>
@@ -1271,28 +1298,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1645,7 +1672,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -1656,7 +1683,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1665,7 +1692,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1674,7 +1701,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -1685,7 +1712,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1694,7 +1721,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1703,7 +1730,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1714,7 +1741,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1723,7 +1750,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1732,7 +1759,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1743,7 +1770,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1752,7 +1779,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1761,7 +1788,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1772,7 +1799,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1781,7 +1808,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1790,7 +1817,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1801,7 +1828,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1810,7 +1837,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1819,7 +1846,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1830,7 +1857,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1839,7 +1866,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1850,7 +1877,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1859,7 +1886,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1870,7 +1897,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1879,7 +1906,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1888,7 +1915,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1899,7 +1926,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1908,7 +1935,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1919,7 +1946,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1928,7 +1955,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
@@ -1942,7 +1969,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="26"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1954,7 +1981,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+      <c r="A33" s="25">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1968,7 +1995,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="25"/>
       <c r="B34" t="s">
         <v>132</v>
       </c>
@@ -2031,7 +2058,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="23">
         <v>45646</v>
       </c>
       <c r="B40" t="s">
@@ -2042,7 +2069,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" t="s">
         <v>136</v>
       </c>
@@ -2051,7 +2078,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" t="s">
         <v>139</v>
       </c>
@@ -2084,7 +2111,7 @@
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+      <c r="A45" s="23">
         <v>45649</v>
       </c>
       <c r="B45" t="s">
@@ -2095,7 +2122,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>144</v>
       </c>
@@ -2104,7 +2131,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="B47" t="s">
         <v>139</v>
       </c>
@@ -2124,7 +2151,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="23">
         <v>45659</v>
       </c>
       <c r="B49" t="s">
@@ -2135,7 +2162,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="B50" t="s">
         <v>136</v>
       </c>
@@ -2144,7 +2171,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>45660</v>
       </c>
       <c r="B51" t="s">
@@ -2155,7 +2182,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" t="s">
         <v>139</v>
       </c>
@@ -2164,7 +2191,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" t="s">
         <v>136</v>
       </c>
@@ -2272,7 +2299,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
+      <c r="A63" s="24">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -2283,7 +2310,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="24"/>
       <c r="B64" t="s">
         <v>250</v>
       </c>
@@ -2292,7 +2319,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="24"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2301,7 +2328,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="25">
+      <c r="A66" s="24">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2312,7 +2339,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
+      <c r="A67" s="24"/>
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -2321,7 +2348,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
+      <c r="A68" s="24"/>
       <c r="B68" t="s">
         <v>253</v>
       </c>
@@ -2330,7 +2357,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
+      <c r="A69" s="24"/>
       <c r="B69" t="s">
         <v>254</v>
       </c>
@@ -2350,7 +2377,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="22">
+      <c r="A71" s="23">
         <v>45672</v>
       </c>
       <c r="B71" t="s">
@@ -2364,7 +2391,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
       <c r="B72" t="s">
         <v>79</v>
       </c>
@@ -2376,7 +2403,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
+      <c r="A73" s="23">
         <v>45673</v>
       </c>
       <c r="B73" t="s">
@@ -2390,7 +2417,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
+      <c r="A74" s="23"/>
       <c r="B74" t="s">
         <v>136</v>
       </c>
@@ -2402,7 +2429,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="22">
+      <c r="A75" s="23">
         <v>45674</v>
       </c>
       <c r="B75" t="s">
@@ -2416,7 +2443,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
       <c r="B76" t="s">
         <v>331</v>
       </c>
@@ -2428,7 +2455,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
       <c r="B77" t="s">
         <v>136</v>
       </c>
@@ -2443,12 +2470,12 @@
       <c r="A78" s="9">
         <v>45675</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
       <c r="F78" t="s">
         <v>9</v>
       </c>
@@ -2457,12 +2484,12 @@
       <c r="A79" s="9">
         <v>45676</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
       <c r="F79" t="s">
         <v>9</v>
       </c>
@@ -2523,6 +2550,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="A71:A72"/>
@@ -2534,19 +2574,6 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2554,11 +2581,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2589,7 +2616,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2600,7 +2627,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2609,10 +2636,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2623,24 +2650,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2651,7 +2678,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2660,7 +2687,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2669,7 +2696,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2680,7 +2707,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2689,10 +2716,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2703,7 +2730,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2712,13 +2739,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2729,7 +2756,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2738,7 +2765,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +2774,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2758,7 +2785,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2767,7 +2794,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2776,7 +2803,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="23">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2787,7 +2814,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2796,7 +2823,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2805,7 +2832,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2816,7 +2843,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2825,7 +2852,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2834,7 +2861,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2843,7 +2870,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="23">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2854,7 +2881,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2863,7 +2890,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2872,7 +2899,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="23">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2883,7 +2910,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2892,7 +2919,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2901,13 +2928,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="26"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2918,7 +2945,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -2927,7 +2954,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2936,7 +2963,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="24">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2944,13 +2971,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2961,7 +2988,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="A47" s="23">
         <v>45646</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2972,7 +2999,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="5" t="s">
         <v>145</v>
       </c>
@@ -2981,7 +3008,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="5" t="s">
         <v>146</v>
       </c>
@@ -3012,7 +3039,7 @@
       <c r="E51" s="17"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="A52" s="23">
         <v>45649</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3023,7 +3050,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="5" t="s">
         <v>146</v>
       </c>
@@ -3054,7 +3081,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="A56" s="23">
         <v>45660</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3065,7 +3092,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="5" t="s">
         <v>166</v>
       </c>
@@ -3074,7 +3101,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="A58" s="23">
         <v>45663</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3085,7 +3112,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="5" t="s">
         <v>168</v>
       </c>
@@ -3094,7 +3121,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="5" t="s">
         <v>169</v>
       </c>
@@ -3103,7 +3130,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="23">
         <v>45664</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3114,7 +3141,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="5" t="s">
         <v>183</v>
       </c>
@@ -3123,7 +3150,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="5" t="s">
         <v>184</v>
       </c>
@@ -3132,7 +3159,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
+      <c r="A64" s="24">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3143,7 +3170,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="5" t="s">
         <v>187</v>
       </c>
@@ -3152,7 +3179,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="5" t="s">
         <v>202</v>
       </c>
@@ -3161,7 +3188,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="5" t="s">
         <v>188</v>
       </c>
@@ -3170,7 +3197,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="5" t="s">
         <v>203</v>
       </c>
@@ -3179,7 +3206,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
+      <c r="A69" s="24">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3190,7 +3217,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="5" t="s">
         <v>205</v>
       </c>
@@ -3199,7 +3226,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="5" t="s">
         <v>202</v>
       </c>
@@ -3208,7 +3235,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="5" t="s">
         <v>188</v>
       </c>
@@ -3217,7 +3244,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="5" t="s">
         <v>206</v>
       </c>
@@ -3226,7 +3253,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
+      <c r="A74" s="24">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3237,7 +3264,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="5" t="s">
         <v>205</v>
       </c>
@@ -3246,7 +3273,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="5" t="s">
         <v>229</v>
       </c>
@@ -3255,7 +3282,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="5" t="s">
         <v>230</v>
       </c>
@@ -3264,7 +3291,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="5" t="s">
         <v>231</v>
       </c>
@@ -3273,7 +3300,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="A79" s="23">
         <v>45671</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3284,7 +3311,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="5" t="s">
         <v>266</v>
       </c>
@@ -3293,7 +3320,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="22">
+      <c r="A81" s="23">
         <v>45672</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -3304,7 +3331,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="5" t="s">
         <v>267</v>
       </c>
@@ -3313,7 +3340,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="22">
+      <c r="A83" s="23">
         <v>45673</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3324,7 +3351,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="5" t="s">
         <v>279</v>
       </c>
@@ -3333,7 +3360,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="A85" s="23">
         <v>45674</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3344,7 +3371,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="5" t="s">
         <v>299</v>
       </c>
@@ -3353,7 +3380,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="5" t="s">
         <v>300</v>
       </c>
@@ -3389,7 +3416,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="22">
+      <c r="A91" s="23">
         <v>45678</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3400,7 +3427,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="5" t="s">
         <v>302</v>
       </c>
@@ -3409,7 +3436,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="5" t="s">
         <v>303</v>
       </c>
@@ -3418,7 +3445,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="22">
+      <c r="A94" s="23">
         <v>45679</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -3429,7 +3456,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="5" t="s">
         <v>319</v>
       </c>
@@ -3438,7 +3465,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="5" t="s">
         <v>320</v>
       </c>
@@ -3458,7 +3485,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="22">
+      <c r="A98" s="23">
         <v>45681</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -3469,7 +3496,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="5" t="s">
         <v>340</v>
       </c>
@@ -3478,7 +3505,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="5" t="s">
         <v>341</v>
       </c>
@@ -3487,7 +3514,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="22">
+      <c r="A101" s="23">
         <v>45682</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -3498,7 +3525,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="22"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="5" t="s">
         <v>344</v>
       </c>
@@ -3507,7 +3534,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="22"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="5" t="s">
         <v>345</v>
       </c>
@@ -3516,7 +3543,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="22">
+      <c r="A104" s="23">
         <v>45683</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -3527,7 +3554,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="22"/>
+      <c r="A105" s="23"/>
       <c r="B105" s="5" t="s">
         <v>344</v>
       </c>
@@ -3536,7 +3563,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="22"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="5" t="s">
         <v>346</v>
       </c>
@@ -3545,79 +3572,95 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="22">
+      <c r="A107" s="23">
         <v>45684</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="E107" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="23"/>
+      <c r="B108" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="23"/>
+      <c r="B109" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="23">
+        <v>45685</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="23"/>
+      <c r="B111" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="23"/>
+      <c r="B112" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="23">
+        <v>45686</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="22"/>
-      <c r="B108" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C108" s="5" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="23"/>
+      <c r="B114" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="22"/>
-      <c r="B109" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C109" s="5" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="23"/>
+      <c r="B115" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="22">
-        <v>45685</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="22"/>
-      <c r="B111" s="28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="34">
+    <mergeCell ref="A113:A115"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A40:A42"/>
@@ -3628,6 +3671,29 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A91:A93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3668,7 +3734,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3679,7 +3745,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3688,15 +3754,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3705,21 +3771,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3730,7 +3796,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -3739,80 +3805,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="23">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="23">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3835,11 +3901,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77:E79"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3870,7 +3936,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3881,7 +3947,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3890,10 +3956,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3904,24 +3970,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3932,7 +3998,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -3941,10 +4007,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3955,7 +4021,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3964,10 +4030,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3978,7 +4044,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -3987,7 +4053,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3996,7 +4062,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4007,7 +4073,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -4016,7 +4082,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4027,7 +4093,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -4036,7 +4102,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4047,7 +4113,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -4056,7 +4122,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -4065,31 +4131,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4100,7 +4166,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4177,7 +4243,7 @@
       <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="24">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4185,7 +4251,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="4" t="s">
         <v>148</v>
       </c>
@@ -4194,7 +4260,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="4" t="s">
         <v>149</v>
       </c>
@@ -4561,15 +4627,50 @@
       <c r="B78" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>122</v>
+      <c r="E78" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>45686</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>370</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4596,11 +4697,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4631,7 +4732,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4642,7 +4743,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4651,7 +4752,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4662,18 +4763,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4684,7 +4785,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4693,10 +4794,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4707,7 +4808,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4716,10 +4817,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4730,7 +4831,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4739,7 +4840,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4748,7 +4849,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4759,7 +4860,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4768,7 +4869,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4779,10 +4880,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4793,13 +4894,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4810,7 +4911,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4819,10 +4920,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4833,7 +4934,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4842,7 +4943,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4851,7 +4952,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4862,7 +4963,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -4942,12 +5043,12 @@
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="4" t="s">
         <v>148</v>
       </c>
@@ -4956,7 +5057,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="4" t="s">
         <v>149</v>
       </c>
@@ -4990,7 +5091,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="25">
+      <c r="A48" s="24">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -5001,7 +5102,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="4" t="s">
         <v>177</v>
       </c>
@@ -5021,16 +5122,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
+      <c r="A55" s="24">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -5041,7 +5142,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="4" t="s">
         <v>209</v>
       </c>
@@ -5050,7 +5151,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="4" t="s">
         <v>210</v>
       </c>
@@ -5059,7 +5160,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="4" t="s">
         <v>211</v>
       </c>
@@ -5068,7 +5169,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="4" t="s">
         <v>212</v>
       </c>
@@ -5341,7 +5442,26 @@
       <c r="B86" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="E86" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>45686</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>370</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5370,11 +5490,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5404,7 +5524,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+      <c r="A2" s="28">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -5415,7 +5535,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -5424,10 +5544,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -5438,24 +5558,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="28">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -5466,7 +5586,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -5475,7 +5595,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -5484,12 +5604,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="28">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -5498,10 +5618,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="28">
         <v>45637</v>
       </c>
       <c r="B17" t="s">
@@ -5512,7 +5632,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -5521,7 +5641,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="28">
         <v>45638</v>
       </c>
       <c r="B19" t="s">
@@ -5532,7 +5652,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>101</v>
       </c>
@@ -5541,15 +5661,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+      <c r="A22" s="28">
         <v>45639</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -5558,7 +5678,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" t="s">
         <v>102</v>
       </c>
@@ -5567,12 +5687,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="28">
         <v>45642</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -5581,7 +5701,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" t="s">
         <v>104</v>
       </c>
@@ -5590,7 +5710,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="28">
         <v>45643</v>
       </c>
       <c r="B28" t="s">
@@ -5598,7 +5718,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" t="s">
         <v>116</v>
       </c>
@@ -6078,18 +6198,53 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
+    <row r="74" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>45686</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>370</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6097,11 +6252,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6290,7 +6445,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -6301,7 +6456,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -6310,7 +6465,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -6321,7 +6476,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -6330,13 +6485,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -6347,7 +6502,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6356,7 +6511,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -6365,7 +6520,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -6373,13 +6528,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -6390,7 +6545,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -6399,7 +6554,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -6408,7 +6563,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="24">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6419,7 +6574,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -6428,7 +6583,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -6437,7 +6592,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -6446,7 +6601,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="A39" s="24">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -6457,7 +6612,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -6466,7 +6621,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -6475,7 +6630,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -6550,7 +6705,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="24">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -6561,7 +6716,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
@@ -6570,7 +6725,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="4" t="s">
         <v>173</v>
       </c>
@@ -6893,6 +7048,9 @@
       <c r="B82" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="E82" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
@@ -6901,15 +7059,39 @@
       <c r="B83" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>1</v>
+      <c r="E83" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C84" s="4" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>45686</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6930,10 +7112,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7237,7 +7419,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>45677</v>
       </c>
       <c r="B30" t="s">
@@ -7248,7 +7430,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" t="s">
         <v>308</v>
       </c>
@@ -7257,7 +7439,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>307</v>
       </c>
@@ -7360,8 +7542,8 @@
       <c r="B41" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C41" t="s">
-        <v>122</v>
+      <c r="E41" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -7371,7 +7553,26 @@
       <c r="B42" t="s">
         <v>361</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>45686</v>
+      </c>
+      <c r="B43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\Stanup status_ team\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4087F4C1-3249-4142-8655-56B65B612B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3475498F-EA8E-4AFA-816F-C5E5DA69BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="389">
   <si>
     <t>Task</t>
   </si>
@@ -1193,6 +1193,48 @@
   </si>
   <si>
     <t>3. error debugging in python recipe</t>
+  </si>
+  <si>
+    <t>tableau (filters, sorting data, parameters)</t>
+  </si>
+  <si>
+    <t>project task on separating day, month, year in python</t>
+  </si>
+  <si>
+    <t>sql class(update, isin , between, not)</t>
+  </si>
+  <si>
+    <t>tableau parameters continution</t>
+  </si>
+  <si>
+    <t>sql class</t>
+  </si>
+  <si>
+    <t>2. dataiku error debugging</t>
+  </si>
+  <si>
+    <t>3. Transformers in LLM</t>
+  </si>
+  <si>
+    <t>dataiku tabs options doccument preparation</t>
+  </si>
+  <si>
+    <t>sql class(isin,between, not,or,and)</t>
+  </si>
+  <si>
+    <t>excel sheet task</t>
+  </si>
+  <si>
+    <t>1.  Transformers models</t>
+  </si>
+  <si>
+    <t>2. context of large language models</t>
+  </si>
+  <si>
+    <t>python filters, append and basic checks</t>
+  </si>
+  <si>
+    <t>need to strat</t>
   </si>
 </sst>
 </file>
@@ -1301,20 +1343,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1969,7 +2011,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -1981,7 +2023,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+      <c r="A33" s="22">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
@@ -1995,7 +2037,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+      <c r="A34" s="22"/>
       <c r="B34" t="s">
         <v>132</v>
       </c>
@@ -2299,7 +2341,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
+      <c r="A63" s="26">
         <v>45666</v>
       </c>
       <c r="B63" t="s">
@@ -2310,7 +2352,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
+      <c r="A64" s="26"/>
       <c r="B64" t="s">
         <v>250</v>
       </c>
@@ -2319,7 +2361,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
+      <c r="A65" s="26"/>
       <c r="B65" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2370,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="24">
+      <c r="A66" s="26">
         <v>45667</v>
       </c>
       <c r="B66" t="s">
@@ -2339,7 +2381,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
+      <c r="A67" s="26"/>
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -2348,7 +2390,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="26"/>
       <c r="B68" t="s">
         <v>253</v>
       </c>
@@ -2357,7 +2399,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
+      <c r="A69" s="26"/>
       <c r="B69" t="s">
         <v>254</v>
       </c>
@@ -2470,12 +2512,12 @@
       <c r="A78" s="9">
         <v>45675</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
       <c r="F78" t="s">
         <v>9</v>
       </c>
@@ -2484,12 +2526,12 @@
       <c r="A79" s="9">
         <v>45676</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
       <c r="F79" t="s">
         <v>9</v>
       </c>
@@ -2550,19 +2592,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="A71:A72"/>
@@ -2574,6 +2603,19 @@
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2581,11 +2623,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,7 +2874,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+      <c r="A29" s="26">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2843,7 +2885,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2852,7 +2894,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2861,7 +2903,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2910,7 +2952,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2919,7 +2961,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2928,13 +2970,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
+      <c r="A39" s="24"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
+      <c r="A40" s="26">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2945,7 +2987,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -2954,7 +2996,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2963,7 +3005,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="24">
+      <c r="A43" s="26">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2971,13 +3013,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -3159,7 +3201,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="24">
+      <c r="A64" s="26">
         <v>45665</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3170,7 +3212,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="5" t="s">
         <v>187</v>
       </c>
@@ -3179,7 +3221,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="5" t="s">
         <v>202</v>
       </c>
@@ -3188,7 +3230,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="5" t="s">
         <v>188</v>
       </c>
@@ -3197,7 +3239,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="5" t="s">
         <v>203</v>
       </c>
@@ -3206,7 +3248,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="24">
+      <c r="A69" s="26">
         <v>45666</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3217,7 +3259,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="5" t="s">
         <v>205</v>
       </c>
@@ -3226,7 +3268,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="24"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="5" t="s">
         <v>202</v>
       </c>
@@ -3235,7 +3277,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="5" t="s">
         <v>188</v>
       </c>
@@ -3244,7 +3286,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="5" t="s">
         <v>206</v>
       </c>
@@ -3253,7 +3295,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="24">
+      <c r="A74" s="26">
         <v>45667</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3264,7 +3306,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="5" t="s">
         <v>205</v>
       </c>
@@ -3273,7 +3315,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="5" t="s">
         <v>229</v>
       </c>
@@ -3282,7 +3324,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="5" t="s">
         <v>230</v>
       </c>
@@ -3291,7 +3333,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="5" t="s">
         <v>231</v>
       </c>
@@ -3629,37 +3671,109 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>45686</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E113" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E114" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="E115" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="23">
+        <v>45687</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="23"/>
+      <c r="B117" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="23"/>
+      <c r="B118" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="23">
+        <v>45688</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="23"/>
+      <c r="B120" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A113:A115"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A17:A19"/>
@@ -3671,29 +3785,11 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A91:A93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3878,7 +3974,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3901,11 +3997,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3936,7 +4032,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="A2" s="26">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3947,7 +4043,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3956,10 +4052,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
+      <c r="A5" s="26">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3970,24 +4066,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+      <c r="A8" s="26">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="26">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3998,7 +4094,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -4007,10 +4103,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="A14" s="26">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4021,7 +4117,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -4030,10 +4126,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
+      <c r="A17" s="26">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4044,7 +4140,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -4053,7 +4149,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -4062,7 +4158,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+      <c r="A20" s="26">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4073,7 +4169,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -4082,7 +4178,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+      <c r="A22" s="26">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4093,7 +4189,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -4102,7 +4198,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
+      <c r="A24" s="26">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4113,7 +4209,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -4122,7 +4218,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -4131,23 +4227,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+      <c r="A27" s="26">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="26"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+      <c r="A29" s="26">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="26"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
+      <c r="A31" s="26">
         <v>45643</v>
       </c>
     </row>
@@ -4155,7 +4251,7 @@
       <c r="A32" s="27"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
+      <c r="A34" s="26">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4166,7 +4262,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4243,7 +4339,7 @@
       <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="24">
+      <c r="A43" s="26">
         <v>45649</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4251,7 +4347,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="4" t="s">
         <v>148</v>
       </c>
@@ -4260,7 +4356,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="4" t="s">
         <v>149</v>
       </c>
@@ -4646,31 +4742,61 @@
       <c r="B80" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E81" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E82" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>370</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="E83" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>45687</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>45688</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4732,7 +4858,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="A2" s="26">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4743,7 +4869,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -4752,7 +4878,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+      <c r="A4" s="26">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4763,18 +4889,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="A6" s="26">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+      <c r="A8" s="26">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4785,7 +4911,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4794,10 +4920,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="26">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4808,7 +4934,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -4817,10 +4943,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="A14" s="26">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4831,7 +4957,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4840,7 +4966,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -4849,7 +4975,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
+      <c r="A17" s="26">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4860,7 +4986,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4869,7 +4995,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="26">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4880,10 +5006,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+      <c r="A21" s="26">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4894,13 +5020,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="26"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
+      <c r="A24" s="26">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4911,7 +5037,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -4920,10 +5046,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+      <c r="A27" s="26">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4934,7 +5060,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -4943,7 +5069,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -4952,7 +5078,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+      <c r="A30" s="26">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4963,7 +5089,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
@@ -5043,12 +5169,12 @@
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
+      <c r="A40" s="26">
         <v>45649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="4" t="s">
         <v>148</v>
       </c>
@@ -5057,7 +5183,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="4" t="s">
         <v>149</v>
       </c>
@@ -5091,7 +5217,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
+      <c r="A48" s="26">
         <v>45663</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -5102,7 +5228,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="4" t="s">
         <v>177</v>
       </c>
@@ -5122,16 +5248,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="26"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
+      <c r="A53" s="26"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
+      <c r="A54" s="26"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="24">
+      <c r="A55" s="26">
         <v>45665</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -5142,7 +5268,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="4" t="s">
         <v>209</v>
       </c>
@@ -5151,7 +5277,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="4" t="s">
         <v>210</v>
       </c>
@@ -5160,7 +5286,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="4" t="s">
         <v>211</v>
       </c>
@@ -5169,7 +5295,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="4" t="s">
         <v>212</v>
       </c>
@@ -5490,11 +5616,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6233,18 +6359,55 @@
         <v>122</v>
       </c>
     </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>45687</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>45688</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6252,11 +6415,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6445,7 +6608,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+      <c r="A22" s="26">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -6456,7 +6619,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -6465,7 +6628,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
+      <c r="A24" s="26">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -6476,7 +6639,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -6485,13 +6648,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="26"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+      <c r="A27" s="26">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -6502,7 +6665,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -6511,7 +6674,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -6520,7 +6683,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+      <c r="A30" s="26">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -6528,13 +6691,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="26"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
+      <c r="A32" s="26">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -6545,7 +6708,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
@@ -6554,7 +6717,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -6563,7 +6726,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
+      <c r="A35" s="26">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6574,7 +6737,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
@@ -6583,7 +6746,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="4" t="s">
         <v>120</v>
       </c>
@@ -6592,7 +6755,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -6601,7 +6764,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="24">
+      <c r="A39" s="26">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -6612,7 +6775,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
@@ -6621,7 +6784,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
@@ -6630,7 +6793,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -6639,7 +6802,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -6705,7 +6868,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
+      <c r="A51" s="26">
         <v>45663</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -6716,7 +6879,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
@@ -6725,7 +6888,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="4" t="s">
         <v>173</v>
       </c>
@@ -7067,6 +7230,9 @@
       <c r="B84" s="4" t="s">
         <v>358</v>
       </c>
+      <c r="E84" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
@@ -7075,24 +7241,70 @@
       <c r="B85" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>1</v>
+      <c r="E85" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>1</v>
+      <c r="E86" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>1</v>
+      <c r="E87" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>45687</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
+        <v>45688</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7112,10 +7324,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7B327A-6567-47FF-B6C3-8A40BD3FF708}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7419,7 +7631,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+      <c r="A30" s="26">
         <v>45677</v>
       </c>
       <c r="B30" t="s">
@@ -7430,7 +7642,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="26"/>
       <c r="B31" t="s">
         <v>308</v>
       </c>
@@ -7439,7 +7651,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="26"/>
       <c r="B32" t="s">
         <v>307</v>
       </c>
@@ -7564,16 +7776,62 @@
       <c r="B43" t="s">
         <v>189</v>
       </c>
-      <c r="C43" t="s">
-        <v>122</v>
+      <c r="E43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>370</v>
       </c>
-      <c r="C44" t="s">
-        <v>122</v>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>45687</v>
+      </c>
+      <c r="B45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>45688</v>
+      </c>
+      <c r="B48" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>379</v>
+      </c>
+      <c r="C49" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
